--- a/pdb/nsp3/SARS-CoV-2/domains_and_infos_of_nsp3.xlsx
+++ b/pdb/nsp3/SARS-CoV-2/domains_and_infos_of_nsp3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="677">
   <si>
     <t>PDB</t>
   </si>
@@ -1848,6 +1848,15 @@
     <t>STRUCTURE OF SARS-COV-2 PAPAIN-LIKE PROTEASE PLPRO IN COMPLEX WITH 4- (2-HYDROXYETHYL)PHENOL</t>
   </si>
   <si>
+    <t>7sgu</t>
+  </si>
+  <si>
+    <t>PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH PLP_SNYDER608 INHIBITOR</t>
+  </si>
+  <si>
+    <t>2021-10-07</t>
+  </si>
+  <si>
     <t>7rbr</t>
   </si>
   <si>
@@ -1947,6 +1956,12 @@
     <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH PLP_SNYDER530 INHIBITOR</t>
   </si>
   <si>
+    <t>7sgw</t>
+  </si>
+  <si>
+    <t>PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH PLP_SNYDER630 INHIBITOR</t>
+  </si>
+  <si>
     <t>7rzc</t>
   </si>
   <si>
@@ -1972,6 +1987,12 @@
   </si>
   <si>
     <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>7sgv</t>
+  </si>
+  <si>
+    <t>PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH PLP_SNYDER630 INHIBITOR</t>
   </si>
   <si>
     <t>7lbs</t>
@@ -6900,7 +6921,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7273,7 +7294,7 @@
         <v>609</v>
       </c>
       <c r="B22">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="C22" t="s">
         <v>610</v>
@@ -7282,24 +7303,24 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B23">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="C23" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7307,7 +7328,7 @@
         <v>614</v>
       </c>
       <c r="B24">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="C24" t="s">
         <v>615</v>
@@ -7324,7 +7345,7 @@
         <v>617</v>
       </c>
       <c r="B25">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="C25" t="s">
         <v>618</v>
@@ -7333,24 +7354,24 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>568</v>
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B26">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="C26" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>621</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7358,7 +7379,7 @@
         <v>622</v>
       </c>
       <c r="B27">
-        <v>2.48</v>
+        <v>2.9</v>
       </c>
       <c r="C27" t="s">
         <v>623</v>
@@ -7375,7 +7396,7 @@
         <v>625</v>
       </c>
       <c r="B28">
-        <v>3.2</v>
+        <v>2.48</v>
       </c>
       <c r="C28" t="s">
         <v>626</v>
@@ -7392,7 +7413,7 @@
         <v>628</v>
       </c>
       <c r="B29">
-        <v>1.93</v>
+        <v>3.2</v>
       </c>
       <c r="C29" t="s">
         <v>629</v>
@@ -7409,7 +7430,7 @@
         <v>631</v>
       </c>
       <c r="B30">
-        <v>2.72</v>
+        <v>1.93</v>
       </c>
       <c r="C30" t="s">
         <v>632</v>
@@ -7426,7 +7447,7 @@
         <v>634</v>
       </c>
       <c r="B31">
-        <v>1.97</v>
+        <v>2.72</v>
       </c>
       <c r="C31" t="s">
         <v>635</v>
@@ -7443,7 +7464,7 @@
         <v>637</v>
       </c>
       <c r="B32">
-        <v>2.3</v>
+        <v>1.97</v>
       </c>
       <c r="C32" t="s">
         <v>638</v>
@@ -7469,24 +7490,24 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>568</v>
+        <v>642</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B34">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="C34" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>644</v>
+        <v>568</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -7494,7 +7515,7 @@
         <v>645</v>
       </c>
       <c r="B35">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="C35" t="s">
         <v>646</v>
@@ -7503,41 +7524,41 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>647</v>
+        <v>611</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
+        <v>647</v>
+      </c>
+      <c r="B36">
+        <v>2.04</v>
+      </c>
+      <c r="C36" t="s">
         <v>648</v>
       </c>
-      <c r="B36">
-        <v>2.48</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
         <v>649</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>650</v>
+      </c>
+      <c r="B37">
+        <v>1.66</v>
+      </c>
+      <c r="C37" t="s">
         <v>651</v>
       </c>
-      <c r="B37">
-        <v>2.8</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
         <v>652</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -7545,7 +7566,7 @@
         <v>653</v>
       </c>
       <c r="B38">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="C38" t="s">
         <v>654</v>
@@ -7562,7 +7583,7 @@
         <v>656</v>
       </c>
       <c r="B39">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
         <v>657</v>
@@ -7571,7 +7592,7 @@
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>562</v>
+        <v>611</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -7579,7 +7600,7 @@
         <v>658</v>
       </c>
       <c r="B40">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="C40" t="s">
         <v>659</v>
@@ -7588,6 +7609,57 @@
         <v>7</v>
       </c>
       <c r="E40" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>660</v>
+      </c>
+      <c r="B41">
+        <v>2.5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>661</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>663</v>
+      </c>
+      <c r="B42">
+        <v>2.02</v>
+      </c>
+      <c r="C42" t="s">
+        <v>664</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>665</v>
+      </c>
+      <c r="B43">
+        <v>2.05</v>
+      </c>
+      <c r="C43" t="s">
+        <v>666</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
         <v>568</v>
       </c>
     </row>
@@ -7628,7 +7700,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -7645,7 +7717,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7697,19 +7769,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="B2">
         <v>2.45</v>
       </c>
       <c r="C2" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -7749,19 +7821,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="B2">
         <v>2.17</v>
       </c>
       <c r="C2" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -7801,19 +7873,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="B2">
         <v>3.21</v>
       </c>
       <c r="C2" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/pdb/nsp3/SARS-CoV-2/domains_and_infos_of_nsp3.xlsx
+++ b/pdb/nsp3/SARS-CoV-2/domains_and_infos_of_nsp3.xlsx
@@ -9,17 +9,19 @@
   <sheets>
     <sheet name="nsp3_Macro1" sheetId="1" r:id="rId1"/>
     <sheet name="nsp3_PL2pro" sheetId="2" r:id="rId2"/>
-    <sheet name="None" sheetId="3" r:id="rId3"/>
-    <sheet name="nsp3_NAB" sheetId="4" r:id="rId4"/>
+    <sheet name="nsp3_NAB" sheetId="3" r:id="rId3"/>
+    <sheet name="CoV1_nsp3_LINKER-PLpro-NAB" sheetId="4" r:id="rId4"/>
     <sheet name="nsp3_Y3" sheetId="5" r:id="rId5"/>
-    <sheet name="nsp3_Ubl1" sheetId="6" r:id="rId6"/>
+    <sheet name="nsp3_frgmnt_btwn_PL2pro_NAB" sheetId="6" r:id="rId6"/>
+    <sheet name="nsp3_Ubl1" sheetId="7" r:id="rId7"/>
+    <sheet name="Organisms" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="681">
   <si>
     <t>PDB</t>
   </si>
@@ -669,1285 +671,1369 @@
     <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z409974522</t>
   </si>
   <si>
+    <t>5ru0</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000388514</t>
+  </si>
+  <si>
+    <t>5ruv</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000019015194</t>
+  </si>
+  <si>
+    <t>5rtb</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000006534965</t>
+  </si>
+  <si>
+    <t>6w6y</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF ADP RIBOSE PHOSPHATASE OF NSP3 FROM SARS COV-2 IN COMPLEX WITH AMP</t>
+  </si>
+  <si>
+    <t>2020-03-18</t>
+  </si>
+  <si>
+    <t>5run</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000194295</t>
+  </si>
+  <si>
+    <t>5ruh</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000123600</t>
+  </si>
+  <si>
+    <t>5s1c</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z3034471507</t>
+  </si>
+  <si>
+    <t>5s1i</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH EN300-301084</t>
+  </si>
+  <si>
+    <t>5rsn</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000064576</t>
+  </si>
+  <si>
+    <t>5rta</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000332540</t>
+  </si>
+  <si>
+    <t>7jme</t>
+  </si>
+  <si>
+    <t>STRUCTURE OF THE SARS-COV-2 NSP3 MACRO X DOMAIN IN COMPLEX WITH CYCLIC AMP</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>7kg3</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF COV-2 NSP3 MACRODOMAIN</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>5rum</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000008861082</t>
+  </si>
+  <si>
+    <t>5s2e</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1152242726</t>
+  </si>
+  <si>
+    <t>5s4k</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH FMOOA000509A</t>
+  </si>
+  <si>
+    <t>5s44</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH NCL-00024890</t>
+  </si>
+  <si>
+    <t>5rtg</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000395673</t>
+  </si>
+  <si>
+    <t>6ywl</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF SARS-COV-2 (COVID-19) NSP3 MACRODOMAIN IN COMPLEX WITH ADP-RIBOSE</t>
+  </si>
+  <si>
+    <t>5s4h</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH SF048</t>
+  </si>
+  <si>
+    <t>5s2y</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z19727416</t>
+  </si>
+  <si>
+    <t>6w02</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF ADP RIBOSE PHOSPHATASE OF NSP3 FROM SARS COV-2 IN THE COMPLEX WITH ADP RIBOSE</t>
+  </si>
+  <si>
+    <t>2020-02-28</t>
+  </si>
+  <si>
+    <t>5rud</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000008615114</t>
+  </si>
+  <si>
+    <t>5rt7</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000015442276</t>
+  </si>
+  <si>
+    <t>5rvn</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000332748</t>
+  </si>
+  <si>
+    <t>5s1k</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH EN300-105873</t>
+  </si>
+  <si>
+    <t>5rt1</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000039810</t>
+  </si>
+  <si>
+    <t>5rua</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000033986325</t>
+  </si>
+  <si>
+    <t>5rt4</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000051581</t>
+  </si>
+  <si>
+    <t>5s26</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z605596346</t>
+  </si>
+  <si>
+    <t>5rup</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000004976927</t>
+  </si>
+  <si>
+    <t>5rsb</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000001674697</t>
+  </si>
+  <si>
+    <t>5ruo</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000001683100</t>
+  </si>
+  <si>
+    <t>5rtr</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000018169763</t>
+  </si>
+  <si>
+    <t>5rvs</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000159004</t>
+  </si>
+  <si>
+    <t>5s2w</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1407672867</t>
+  </si>
+  <si>
+    <t>5s1s</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1613477500</t>
+  </si>
+  <si>
+    <t>5ru3</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000161696</t>
+  </si>
+  <si>
+    <t>5rux</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000002020050</t>
+  </si>
+  <si>
+    <t>5s1g</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH EN300-108952</t>
+  </si>
+  <si>
+    <t>5rtt</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000873830</t>
+  </si>
+  <si>
+    <t>5rvq</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000002508153</t>
+  </si>
+  <si>
+    <t>5rti</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000004219237</t>
+  </si>
+  <si>
+    <t>5rts</t>
+  </si>
+  <si>
+    <t>5ru1</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000034687</t>
+  </si>
+  <si>
+    <t>5rv9</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000388150</t>
+  </si>
+  <si>
+    <t>5rty</t>
+  </si>
+  <si>
+    <t>5rv3</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000057162</t>
+  </si>
+  <si>
+    <t>5s1y</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH STK346965</t>
+  </si>
+  <si>
+    <t>5s2p</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z927746322</t>
+  </si>
+  <si>
+    <t>5s4j</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH SF054</t>
+  </si>
+  <si>
+    <t>7kr1</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN (C2 CRYSTAL FORM, 310 K)</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
+  </si>
+  <si>
+    <t>5rug</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000038389</t>
+  </si>
+  <si>
+    <t>5rsg</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000263392672</t>
+  </si>
+  <si>
+    <t>5s2o</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z645232558</t>
+  </si>
+  <si>
+    <t>5s22</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z145120524</t>
+  </si>
+  <si>
+    <t>5s49</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z56866006</t>
+  </si>
+  <si>
+    <t>5rt8</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000161908</t>
+  </si>
+  <si>
+    <t>5s4f</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH SF003</t>
+  </si>
+  <si>
+    <t>5rui</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000332651</t>
+  </si>
+  <si>
+    <t>5rv5</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000008578948</t>
+  </si>
+  <si>
+    <t>5s2m</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z56827661</t>
+  </si>
+  <si>
+    <t>5rv2</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000311783</t>
+  </si>
+  <si>
+    <t>5ru8</t>
+  </si>
+  <si>
+    <t>6wcf</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF ADP RIBOSE PHOSPHATASE OF NSP3 FROM SARS-COV-2 IN COMPLEX WITH MES</t>
+  </si>
+  <si>
+    <t>2020-03-30</t>
+  </si>
+  <si>
+    <t>5s27</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1262398530</t>
+  </si>
+  <si>
+    <t>5rtn</t>
+  </si>
+  <si>
+    <t>5rv7</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000003954002</t>
+  </si>
+  <si>
+    <t>5rsw</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000337835</t>
+  </si>
+  <si>
+    <t>5s3s</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH POB0103</t>
+  </si>
+  <si>
+    <t>5ruy</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000013517187</t>
+  </si>
+  <si>
+    <t>5rv6</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000158540</t>
+  </si>
+  <si>
+    <t>5s33</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z906021418</t>
+  </si>
+  <si>
+    <t>5rt2</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000008652361</t>
+  </si>
+  <si>
+    <t>5rsk</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000901381520_N3</t>
+  </si>
+  <si>
+    <t>5s3o</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z102768020</t>
+  </si>
+  <si>
+    <t>5rsq</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000158490</t>
+  </si>
+  <si>
+    <t>5s39</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z165170770</t>
+  </si>
+  <si>
+    <t>5s4c</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1954800348</t>
+  </si>
+  <si>
+    <t>7lg7</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF COV-2 NSP3 MACRODOMAIN COMPLEX WITH PARG345</t>
+  </si>
+  <si>
+    <t>2021-01-19</t>
+  </si>
+  <si>
+    <t>5rus</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000388081</t>
+  </si>
+  <si>
+    <t>5ru6</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000001442764</t>
+  </si>
+  <si>
+    <t>5s1u</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH EN300-52144</t>
+  </si>
+  <si>
+    <t>5rv0</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000039994</t>
+  </si>
+  <si>
+    <t>5rto</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000388302</t>
+  </si>
+  <si>
+    <t>5s74</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION OF GROUND-STATE MODEL OF SARS-COV-2 NSP3 MACRODOMAIN</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>5s73</t>
+  </si>
+  <si>
+    <t>5s1m</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH STK497968</t>
+  </si>
+  <si>
+    <t>5rsi</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000374420934</t>
+  </si>
+  <si>
+    <t>5s37</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1954800564</t>
+  </si>
+  <si>
+    <t>5ruu</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000438614</t>
+  </si>
+  <si>
+    <t>5s3q</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH POB0013</t>
+  </si>
+  <si>
+    <t>5s36</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z2856434938</t>
+  </si>
+  <si>
+    <t>5rul</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000163774</t>
+  </si>
+  <si>
+    <t>5s32</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z26781943</t>
+  </si>
+  <si>
+    <t>5rtw</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000164777</t>
+  </si>
+  <si>
+    <t>5rvg</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000400552187_N3</t>
+  </si>
+  <si>
+    <t>7kqo</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN (P43 CRYSTAL FORM)</t>
+  </si>
+  <si>
+    <t>2020-11-17</t>
+  </si>
+  <si>
+    <t>5rsr</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000158650</t>
+  </si>
+  <si>
+    <t>7bf6</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF SARS-COV-2 MACRODOMAIN IN COMPLEX WITH REMDESIVIR METABOLITE GS-441524</t>
+  </si>
+  <si>
+    <t>5rtm</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000002005</t>
+  </si>
+  <si>
+    <t>5ruj</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000404314</t>
+  </si>
+  <si>
+    <t>5rsd</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000331945</t>
+  </si>
+  <si>
+    <t>5rso</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000000226</t>
+  </si>
+  <si>
+    <t>5ruk</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000161692</t>
+  </si>
+  <si>
+    <t>7bf5</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF SARS-COV-2 MACRODOMAIN IN COMPLEX WITH ADP- RIBOSE-PHOSPHATE (ADP-RIBOSE-2'-PHOSPHATE, ADPRP)</t>
+  </si>
+  <si>
+    <t>5rt0</t>
+  </si>
+  <si>
+    <t>5s3n</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z287484230</t>
+  </si>
+  <si>
+    <t>5rvl</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000149580</t>
+  </si>
+  <si>
+    <t>5rtf</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000002047514</t>
+  </si>
+  <si>
+    <t>5s3e</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z274553586</t>
+  </si>
+  <si>
+    <t>5rvj</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000001612349</t>
+  </si>
+  <si>
+    <t>5rtq</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000019015078</t>
+  </si>
+  <si>
+    <t>5rsp</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000002560357</t>
+  </si>
+  <si>
+    <t>5rvr</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000016052862</t>
+  </si>
+  <si>
+    <t>5rur</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000017744334</t>
+  </si>
+  <si>
+    <t>5s2u</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z85956652</t>
+  </si>
+  <si>
+    <t>5rv8</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000039575</t>
+  </si>
+  <si>
+    <t>5s46</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z57131035</t>
+  </si>
+  <si>
+    <t>5s3i</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z50145861</t>
+  </si>
+  <si>
+    <t>6vxs</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF ADP RIBOSE PHOSPHATASE OF NSP3 FROM SARS COV-2</t>
+  </si>
+  <si>
+    <t>2020-02-24</t>
+  </si>
+  <si>
+    <t>5s34</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z2856434941</t>
+  </si>
+  <si>
+    <t>6z6i</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 MACRODOMAIN IN COMPLEX WITH ADP-HPD</t>
+  </si>
+  <si>
+    <t>2020-05-28</t>
+  </si>
+  <si>
+    <t>5s2k</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z445856640</t>
+  </si>
+  <si>
+    <t>5rv4</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000039224</t>
+  </si>
+  <si>
+    <t>5s2x</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1139246057</t>
+  </si>
+  <si>
+    <t>5s48</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1741982125</t>
+  </si>
+  <si>
+    <t>5s2r</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z57292369</t>
+  </si>
+  <si>
+    <t>5s2g</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z321318226</t>
+  </si>
+  <si>
+    <t>5s3k</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z219104216</t>
+  </si>
+  <si>
+    <t>5s47</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z940713508</t>
+  </si>
+  <si>
+    <t>7kqp</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ADP- RIBOSE (P43 CRYSTAL FORM)</t>
+  </si>
+  <si>
+    <t>5rsv</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000340465</t>
+  </si>
+  <si>
+    <t>5rte</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000013283576</t>
+  </si>
+  <si>
+    <t>5s2q</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z26781952</t>
+  </si>
+  <si>
+    <t>5rtl</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000388056</t>
+  </si>
+  <si>
+    <t>5s3w</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH POB0135</t>
+  </si>
+  <si>
+    <t>7kr0</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN (C2 CRYSTAL FORM, 100 K)</t>
+  </si>
+  <si>
+    <t>5rtc</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000006490906</t>
+  </si>
+  <si>
+    <t>5s2n</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1787627869</t>
+  </si>
+  <si>
+    <t>5s4e</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z2301685688</t>
+  </si>
+  <si>
+    <t>5s4g</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH SF005</t>
+  </si>
+  <si>
+    <t>5ru7</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000003591110</t>
+  </si>
+  <si>
+    <t>5s3r</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH POB0014</t>
+  </si>
+  <si>
+    <t>5rvc</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000933940912</t>
+  </si>
+  <si>
+    <t>5s43</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH NCL-00024661</t>
+  </si>
+  <si>
+    <t>5ru4</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000001688638</t>
+  </si>
+  <si>
+    <t>5s1e</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH AB-601_30915014</t>
+  </si>
+  <si>
+    <t>5rtd</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000157108</t>
+  </si>
+  <si>
+    <t>7bf4</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF SARS-COV-2 MACRODOMAIN IN COMPLEX WITH GMP</t>
+  </si>
+  <si>
+    <t>5rt3</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000039281982</t>
+  </si>
+  <si>
+    <t>5s2a</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1263529624</t>
+  </si>
+  <si>
+    <t>5rut</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000161958</t>
+  </si>
+  <si>
+    <t>5s3b</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1741966151</t>
+  </si>
+  <si>
+    <t>5s4a</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z955123498</t>
+  </si>
+  <si>
+    <t>5s3z</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH POB0140</t>
+  </si>
+  <si>
+    <t>5s38</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1745658474</t>
+  </si>
+  <si>
+    <t>5rvf</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000082473428_N3</t>
+  </si>
+  <si>
+    <t>5ruc</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000005878</t>
+  </si>
+  <si>
+    <t>5s2h</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z2856434920</t>
+  </si>
+  <si>
+    <t>5s1q</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH EN300-17035</t>
+  </si>
+  <si>
+    <t>5rsf</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000026180281</t>
+  </si>
+  <si>
+    <t>5rsm</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000001099</t>
+  </si>
+  <si>
+    <t>6z72</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 MACRODOMAIN IN COMPLEX WITH ADP-HPM</t>
+  </si>
+  <si>
+    <t>2020-05-29</t>
+  </si>
+  <si>
+    <t>5ruq</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000032199226</t>
+  </si>
+  <si>
+    <t>5rsh</t>
+  </si>
+  <si>
+    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000274438208</t>
+  </si>
+  <si>
+    <t>7sdr</t>
+  </si>
+  <si>
+    <t>PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH JUN9-72-2 INHIBITOR</t>
+  </si>
+  <si>
+    <t>2021-09-29</t>
+  </si>
+  <si>
+    <t>7m1y</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH EBSELEN</t>
+  </si>
+  <si>
+    <t>2021-03-15</t>
+  </si>
+  <si>
+    <t>7kok</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH PLP_SNYDER496 INHIBITOR</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>6w9c</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2</t>
+  </si>
+  <si>
+    <t>2020-03-22</t>
+  </si>
+  <si>
+    <t>7jir</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , C111S MUTANT, IN COMPLEX WITH PLP_SNYDER457 INHIBITOR</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>7cmd</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF THE SARS-COV-2 PLPRO WITH GRL0617</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>6yva</t>
+  </si>
+  <si>
+    <t>PLPRO-C111S WITH MISG15</t>
+  </si>
+  <si>
+    <t>2020-04-28</t>
+  </si>
+  <si>
+    <t>7d7k</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF SARS-COV-2 PAPAIN-LIKE PROTEASE IN APO FORM</t>
+  </si>
+  <si>
+    <t>2020-10-04</t>
+  </si>
+  <si>
+    <t>7lbr</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) BOUND TO INHIBITOR XR8-89</t>
+  </si>
+  <si>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>6wuu</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF THE SARS COV-2 PAPAIN-LIKE PROTEASE IN COMPLEX WITH PEPTIDE INHIBITOR VIR250</t>
+  </si>
+  <si>
+    <t>2020-05-05</t>
+  </si>
+  <si>
+    <t>7rbs</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH HUMAN ISG15</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>7oft</t>
+  </si>
+  <si>
+    <t>STRUCTURE OF SARS-COV-2 PAPAIN-LIKE PROTEASE PLPRO IN COMPLEX WITH P- HYDROXYBENZALDEHYDE</t>
+  </si>
+  <si>
+    <t>2021-05-05</t>
+  </si>
+  <si>
+    <t>6wzu</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , P3221 SPACE GROUP</t>
+  </si>
+  <si>
+    <t>2020-05-14</t>
+  </si>
+  <si>
+    <t>7d7l</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF SARS-COV-2 PAPAIN-LIKE PROTEASE IN COMPLEX WITH YM155</t>
+  </si>
+  <si>
+    <t>6xaa</t>
+  </si>
+  <si>
+    <t>SARS COV-2 PLPRO IN COMPLEX WITH UBIQUITIN PROPARGYLAMIDE</t>
+  </si>
+  <si>
+    <t>2020-06-04</t>
+  </si>
+  <si>
+    <t>6wrh</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , C111S MUTANT</t>
+  </si>
+  <si>
+    <t>7e35</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF THE SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) C112S MUTANT BOUND TO COMPOUND S43</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>6xa9</t>
+  </si>
+  <si>
+    <t>SARS COV-2 PLPRO IN COMPLEX WITH ISG15 C-TERMINAL DOMAIN PROPARGYLAMIDE</t>
+  </si>
+  <si>
+    <t>7kol</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH PLP_SNYDER496 INHIBITOR</t>
+  </si>
+  <si>
+    <t>7ofs</t>
+  </si>
+  <si>
+    <t>STRUCTURE OF SARS-COV-2 PAPAIN-LIKE PROTEASE PLPRO IN COMPLEX WITH 4- (2-HYDROXYETHYL)PHENOL</t>
+  </si>
+  <si>
+    <t>7sgu</t>
+  </si>
+  <si>
+    <t>PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH PLP_SNYDER608 INHIBITOR</t>
+  </si>
+  <si>
+    <t>2021-10-07</t>
+  </si>
+  <si>
+    <t>7rbr</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH A LYS48-LINKED DI-UBIQUITIN</t>
+  </si>
+  <si>
+    <t>7d6h</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF THE SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) C112S MUTANT</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>7llz</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) BOUND TO INHIBITOR XR8-69</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>7jit</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , C111S MUTANT, IN COMPLEX WITH PLP_SNYDER495 INHIBITOR</t>
+  </si>
+  <si>
+    <t>7los</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) BOUND TO INHIBITOR XR8-65</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>7jrn</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF THE WILD TYPE SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) WITH INHIBITOR GRL0617</t>
+  </si>
+  <si>
+    <t>2020-08-12</t>
+  </si>
+  <si>
+    <t>7cjm</t>
+  </si>
+  <si>
+    <t>SARS COV-2 PLPRO IN COMPLEX WITH GRL0617</t>
+  </si>
+  <si>
+    <t>2020-07-11</t>
+  </si>
+  <si>
+    <t>7jn2</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH PLP_SNYDER441 INHIBITOR</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>7krx</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH PLP_SNYDER441 INHIBITOR</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>7d47</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF SARS-COV-2 PAPAIN-LIKE PROTEASE C111S</t>
+  </si>
+  <si>
+    <t>2020-09-22</t>
+  </si>
+  <si>
+    <t>7llf</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) BOUND TO INHIBITOR XR8-83</t>
+  </si>
+  <si>
+    <t>2021-02-03</t>
+  </si>
+  <si>
+    <t>7sgw</t>
+  </si>
+  <si>
+    <t>PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH PLP_SNYDER630 INHIBITOR</t>
+  </si>
+  <si>
+    <t>7rzc</t>
+  </si>
+  <si>
+    <t>PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH JUN9-84-3 INHIBITOR</t>
+  </si>
+  <si>
+    <t>2021-08-27</t>
+  </si>
+  <si>
+    <t>6wx4</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF THE SARS COV-2 PAPAIN-LIKE PROTEASE IN COMPLEX WITH PEPTIDE INHIBITOR VIR251</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>6xg3</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , C111S MUTANT, AT ROOM TEMPERATURE</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>7sgv</t>
+  </si>
+  <si>
+    <t>PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH PLP_SNYDER630 INHIBITOR</t>
+  </si>
+  <si>
+    <t>7lbs</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) BOUND TO INHIBITOR XR8-24</t>
+  </si>
+  <si>
+    <t>7cjd</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF THE SARS-COV-2 PLPRO C111S MUTANT</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>7koj</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH PLP_SNYDER494 INHIBITOR</t>
+  </si>
+  <si>
+    <t>7jiv</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , C111S MUTANT, IN COMPLEX WITH PLP_SNYDER530 INHIBITOR</t>
+  </si>
+  <si>
+    <t>7lgo</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF THE NUCLEIC ACID BINDING DOMAIN (NAB) OF NSP3 FROM SARS-COV-2</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
     <t>7kqw</t>
   </si>
   <si>
     <t>CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN (C2 CRYSTAL FORM, METHYLATED)</t>
   </si>
   <si>
-    <t>2020-11-17</t>
-  </si>
-  <si>
-    <t>5ru0</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000388514</t>
-  </si>
-  <si>
-    <t>5ruv</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000019015194</t>
-  </si>
-  <si>
-    <t>5rtb</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000006534965</t>
-  </si>
-  <si>
-    <t>6w6y</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF ADP RIBOSE PHOSPHATASE OF NSP3 FROM SARS COV-2 IN COMPLEX WITH AMP</t>
-  </si>
-  <si>
-    <t>2020-03-18</t>
-  </si>
-  <si>
-    <t>5run</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000194295</t>
-  </si>
-  <si>
-    <t>5ruh</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000123600</t>
-  </si>
-  <si>
-    <t>5s1c</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z3034471507</t>
-  </si>
-  <si>
-    <t>5s1i</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH EN300-301084</t>
-  </si>
-  <si>
-    <t>5rsn</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000064576</t>
-  </si>
-  <si>
-    <t>5rta</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000332540</t>
-  </si>
-  <si>
-    <t>7jme</t>
-  </si>
-  <si>
-    <t>STRUCTURE OF THE SARS-COV-2 NSP3 MACRO X DOMAIN IN COMPLEX WITH CYCLIC AMP</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>7kg3</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF COV-2 NSP3 MACRODOMAIN</t>
-  </si>
-  <si>
-    <t>2020-10-15</t>
-  </si>
-  <si>
-    <t>5rum</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000008861082</t>
-  </si>
-  <si>
-    <t>5s2e</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1152242726</t>
-  </si>
-  <si>
-    <t>5s4k</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH FMOOA000509A</t>
-  </si>
-  <si>
-    <t>5s44</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH NCL-00024890</t>
-  </si>
-  <si>
-    <t>5rtg</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000395673</t>
-  </si>
-  <si>
-    <t>6ywl</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF SARS-COV-2 (COVID-19) NSP3 MACRODOMAIN IN COMPLEX WITH ADP-RIBOSE</t>
-  </si>
-  <si>
-    <t>5s4h</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH SF048</t>
-  </si>
-  <si>
-    <t>5s2y</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z19727416</t>
-  </si>
-  <si>
-    <t>6w02</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF ADP RIBOSE PHOSPHATASE OF NSP3 FROM SARS COV-2 IN THE COMPLEX WITH ADP RIBOSE</t>
-  </si>
-  <si>
-    <t>2020-02-28</t>
-  </si>
-  <si>
-    <t>5rud</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000008615114</t>
-  </si>
-  <si>
-    <t>5rt7</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000015442276</t>
-  </si>
-  <si>
-    <t>5rvn</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000332748</t>
-  </si>
-  <si>
-    <t>5s1k</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH EN300-105873</t>
-  </si>
-  <si>
-    <t>5rt1</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000039810</t>
-  </si>
-  <si>
-    <t>5rua</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000033986325</t>
-  </si>
-  <si>
-    <t>5rt4</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000051581</t>
-  </si>
-  <si>
-    <t>5s26</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z605596346</t>
-  </si>
-  <si>
-    <t>5rup</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000004976927</t>
-  </si>
-  <si>
-    <t>5rsb</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000001674697</t>
-  </si>
-  <si>
-    <t>5ruo</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000001683100</t>
-  </si>
-  <si>
-    <t>5rtr</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000018169763</t>
-  </si>
-  <si>
-    <t>5rvs</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000159004</t>
-  </si>
-  <si>
-    <t>5s2w</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1407672867</t>
-  </si>
-  <si>
-    <t>5s1s</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1613477500</t>
-  </si>
-  <si>
-    <t>5ru3</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000161696</t>
-  </si>
-  <si>
-    <t>5rux</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000002020050</t>
-  </si>
-  <si>
-    <t>5s1g</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH EN300-108952</t>
-  </si>
-  <si>
-    <t>5rtt</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000873830</t>
-  </si>
-  <si>
-    <t>5rvq</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000002508153</t>
-  </si>
-  <si>
-    <t>5rti</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000004219237</t>
-  </si>
-  <si>
-    <t>5rts</t>
-  </si>
-  <si>
-    <t>5ru1</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000034687</t>
-  </si>
-  <si>
-    <t>5rv9</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000388150</t>
-  </si>
-  <si>
-    <t>5rty</t>
-  </si>
-  <si>
-    <t>5rv3</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000057162</t>
-  </si>
-  <si>
-    <t>5s1y</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH STK346965</t>
-  </si>
-  <si>
-    <t>5s2p</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z927746322</t>
-  </si>
-  <si>
-    <t>5s4j</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH SF054</t>
-  </si>
-  <si>
-    <t>7kr1</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN (C2 CRYSTAL FORM, 310 K)</t>
-  </si>
-  <si>
-    <t>2020-11-18</t>
-  </si>
-  <si>
-    <t>5rug</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000038389</t>
-  </si>
-  <si>
-    <t>5rsg</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000263392672</t>
-  </si>
-  <si>
-    <t>5s2o</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z645232558</t>
-  </si>
-  <si>
-    <t>5s22</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z145120524</t>
-  </si>
-  <si>
-    <t>5s49</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z56866006</t>
-  </si>
-  <si>
-    <t>5rt8</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000161908</t>
-  </si>
-  <si>
-    <t>5s4f</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH SF003</t>
-  </si>
-  <si>
-    <t>5rui</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000332651</t>
-  </si>
-  <si>
-    <t>5rv5</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000008578948</t>
-  </si>
-  <si>
-    <t>5s2m</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z56827661</t>
-  </si>
-  <si>
-    <t>5rv2</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000311783</t>
-  </si>
-  <si>
-    <t>5ru8</t>
-  </si>
-  <si>
-    <t>6wcf</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF ADP RIBOSE PHOSPHATASE OF NSP3 FROM SARS-COV-2 IN COMPLEX WITH MES</t>
-  </si>
-  <si>
-    <t>2020-03-30</t>
-  </si>
-  <si>
-    <t>5s27</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1262398530</t>
-  </si>
-  <si>
-    <t>5rtn</t>
-  </si>
-  <si>
-    <t>5rv7</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000003954002</t>
-  </si>
-  <si>
-    <t>5rsw</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000337835</t>
-  </si>
-  <si>
-    <t>5s3s</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH POB0103</t>
-  </si>
-  <si>
-    <t>5ruy</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000013517187</t>
-  </si>
-  <si>
-    <t>5rv6</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000158540</t>
-  </si>
-  <si>
-    <t>5s33</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z906021418</t>
-  </si>
-  <si>
-    <t>5rt2</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000008652361</t>
-  </si>
-  <si>
-    <t>5rsk</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000901381520_N3</t>
-  </si>
-  <si>
-    <t>5s3o</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z102768020</t>
-  </si>
-  <si>
-    <t>5rsq</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000158490</t>
-  </si>
-  <si>
-    <t>5s39</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z165170770</t>
-  </si>
-  <si>
-    <t>5s4c</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1954800348</t>
-  </si>
-  <si>
-    <t>7lg7</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF COV-2 NSP3 MACRODOMAIN COMPLEX WITH PARG345</t>
-  </si>
-  <si>
-    <t>2021-01-19</t>
-  </si>
-  <si>
-    <t>5rus</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000388081</t>
-  </si>
-  <si>
-    <t>5ru6</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000001442764</t>
-  </si>
-  <si>
-    <t>5s1u</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH EN300-52144</t>
-  </si>
-  <si>
-    <t>5rv0</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000039994</t>
-  </si>
-  <si>
-    <t>5rto</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000388302</t>
-  </si>
-  <si>
-    <t>5s74</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION OF GROUND-STATE MODEL OF SARS-COV-2 NSP3 MACRODOMAIN</t>
-  </si>
-  <si>
-    <t>2020-11-23</t>
-  </si>
-  <si>
-    <t>5s73</t>
-  </si>
-  <si>
-    <t>5s1m</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH STK497968</t>
-  </si>
-  <si>
-    <t>5rsi</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000374420934</t>
-  </si>
-  <si>
-    <t>5s37</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1954800564</t>
-  </si>
-  <si>
-    <t>5ruu</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000438614</t>
-  </si>
-  <si>
-    <t>5s3q</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH POB0013</t>
-  </si>
-  <si>
-    <t>5s36</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z2856434938</t>
-  </si>
-  <si>
-    <t>5rul</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000163774</t>
-  </si>
-  <si>
-    <t>5s32</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z26781943</t>
-  </si>
-  <si>
-    <t>5rtw</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000164777</t>
-  </si>
-  <si>
-    <t>5rvg</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000400552187_N3</t>
-  </si>
-  <si>
-    <t>7kqo</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN (P43 CRYSTAL FORM)</t>
-  </si>
-  <si>
-    <t>5rsr</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000158650</t>
-  </si>
-  <si>
-    <t>7bf6</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF SARS-COV-2 MACRODOMAIN IN COMPLEX WITH REMDESIVIR METABOLITE GS-441524</t>
-  </si>
-  <si>
-    <t>5rtm</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000002005</t>
-  </si>
-  <si>
-    <t>5ruj</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000404314</t>
-  </si>
-  <si>
-    <t>5rsd</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000331945</t>
-  </si>
-  <si>
-    <t>5rso</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000000226</t>
-  </si>
-  <si>
-    <t>5ruk</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000161692</t>
-  </si>
-  <si>
-    <t>7bf5</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF SARS-COV-2 MACRODOMAIN IN COMPLEX WITH ADP- RIBOSE-PHOSPHATE (ADP-RIBOSE-2'-PHOSPHATE, ADPRP)</t>
-  </si>
-  <si>
-    <t>5rt0</t>
-  </si>
-  <si>
-    <t>5s3n</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z287484230</t>
-  </si>
-  <si>
-    <t>5rvl</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000149580</t>
-  </si>
-  <si>
-    <t>5rtf</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000002047514</t>
-  </si>
-  <si>
-    <t>5s3e</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z274553586</t>
-  </si>
-  <si>
-    <t>5rvj</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000001612349</t>
-  </si>
-  <si>
-    <t>5rtq</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000019015078</t>
-  </si>
-  <si>
-    <t>5rsp</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000002560357</t>
-  </si>
-  <si>
-    <t>5rvr</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000016052862</t>
-  </si>
-  <si>
-    <t>5rur</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000017744334</t>
-  </si>
-  <si>
-    <t>5s2u</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z85956652</t>
-  </si>
-  <si>
-    <t>5rv8</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000039575</t>
-  </si>
-  <si>
-    <t>5s46</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z57131035</t>
-  </si>
-  <si>
-    <t>5s3i</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z50145861</t>
-  </si>
-  <si>
-    <t>6vxs</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF ADP RIBOSE PHOSPHATASE OF NSP3 FROM SARS COV-2</t>
-  </si>
-  <si>
-    <t>2020-02-24</t>
-  </si>
-  <si>
-    <t>5s34</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z2856434941</t>
-  </si>
-  <si>
-    <t>6z6i</t>
-  </si>
-  <si>
-    <t>SARS-COV-2 MACRODOMAIN IN COMPLEX WITH ADP-HPD</t>
-  </si>
-  <si>
-    <t>2020-05-28</t>
-  </si>
-  <si>
-    <t>5s2k</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z445856640</t>
-  </si>
-  <si>
-    <t>5rv4</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000039224</t>
-  </si>
-  <si>
-    <t>5s2x</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1139246057</t>
-  </si>
-  <si>
-    <t>5s48</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1741982125</t>
-  </si>
-  <si>
-    <t>5s2r</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z57292369</t>
-  </si>
-  <si>
-    <t>5s2g</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z321318226</t>
-  </si>
-  <si>
-    <t>5s3k</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z219104216</t>
-  </si>
-  <si>
-    <t>5s47</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z940713508</t>
-  </si>
-  <si>
-    <t>7kqp</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ADP- RIBOSE (P43 CRYSTAL FORM)</t>
-  </si>
-  <si>
-    <t>5rsv</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000340465</t>
-  </si>
-  <si>
-    <t>5rte</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000013283576</t>
-  </si>
-  <si>
-    <t>5s2q</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z26781952</t>
-  </si>
-  <si>
-    <t>5rtl</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000388056</t>
-  </si>
-  <si>
-    <t>5s3w</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH POB0135</t>
-  </si>
-  <si>
-    <t>7kr0</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN (C2 CRYSTAL FORM, 100 K)</t>
-  </si>
-  <si>
-    <t>5rtc</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000006490906</t>
-  </si>
-  <si>
-    <t>5s2n</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1787627869</t>
-  </si>
-  <si>
-    <t>5s4e</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z2301685688</t>
-  </si>
-  <si>
-    <t>5s4g</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH SF005</t>
-  </si>
-  <si>
-    <t>5ru7</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000003591110</t>
-  </si>
-  <si>
-    <t>5s3r</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH POB0014</t>
-  </si>
-  <si>
-    <t>5rvc</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000933940912</t>
-  </si>
-  <si>
-    <t>5s43</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH NCL-00024661</t>
-  </si>
-  <si>
-    <t>5ru4</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000001688638</t>
-  </si>
-  <si>
-    <t>5s1e</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH AB-601_30915014</t>
-  </si>
-  <si>
-    <t>5rtd</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000157108</t>
-  </si>
-  <si>
-    <t>7bf4</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF SARS-COV-2 MACRODOMAIN IN COMPLEX WITH GMP</t>
-  </si>
-  <si>
-    <t>5rt3</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000039281982</t>
-  </si>
-  <si>
-    <t>5s2a</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1263529624</t>
-  </si>
-  <si>
-    <t>5rut</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000161958</t>
-  </si>
-  <si>
-    <t>5s3b</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1741966151</t>
-  </si>
-  <si>
-    <t>5s4a</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z955123498</t>
-  </si>
-  <si>
-    <t>5s3z</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH POB0140</t>
-  </si>
-  <si>
-    <t>5s38</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z1745658474</t>
-  </si>
-  <si>
-    <t>5rvf</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000082473428_N3</t>
-  </si>
-  <si>
-    <t>5ruc</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000005878</t>
-  </si>
-  <si>
-    <t>5s2h</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z2856434920</t>
-  </si>
-  <si>
-    <t>5s1q</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH EN300-17035</t>
-  </si>
-  <si>
-    <t>5rsf</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000026180281</t>
-  </si>
-  <si>
-    <t>5rsm</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000000001099</t>
-  </si>
-  <si>
-    <t>6z72</t>
-  </si>
-  <si>
-    <t>SARS-COV-2 MACRODOMAIN IN COMPLEX WITH ADP-HPM</t>
-  </si>
-  <si>
-    <t>2020-05-29</t>
-  </si>
-  <si>
-    <t>5ruq</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000032199226</t>
-  </si>
-  <si>
-    <t>5rsh</t>
-  </si>
-  <si>
-    <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH ZINC000274438208</t>
-  </si>
-  <si>
-    <t>7sdr</t>
-  </si>
-  <si>
-    <t>PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH JUN9-72-2 INHIBITOR</t>
-  </si>
-  <si>
-    <t>2021-09-29</t>
-  </si>
-  <si>
-    <t>7m1y</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH EBSELEN</t>
-  </si>
-  <si>
-    <t>2021-03-15</t>
-  </si>
-  <si>
-    <t>7kok</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH PLP_SNYDER496 INHIBITOR</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>6w9c</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2</t>
-  </si>
-  <si>
-    <t>2020-03-22</t>
-  </si>
-  <si>
-    <t>7jir</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , C111S MUTANT, IN COMPLEX WITH PLP_SNYDER457 INHIBITOR</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>7cmd</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF THE SARS-COV-2 PLPRO WITH GRL0617</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>6yva</t>
-  </si>
-  <si>
-    <t>PLPRO-C111S WITH MISG15</t>
-  </si>
-  <si>
-    <t>2020-04-28</t>
-  </si>
-  <si>
-    <t>7d7k</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF SARS-COV-2 PAPAIN-LIKE PROTEASE IN APO FORM</t>
-  </si>
-  <si>
-    <t>2020-10-04</t>
-  </si>
-  <si>
-    <t>7lbr</t>
-  </si>
-  <si>
-    <t>SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) BOUND TO INHIBITOR XR8-89</t>
-  </si>
-  <si>
-    <t>2021-01-08</t>
-  </si>
-  <si>
-    <t>6wuu</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF THE SARS COV-2 PAPAIN-LIKE PROTEASE IN COMPLEX WITH PEPTIDE INHIBITOR VIR250</t>
-  </si>
-  <si>
-    <t>2020-05-05</t>
-  </si>
-  <si>
-    <t>7rbs</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH HUMAN ISG15</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>7oft</t>
-  </si>
-  <si>
-    <t>STRUCTURE OF SARS-COV-2 PAPAIN-LIKE PROTEASE PLPRO IN COMPLEX WITH P- HYDROXYBENZALDEHYDE</t>
-  </si>
-  <si>
-    <t>2021-05-05</t>
-  </si>
-  <si>
-    <t>6wzu</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , P3221 SPACE GROUP</t>
-  </si>
-  <si>
-    <t>2020-05-14</t>
-  </si>
-  <si>
-    <t>7d7l</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF SARS-COV-2 PAPAIN-LIKE PROTEASE IN COMPLEX WITH YM155</t>
-  </si>
-  <si>
-    <t>6xaa</t>
-  </si>
-  <si>
-    <t>SARS COV-2 PLPRO IN COMPLEX WITH UBIQUITIN PROPARGYLAMIDE</t>
-  </si>
-  <si>
-    <t>2020-06-04</t>
-  </si>
-  <si>
-    <t>6wrh</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , C111S MUTANT</t>
-  </si>
-  <si>
-    <t>7e35</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF THE SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) C112S MUTANT BOUND TO COMPOUND S43</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>6xa9</t>
-  </si>
-  <si>
-    <t>SARS COV-2 PLPRO IN COMPLEX WITH ISG15 C-TERMINAL DOMAIN PROPARGYLAMIDE</t>
-  </si>
-  <si>
-    <t>7kol</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH PLP_SNYDER496 INHIBITOR</t>
-  </si>
-  <si>
-    <t>7ofs</t>
-  </si>
-  <si>
-    <t>STRUCTURE OF SARS-COV-2 PAPAIN-LIKE PROTEASE PLPRO IN COMPLEX WITH 4- (2-HYDROXYETHYL)PHENOL</t>
-  </si>
-  <si>
-    <t>7sgu</t>
-  </si>
-  <si>
-    <t>PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH PLP_SNYDER608 INHIBITOR</t>
-  </si>
-  <si>
-    <t>2021-10-07</t>
-  </si>
-  <si>
-    <t>7rbr</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH A LYS48-LINKED DI-UBIQUITIN</t>
-  </si>
-  <si>
-    <t>7d6h</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF THE SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) C112S MUTANT</t>
-  </si>
-  <si>
-    <t>2020-09-30</t>
-  </si>
-  <si>
-    <t>7llz</t>
-  </si>
-  <si>
-    <t>SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) BOUND TO INHIBITOR XR8-69</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>7jit</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , C111S MUTANT, IN COMPLEX WITH PLP_SNYDER495 INHIBITOR</t>
-  </si>
-  <si>
-    <t>7los</t>
-  </si>
-  <si>
-    <t>SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) BOUND TO INHIBITOR XR8-65</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>7jrn</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF THE WILD TYPE SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) WITH INHIBITOR GRL0617</t>
-  </si>
-  <si>
-    <t>2020-08-12</t>
-  </si>
-  <si>
-    <t>7cjm</t>
-  </si>
-  <si>
-    <t>SARS COV-2 PLPRO IN COMPLEX WITH GRL0617</t>
-  </si>
-  <si>
-    <t>2020-07-11</t>
-  </si>
-  <si>
-    <t>7jn2</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH PLP_SNYDER441 INHIBITOR</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>7krx</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH PLP_SNYDER441 INHIBITOR</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>7d47</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF SARS-COV-2 PAPAIN-LIKE PROTEASE C111S</t>
-  </si>
-  <si>
-    <t>2020-09-22</t>
-  </si>
-  <si>
-    <t>7llf</t>
-  </si>
-  <si>
-    <t>SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) BOUND TO INHIBITOR XR8-83</t>
-  </si>
-  <si>
-    <t>2021-02-03</t>
+    <t>7rqg</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF THE NSP3 Y3 DOMAIN FROM SARS-COV-2</t>
+  </si>
+  <si>
+    <t>2021-08-06</t>
   </si>
   <si>
     <t>7jiw</t>
@@ -1956,100 +2042,28 @@
     <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH PLP_SNYDER530 INHIBITOR</t>
   </si>
   <si>
-    <t>7sgw</t>
-  </si>
-  <si>
-    <t>PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH PLP_SNYDER630 INHIBITOR</t>
-  </si>
-  <si>
-    <t>7rzc</t>
-  </si>
-  <si>
-    <t>PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH JUN9-84-3 INHIBITOR</t>
-  </si>
-  <si>
-    <t>2021-08-27</t>
-  </si>
-  <si>
-    <t>6wx4</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF THE SARS COV-2 PAPAIN-LIKE PROTEASE IN COMPLEX WITH PEPTIDE INHIBITOR VIR251</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>6xg3</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , C111S MUTANT, AT ROOM TEMPERATURE</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>7sgv</t>
-  </si>
-  <si>
-    <t>PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH PLP_SNYDER630 INHIBITOR</t>
-  </si>
-  <si>
-    <t>7lbs</t>
-  </si>
-  <si>
-    <t>SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) BOUND TO INHIBITOR XR8-24</t>
-  </si>
-  <si>
-    <t>7cjd</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF THE SARS-COV-2 PLPRO C111S MUTANT</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>7koj</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH PLP_SNYDER494 INHIBITOR</t>
-  </si>
-  <si>
-    <t>7jiv</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , C111S MUTANT, IN COMPLEX WITH PLP_SNYDER530 INHIBITOR</t>
-  </si>
-  <si>
-    <t>7nfv</t>
-  </si>
-  <si>
-    <t>7ofu</t>
-  </si>
-  <si>
-    <t>7lgo</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF THE NUCLEIC ACID BINDING DOMAIN (NAB) OF NSP3 FROM SARS-COV-2</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>7rqg</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF THE NSP3 Y3 DOMAIN FROM SARS-COV-2</t>
-  </si>
-  <si>
-    <t>2021-08-06</t>
-  </si>
-  <si>
     <t>7kag</t>
   </si>
   <si>
     <t>CRYSTAL STRUCTURE OF THE UBIQUITIN-LIKE DOMAIN 1 (UBL1) OF NSP3 FROM SARS-COV-2</t>
+  </si>
+  <si>
+    <t>Lists all PDBs which contain sequences of a certain organism.</t>
+  </si>
+  <si>
+    <t>Organism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">severe acute respiratory syndrome coronavirus2 </t>
+  </si>
+  <si>
+    <t>mus musculus</t>
+  </si>
+  <si>
+    <t>synthetic construct</t>
+  </si>
+  <si>
+    <t>homo sapiens</t>
   </si>
 </sst>
 </file>
@@ -2381,7 +2395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E266"/>
+  <dimension ref="A1:E265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4097,7 +4111,7 @@
         <v>216</v>
       </c>
       <c r="B101">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="C101" t="s">
         <v>217</v>
@@ -4106,18 +4120,18 @@
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>218</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
+        <v>218</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
         <v>219</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="C102" t="s">
-        <v>220</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -4128,13 +4142,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
+        <v>220</v>
+      </c>
+      <c r="B103">
+        <v>1.04</v>
+      </c>
+      <c r="C103" t="s">
         <v>221</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103" t="s">
-        <v>222</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -4145,19 +4159,19 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
+        <v>222</v>
+      </c>
+      <c r="B104">
+        <v>1.45</v>
+      </c>
+      <c r="C104" t="s">
         <v>223</v>
       </c>
-      <c r="B104">
-        <v>1.04</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
         <v>224</v>
-      </c>
-      <c r="D104" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4165,7 +4179,7 @@
         <v>225</v>
       </c>
       <c r="B105">
-        <v>1.45</v>
+        <v>1</v>
       </c>
       <c r="C105" t="s">
         <v>226</v>
@@ -4174,18 +4188,18 @@
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>227</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
+        <v>227</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
         <v>228</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-      <c r="C106" t="s">
-        <v>229</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -4196,30 +4210,30 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
+        <v>229</v>
+      </c>
+      <c r="B107">
+        <v>1.17</v>
+      </c>
+      <c r="C107" t="s">
         <v>230</v>
       </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107" t="s">
-        <v>231</v>
-      </c>
       <c r="D107" t="s">
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
+        <v>231</v>
+      </c>
+      <c r="B108">
+        <v>1.07</v>
+      </c>
+      <c r="C108" t="s">
         <v>232</v>
-      </c>
-      <c r="B108">
-        <v>1.17</v>
-      </c>
-      <c r="C108" t="s">
-        <v>233</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -4230,30 +4244,30 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
+        <v>233</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
         <v>234</v>
       </c>
-      <c r="B109">
-        <v>1.07</v>
-      </c>
-      <c r="C109" t="s">
-        <v>235</v>
-      </c>
       <c r="D109" t="s">
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
+        <v>235</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
         <v>236</v>
-      </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-      <c r="C110" t="s">
-        <v>237</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
@@ -4264,19 +4278,19 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
+        <v>237</v>
+      </c>
+      <c r="B111">
+        <v>1.55</v>
+      </c>
+      <c r="C111" t="s">
         <v>238</v>
       </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
         <v>239</v>
-      </c>
-      <c r="D111" t="s">
-        <v>7</v>
-      </c>
-      <c r="E111" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4284,7 +4298,7 @@
         <v>240</v>
       </c>
       <c r="B112">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="C112" t="s">
         <v>241</v>
@@ -4301,7 +4315,7 @@
         <v>243</v>
       </c>
       <c r="B113">
-        <v>1.45</v>
+        <v>1</v>
       </c>
       <c r="C113" t="s">
         <v>244</v>
@@ -4310,35 +4324,35 @@
         <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>245</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
+        <v>245</v>
+      </c>
+      <c r="B114">
+        <v>1.12</v>
+      </c>
+      <c r="C114" t="s">
         <v>246</v>
       </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-      <c r="C114" t="s">
-        <v>247</v>
-      </c>
       <c r="D114" t="s">
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
+        <v>247</v>
+      </c>
+      <c r="B115">
+        <v>1.08</v>
+      </c>
+      <c r="C115" t="s">
         <v>248</v>
-      </c>
-      <c r="B115">
-        <v>1.12</v>
-      </c>
-      <c r="C115" t="s">
-        <v>249</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
@@ -4349,13 +4363,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
+        <v>249</v>
+      </c>
+      <c r="B116">
+        <v>1.06</v>
+      </c>
+      <c r="C116" t="s">
         <v>250</v>
-      </c>
-      <c r="B116">
-        <v>1.08</v>
-      </c>
-      <c r="C116" t="s">
-        <v>251</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -4366,64 +4380,64 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
+        <v>251</v>
+      </c>
+      <c r="B117">
+        <v>1.01</v>
+      </c>
+      <c r="C117" t="s">
         <v>252</v>
       </c>
-      <c r="B117">
-        <v>1.06</v>
-      </c>
-      <c r="C117" t="s">
-        <v>253</v>
-      </c>
       <c r="D117" t="s">
         <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
+        <v>253</v>
+      </c>
+      <c r="B118">
+        <v>2.5</v>
+      </c>
+      <c r="C118" t="s">
         <v>254</v>
       </c>
-      <c r="B118">
-        <v>1.01</v>
-      </c>
-      <c r="C118" t="s">
-        <v>255</v>
-      </c>
       <c r="D118" t="s">
         <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
+        <v>255</v>
+      </c>
+      <c r="B119">
+        <v>1.18</v>
+      </c>
+      <c r="C119" t="s">
         <v>256</v>
       </c>
-      <c r="B119">
-        <v>2.5</v>
-      </c>
-      <c r="C119" t="s">
-        <v>257</v>
-      </c>
       <c r="D119" t="s">
         <v>7</v>
       </c>
       <c r="E119" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
+        <v>257</v>
+      </c>
+      <c r="B120">
+        <v>1.05</v>
+      </c>
+      <c r="C120" t="s">
         <v>258</v>
-      </c>
-      <c r="B120">
-        <v>1.18</v>
-      </c>
-      <c r="C120" t="s">
-        <v>259</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
@@ -4434,19 +4448,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
+        <v>259</v>
+      </c>
+      <c r="B121">
+        <v>1.5</v>
+      </c>
+      <c r="C121" t="s">
         <v>260</v>
       </c>
-      <c r="B121">
-        <v>1.05</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" t="s">
         <v>261</v>
-      </c>
-      <c r="D121" t="s">
-        <v>7</v>
-      </c>
-      <c r="E121" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4454,7 +4468,7 @@
         <v>262</v>
       </c>
       <c r="B122">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C122" t="s">
         <v>263</v>
@@ -4463,18 +4477,18 @@
         <v>7</v>
       </c>
       <c r="E122" t="s">
-        <v>264</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
+        <v>264</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
         <v>265</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="C123" t="s">
-        <v>266</v>
       </c>
       <c r="D123" t="s">
         <v>7</v>
@@ -4485,64 +4499,64 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
+        <v>266</v>
+      </c>
+      <c r="B124">
+        <v>1.26</v>
+      </c>
+      <c r="C124" t="s">
         <v>267</v>
       </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-      <c r="C124" t="s">
-        <v>268</v>
-      </c>
       <c r="D124" t="s">
         <v>7</v>
       </c>
       <c r="E124" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
+        <v>268</v>
+      </c>
+      <c r="B125">
+        <v>1.08</v>
+      </c>
+      <c r="C125" t="s">
         <v>269</v>
       </c>
-      <c r="B125">
-        <v>1.26</v>
-      </c>
-      <c r="C125" t="s">
-        <v>270</v>
-      </c>
       <c r="D125" t="s">
         <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
+        <v>270</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
         <v>271</v>
       </c>
-      <c r="B126">
-        <v>1.08</v>
-      </c>
-      <c r="C126" t="s">
-        <v>272</v>
-      </c>
       <c r="D126" t="s">
         <v>7</v>
       </c>
       <c r="E126" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
+        <v>272</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
         <v>273</v>
-      </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="C127" t="s">
-        <v>274</v>
       </c>
       <c r="D127" t="s">
         <v>7</v>
@@ -4553,13 +4567,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
+        <v>274</v>
+      </c>
+      <c r="B128">
+        <v>1.02</v>
+      </c>
+      <c r="C128" t="s">
         <v>275</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-      <c r="C128" t="s">
-        <v>276</v>
       </c>
       <c r="D128" t="s">
         <v>7</v>
@@ -4570,47 +4584,47 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
+        <v>276</v>
+      </c>
+      <c r="B129">
+        <v>1.13</v>
+      </c>
+      <c r="C129" t="s">
         <v>277</v>
       </c>
-      <c r="B129">
-        <v>1.02</v>
-      </c>
-      <c r="C129" t="s">
-        <v>278</v>
-      </c>
       <c r="D129" t="s">
         <v>7</v>
       </c>
       <c r="E129" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
+        <v>278</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
         <v>279</v>
       </c>
-      <c r="B130">
-        <v>1.13</v>
-      </c>
-      <c r="C130" t="s">
-        <v>280</v>
-      </c>
       <c r="D130" t="s">
         <v>7</v>
       </c>
       <c r="E130" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
+        <v>280</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
         <v>281</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131" t="s">
-        <v>282</v>
       </c>
       <c r="D131" t="s">
         <v>7</v>
@@ -4621,13 +4635,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
+        <v>282</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
         <v>283</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-      <c r="C132" t="s">
-        <v>284</v>
       </c>
       <c r="D132" t="s">
         <v>7</v>
@@ -4638,13 +4652,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
+        <v>284</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
         <v>285</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-      <c r="C133" t="s">
-        <v>286</v>
       </c>
       <c r="D133" t="s">
         <v>7</v>
@@ -4655,47 +4669,47 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
+        <v>286</v>
+      </c>
+      <c r="B134">
+        <v>1.52</v>
+      </c>
+      <c r="C134" t="s">
         <v>287</v>
       </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-      <c r="C134" t="s">
-        <v>288</v>
-      </c>
       <c r="D134" t="s">
         <v>7</v>
       </c>
       <c r="E134" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
+        <v>288</v>
+      </c>
+      <c r="B135">
+        <v>1.08</v>
+      </c>
+      <c r="C135" t="s">
         <v>289</v>
       </c>
-      <c r="B135">
-        <v>1.52</v>
-      </c>
-      <c r="C135" t="s">
-        <v>290</v>
-      </c>
       <c r="D135" t="s">
         <v>7</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
+        <v>290</v>
+      </c>
+      <c r="B136">
+        <v>1.16</v>
+      </c>
+      <c r="C136" t="s">
         <v>291</v>
-      </c>
-      <c r="B136">
-        <v>1.08</v>
-      </c>
-      <c r="C136" t="s">
-        <v>292</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
@@ -4706,30 +4720,30 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
+        <v>292</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
         <v>293</v>
       </c>
-      <c r="B137">
-        <v>1.16</v>
-      </c>
-      <c r="C137" t="s">
-        <v>294</v>
-      </c>
       <c r="D137" t="s">
         <v>7</v>
       </c>
       <c r="E137" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
+        <v>294</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
         <v>295</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="C138" t="s">
-        <v>296</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
@@ -4740,81 +4754,81 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
+        <v>296</v>
+      </c>
+      <c r="B139">
+        <v>1.11</v>
+      </c>
+      <c r="C139" t="s">
         <v>297</v>
       </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-      <c r="C139" t="s">
-        <v>298</v>
-      </c>
       <c r="D139" t="s">
         <v>7</v>
       </c>
       <c r="E139" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
+        <v>298</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
         <v>299</v>
       </c>
-      <c r="B140">
-        <v>1.11</v>
-      </c>
-      <c r="C140" t="s">
-        <v>300</v>
-      </c>
       <c r="D140" t="s">
         <v>7</v>
       </c>
       <c r="E140" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
+        <v>300</v>
+      </c>
+      <c r="B141">
+        <v>1.08</v>
+      </c>
+      <c r="C141" t="s">
         <v>301</v>
       </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-      <c r="C141" t="s">
-        <v>302</v>
-      </c>
       <c r="D141" t="s">
         <v>7</v>
       </c>
       <c r="E141" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
+        <v>302</v>
+      </c>
+      <c r="B142">
+        <v>1.01</v>
+      </c>
+      <c r="C142" t="s">
         <v>303</v>
       </c>
-      <c r="B142">
-        <v>1.08</v>
-      </c>
-      <c r="C142" t="s">
-        <v>304</v>
-      </c>
       <c r="D142" t="s">
         <v>7</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B143">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
@@ -4825,13 +4839,13 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D144" t="s">
         <v>7</v>
@@ -4842,13 +4856,13 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
+        <v>307</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
         <v>308</v>
-      </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-      <c r="C145" t="s">
-        <v>309</v>
       </c>
       <c r="D145" t="s">
         <v>7</v>
@@ -4859,13 +4873,13 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>311</v>
+        <v>146</v>
       </c>
       <c r="D146" t="s">
         <v>7</v>
@@ -4876,13 +4890,13 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="C147" t="s">
-        <v>146</v>
+        <v>311</v>
       </c>
       <c r="D147" t="s">
         <v>7</v>
@@ -4893,30 +4907,30 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
+        <v>312</v>
+      </c>
+      <c r="B148">
+        <v>1.09</v>
+      </c>
+      <c r="C148" t="s">
         <v>313</v>
       </c>
-      <c r="B148">
-        <v>1.02</v>
-      </c>
-      <c r="C148" t="s">
-        <v>314</v>
-      </c>
       <c r="D148" t="s">
         <v>7</v>
       </c>
       <c r="E148" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
+        <v>314</v>
+      </c>
+      <c r="B149">
+        <v>1.03</v>
+      </c>
+      <c r="C149" t="s">
         <v>315</v>
-      </c>
-      <c r="B149">
-        <v>1.09</v>
-      </c>
-      <c r="C149" t="s">
-        <v>316</v>
       </c>
       <c r="D149" t="s">
         <v>7</v>
@@ -4927,13 +4941,13 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
+        <v>316</v>
+      </c>
+      <c r="B150">
+        <v>1.12</v>
+      </c>
+      <c r="C150" t="s">
         <v>317</v>
-      </c>
-      <c r="B150">
-        <v>1.03</v>
-      </c>
-      <c r="C150" t="s">
-        <v>318</v>
       </c>
       <c r="D150" t="s">
         <v>7</v>
@@ -4944,19 +4958,19 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
+        <v>318</v>
+      </c>
+      <c r="B151">
+        <v>1.55</v>
+      </c>
+      <c r="C151" t="s">
         <v>319</v>
       </c>
-      <c r="B151">
-        <v>1.12</v>
-      </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" t="s">
         <v>320</v>
-      </c>
-      <c r="D151" t="s">
-        <v>7</v>
-      </c>
-      <c r="E151" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4964,7 +4978,7 @@
         <v>321</v>
       </c>
       <c r="B152">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="C152" t="s">
         <v>322</v>
@@ -4973,18 +4987,18 @@
         <v>7</v>
       </c>
       <c r="E152" t="s">
-        <v>323</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
+        <v>323</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153" t="s">
         <v>324</v>
-      </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-      <c r="C153" t="s">
-        <v>325</v>
       </c>
       <c r="D153" t="s">
         <v>7</v>
@@ -4995,30 +5009,30 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
+        <v>325</v>
+      </c>
+      <c r="B154">
+        <v>1.09</v>
+      </c>
+      <c r="C154" t="s">
         <v>326</v>
       </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-      <c r="C154" t="s">
-        <v>327</v>
-      </c>
       <c r="D154" t="s">
         <v>7</v>
       </c>
       <c r="E154" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
+        <v>327</v>
+      </c>
+      <c r="B155">
+        <v>1.18</v>
+      </c>
+      <c r="C155" t="s">
         <v>328</v>
-      </c>
-      <c r="B155">
-        <v>1.09</v>
-      </c>
-      <c r="C155" t="s">
-        <v>329</v>
       </c>
       <c r="D155" t="s">
         <v>7</v>
@@ -5029,13 +5043,13 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
+        <v>329</v>
+      </c>
+      <c r="B156">
+        <v>1.03</v>
+      </c>
+      <c r="C156" t="s">
         <v>330</v>
-      </c>
-      <c r="B156">
-        <v>1.18</v>
-      </c>
-      <c r="C156" t="s">
-        <v>331</v>
       </c>
       <c r="D156" t="s">
         <v>7</v>
@@ -5046,64 +5060,64 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
+        <v>331</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157" t="s">
         <v>332</v>
       </c>
-      <c r="B157">
-        <v>1.03</v>
-      </c>
-      <c r="C157" t="s">
-        <v>333</v>
-      </c>
       <c r="D157" t="s">
         <v>7</v>
       </c>
       <c r="E157" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
+        <v>333</v>
+      </c>
+      <c r="B158">
+        <v>1.13</v>
+      </c>
+      <c r="C158" t="s">
         <v>334</v>
       </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-      <c r="C158" t="s">
-        <v>335</v>
-      </c>
       <c r="D158" t="s">
         <v>7</v>
       </c>
       <c r="E158" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
+        <v>335</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159" t="s">
         <v>336</v>
       </c>
-      <c r="B159">
-        <v>1.13</v>
-      </c>
-      <c r="C159" t="s">
-        <v>337</v>
-      </c>
       <c r="D159" t="s">
         <v>7</v>
       </c>
       <c r="E159" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
+        <v>337</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160" t="s">
         <v>338</v>
-      </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-      <c r="C160" t="s">
-        <v>339</v>
       </c>
       <c r="D160" t="s">
         <v>7</v>
@@ -5114,47 +5128,47 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
+        <v>339</v>
+      </c>
+      <c r="B161">
+        <v>1.14</v>
+      </c>
+      <c r="C161" t="s">
         <v>340</v>
       </c>
-      <c r="B161">
-        <v>1</v>
-      </c>
-      <c r="C161" t="s">
-        <v>341</v>
-      </c>
       <c r="D161" t="s">
         <v>7</v>
       </c>
       <c r="E161" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
+        <v>341</v>
+      </c>
+      <c r="B162">
+        <v>1.01</v>
+      </c>
+      <c r="C162" t="s">
         <v>342</v>
       </c>
-      <c r="B162">
-        <v>1.14</v>
-      </c>
-      <c r="C162" t="s">
-        <v>343</v>
-      </c>
       <c r="D162" t="s">
         <v>7</v>
       </c>
       <c r="E162" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B163">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>345</v>
+        <v>53</v>
       </c>
       <c r="D163" t="s">
         <v>7</v>
@@ -5165,19 +5179,19 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
+        <v>344</v>
+      </c>
+      <c r="B164">
+        <v>1.07</v>
+      </c>
+      <c r="C164" t="s">
+        <v>345</v>
+      </c>
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" t="s">
         <v>346</v>
-      </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-      <c r="C164" t="s">
-        <v>53</v>
-      </c>
-      <c r="D164" t="s">
-        <v>7</v>
-      </c>
-      <c r="E164" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5185,7 +5199,7 @@
         <v>347</v>
       </c>
       <c r="B165">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="C165" t="s">
         <v>348</v>
@@ -5194,35 +5208,35 @@
         <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>349</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B166">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>351</v>
+        <v>144</v>
       </c>
       <c r="D166" t="s">
         <v>7</v>
       </c>
       <c r="E166" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>144</v>
+        <v>351</v>
       </c>
       <c r="D167" t="s">
         <v>7</v>
@@ -5233,13 +5247,13 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
+        <v>352</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
         <v>353</v>
-      </c>
-      <c r="B168">
-        <v>1</v>
-      </c>
-      <c r="C168" t="s">
-        <v>354</v>
       </c>
       <c r="D168" t="s">
         <v>7</v>
@@ -5250,47 +5264,47 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
+        <v>354</v>
+      </c>
+      <c r="B169">
+        <v>1.04</v>
+      </c>
+      <c r="C169" t="s">
         <v>355</v>
       </c>
-      <c r="B169">
-        <v>1</v>
-      </c>
-      <c r="C169" t="s">
-        <v>356</v>
-      </c>
       <c r="D169" t="s">
         <v>7</v>
       </c>
       <c r="E169" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
+        <v>356</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
         <v>357</v>
       </c>
-      <c r="B170">
-        <v>1.04</v>
-      </c>
-      <c r="C170" t="s">
-        <v>358</v>
-      </c>
       <c r="D170" t="s">
         <v>7</v>
       </c>
       <c r="E170" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
+        <v>358</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
         <v>359</v>
-      </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-      <c r="C171" t="s">
-        <v>360</v>
       </c>
       <c r="D171" t="s">
         <v>7</v>
@@ -5301,47 +5315,47 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
+        <v>360</v>
+      </c>
+      <c r="B172">
+        <v>1.06</v>
+      </c>
+      <c r="C172" t="s">
         <v>361</v>
       </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-      <c r="C172" t="s">
-        <v>362</v>
-      </c>
       <c r="D172" t="s">
         <v>7</v>
       </c>
       <c r="E172" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
+        <v>362</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
         <v>363</v>
       </c>
-      <c r="B173">
-        <v>1.06</v>
-      </c>
-      <c r="C173" t="s">
-        <v>364</v>
-      </c>
       <c r="D173" t="s">
         <v>7</v>
       </c>
       <c r="E173" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
+        <v>364</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
         <v>365</v>
-      </c>
-      <c r="B174">
-        <v>1</v>
-      </c>
-      <c r="C174" t="s">
-        <v>366</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
@@ -5352,64 +5366,64 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
+        <v>366</v>
+      </c>
+      <c r="B175">
+        <v>1.19</v>
+      </c>
+      <c r="C175" t="s">
         <v>367</v>
       </c>
-      <c r="B175">
-        <v>1</v>
-      </c>
-      <c r="C175" t="s">
-        <v>368</v>
-      </c>
       <c r="D175" t="s">
         <v>7</v>
       </c>
       <c r="E175" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
+        <v>368</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
         <v>369</v>
       </c>
-      <c r="B176">
-        <v>1.19</v>
-      </c>
-      <c r="C176" t="s">
-        <v>370</v>
-      </c>
       <c r="D176" t="s">
         <v>7</v>
       </c>
       <c r="E176" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
+        <v>370</v>
+      </c>
+      <c r="B177">
+        <v>1.16</v>
+      </c>
+      <c r="C177" t="s">
         <v>371</v>
       </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-      <c r="C177" t="s">
-        <v>372</v>
-      </c>
       <c r="D177" t="s">
         <v>7</v>
       </c>
       <c r="E177" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
+        <v>372</v>
+      </c>
+      <c r="B178">
+        <v>1.01</v>
+      </c>
+      <c r="C178" t="s">
         <v>373</v>
-      </c>
-      <c r="B178">
-        <v>1.16</v>
-      </c>
-      <c r="C178" t="s">
-        <v>374</v>
       </c>
       <c r="D178" t="s">
         <v>7</v>
@@ -5420,19 +5434,19 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
+        <v>374</v>
+      </c>
+      <c r="B179">
+        <v>2.3</v>
+      </c>
+      <c r="C179" t="s">
         <v>375</v>
       </c>
-      <c r="B179">
-        <v>1.01</v>
-      </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" t="s">
         <v>376</v>
-      </c>
-      <c r="D179" t="s">
-        <v>7</v>
-      </c>
-      <c r="E179" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5440,7 +5454,7 @@
         <v>377</v>
       </c>
       <c r="B180">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="C180" t="s">
         <v>378</v>
@@ -5449,18 +5463,18 @@
         <v>7</v>
       </c>
       <c r="E180" t="s">
-        <v>379</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
+        <v>379</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181" t="s">
         <v>380</v>
-      </c>
-      <c r="B181">
-        <v>1</v>
-      </c>
-      <c r="C181" t="s">
-        <v>381</v>
       </c>
       <c r="D181" t="s">
         <v>7</v>
@@ -5471,47 +5485,47 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
+        <v>381</v>
+      </c>
+      <c r="B182">
+        <v>1.08</v>
+      </c>
+      <c r="C182" t="s">
         <v>382</v>
       </c>
-      <c r="B182">
-        <v>1</v>
-      </c>
-      <c r="C182" t="s">
-        <v>383</v>
-      </c>
       <c r="D182" t="s">
         <v>7</v>
       </c>
       <c r="E182" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
+        <v>383</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183" t="s">
         <v>384</v>
       </c>
-      <c r="B183">
-        <v>1.08</v>
-      </c>
-      <c r="C183" t="s">
-        <v>385</v>
-      </c>
       <c r="D183" t="s">
         <v>7</v>
       </c>
       <c r="E183" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
+        <v>385</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
         <v>386</v>
-      </c>
-      <c r="B184">
-        <v>1</v>
-      </c>
-      <c r="C184" t="s">
-        <v>387</v>
       </c>
       <c r="D184" t="s">
         <v>7</v>
@@ -5522,19 +5536,19 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
+        <v>387</v>
+      </c>
+      <c r="B185">
+        <v>0.96</v>
+      </c>
+      <c r="C185" t="s">
         <v>388</v>
       </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" t="s">
         <v>389</v>
-      </c>
-      <c r="D185" t="s">
-        <v>7</v>
-      </c>
-      <c r="E185" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5542,112 +5556,112 @@
         <v>390</v>
       </c>
       <c r="B186">
-        <v>0.96</v>
+        <v>1.06</v>
       </c>
       <c r="C186" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D186" t="s">
         <v>7</v>
       </c>
       <c r="E186" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B187">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="C187" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D187" t="s">
         <v>7</v>
       </c>
       <c r="E187" t="s">
-        <v>392</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
+        <v>393</v>
+      </c>
+      <c r="B188">
+        <v>1.01</v>
+      </c>
+      <c r="C188" t="s">
         <v>394</v>
       </c>
-      <c r="B188">
-        <v>1.18</v>
-      </c>
-      <c r="C188" t="s">
-        <v>395</v>
-      </c>
       <c r="D188" t="s">
         <v>7</v>
       </c>
       <c r="E188" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
+        <v>395</v>
+      </c>
+      <c r="B189">
+        <v>1.22</v>
+      </c>
+      <c r="C189" t="s">
         <v>396</v>
       </c>
-      <c r="B189">
-        <v>1.01</v>
-      </c>
-      <c r="C189" t="s">
-        <v>397</v>
-      </c>
       <c r="D189" t="s">
         <v>7</v>
       </c>
       <c r="E189" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
+        <v>397</v>
+      </c>
+      <c r="B190">
+        <v>1.01</v>
+      </c>
+      <c r="C190" t="s">
         <v>398</v>
       </c>
-      <c r="B190">
-        <v>1.22</v>
-      </c>
-      <c r="C190" t="s">
-        <v>399</v>
-      </c>
       <c r="D190" t="s">
         <v>7</v>
       </c>
       <c r="E190" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
+        <v>399</v>
+      </c>
+      <c r="B191">
+        <v>1.09</v>
+      </c>
+      <c r="C191" t="s">
         <v>400</v>
       </c>
-      <c r="B191">
-        <v>1.01</v>
-      </c>
-      <c r="C191" t="s">
-        <v>401</v>
-      </c>
       <c r="D191" t="s">
         <v>7</v>
       </c>
       <c r="E191" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
+        <v>401</v>
+      </c>
+      <c r="B192">
+        <v>1.06</v>
+      </c>
+      <c r="C192" t="s">
         <v>402</v>
-      </c>
-      <c r="B192">
-        <v>1.09</v>
-      </c>
-      <c r="C192" t="s">
-        <v>403</v>
       </c>
       <c r="D192" t="s">
         <v>7</v>
@@ -5658,64 +5672,64 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
+        <v>403</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
         <v>404</v>
       </c>
-      <c r="B193">
-        <v>1.06</v>
-      </c>
-      <c r="C193" t="s">
-        <v>405</v>
-      </c>
       <c r="D193" t="s">
         <v>7</v>
       </c>
       <c r="E193" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
+        <v>405</v>
+      </c>
+      <c r="B194">
+        <v>1.17</v>
+      </c>
+      <c r="C194" t="s">
         <v>406</v>
       </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-      <c r="C194" t="s">
-        <v>407</v>
-      </c>
       <c r="D194" t="s">
         <v>7</v>
       </c>
       <c r="E194" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
+        <v>407</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
         <v>408</v>
       </c>
-      <c r="B195">
-        <v>1.17</v>
-      </c>
-      <c r="C195" t="s">
-        <v>409</v>
-      </c>
       <c r="D195" t="s">
         <v>7</v>
       </c>
       <c r="E195" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
+        <v>409</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
         <v>410</v>
-      </c>
-      <c r="B196">
-        <v>1</v>
-      </c>
-      <c r="C196" t="s">
-        <v>411</v>
       </c>
       <c r="D196" t="s">
         <v>7</v>
@@ -5726,19 +5740,19 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
+        <v>411</v>
+      </c>
+      <c r="B197">
+        <v>0.85</v>
+      </c>
+      <c r="C197" t="s">
         <v>412</v>
       </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" t="s">
         <v>413</v>
-      </c>
-      <c r="D197" t="s">
-        <v>7</v>
-      </c>
-      <c r="E197" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5746,7 +5760,7 @@
         <v>414</v>
       </c>
       <c r="B198">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="C198" t="s">
         <v>415</v>
@@ -5755,7 +5769,7 @@
         <v>7</v>
       </c>
       <c r="E198" t="s">
-        <v>218</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5763,7 +5777,7 @@
         <v>416</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>2.15</v>
       </c>
       <c r="C199" t="s">
         <v>417</v>
@@ -5772,7 +5786,7 @@
         <v>7</v>
       </c>
       <c r="E199" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5780,7 +5794,7 @@
         <v>418</v>
       </c>
       <c r="B200">
-        <v>2.15</v>
+        <v>1</v>
       </c>
       <c r="C200" t="s">
         <v>419</v>
@@ -5789,7 +5803,7 @@
         <v>7</v>
       </c>
       <c r="E200" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5797,7 +5811,7 @@
         <v>420</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="C201" t="s">
         <v>421</v>
@@ -5814,7 +5828,7 @@
         <v>422</v>
       </c>
       <c r="B202">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C202" t="s">
         <v>423</v>
@@ -5831,7 +5845,7 @@
         <v>424</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="C203" t="s">
         <v>425</v>
@@ -5848,7 +5862,7 @@
         <v>426</v>
       </c>
       <c r="B204">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="C204" t="s">
         <v>427</v>
@@ -5865,7 +5879,7 @@
         <v>428</v>
       </c>
       <c r="B205">
-        <v>1.05</v>
+        <v>2.05</v>
       </c>
       <c r="C205" t="s">
         <v>429</v>
@@ -5874,7 +5888,7 @@
         <v>7</v>
       </c>
       <c r="E205" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5882,33 +5896,33 @@
         <v>430</v>
       </c>
       <c r="B206">
-        <v>2.05</v>
+        <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>431</v>
+        <v>148</v>
       </c>
       <c r="D206" t="s">
         <v>7</v>
       </c>
       <c r="E206" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
+        <v>431</v>
+      </c>
+      <c r="B207">
+        <v>1.19</v>
+      </c>
+      <c r="C207" t="s">
         <v>432</v>
       </c>
-      <c r="B207">
-        <v>1</v>
-      </c>
-      <c r="C207" t="s">
-        <v>148</v>
-      </c>
       <c r="D207" t="s">
         <v>7</v>
       </c>
       <c r="E207" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5916,7 +5930,7 @@
         <v>433</v>
       </c>
       <c r="B208">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="C208" t="s">
         <v>434</v>
@@ -5925,7 +5939,7 @@
         <v>7</v>
       </c>
       <c r="E208" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5933,7 +5947,7 @@
         <v>435</v>
       </c>
       <c r="B209">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="C209" t="s">
         <v>436</v>
@@ -5942,7 +5956,7 @@
         <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5950,7 +5964,7 @@
         <v>437</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="C210" t="s">
         <v>438</v>
@@ -5959,7 +5973,7 @@
         <v>7</v>
       </c>
       <c r="E210" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5967,7 +5981,7 @@
         <v>439</v>
       </c>
       <c r="B211">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="C211" t="s">
         <v>440</v>
@@ -5976,7 +5990,7 @@
         <v>7</v>
       </c>
       <c r="E211" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5984,7 +5998,7 @@
         <v>441</v>
       </c>
       <c r="B212">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="C212" t="s">
         <v>442</v>
@@ -5993,7 +6007,7 @@
         <v>7</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6001,7 +6015,7 @@
         <v>443</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="C213" t="s">
         <v>444</v>
@@ -6018,7 +6032,7 @@
         <v>445</v>
       </c>
       <c r="B214">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="C214" t="s">
         <v>446</v>
@@ -6027,7 +6041,7 @@
         <v>7</v>
       </c>
       <c r="E214" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6035,7 +6049,7 @@
         <v>447</v>
       </c>
       <c r="B215">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="C215" t="s">
         <v>448</v>
@@ -6044,7 +6058,7 @@
         <v>7</v>
       </c>
       <c r="E215" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6052,7 +6066,7 @@
         <v>449</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="C216" t="s">
         <v>450</v>
@@ -6061,7 +6075,7 @@
         <v>7</v>
       </c>
       <c r="E216" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6069,7 +6083,7 @@
         <v>451</v>
       </c>
       <c r="B217">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="C217" t="s">
         <v>452</v>
@@ -6078,7 +6092,7 @@
         <v>7</v>
       </c>
       <c r="E217" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6086,7 +6100,7 @@
         <v>453</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="C218" t="s">
         <v>454</v>
@@ -6095,7 +6109,7 @@
         <v>7</v>
       </c>
       <c r="E218" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6103,7 +6117,7 @@
         <v>455</v>
       </c>
       <c r="B219">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="C219" t="s">
         <v>456</v>
@@ -6120,7 +6134,7 @@
         <v>457</v>
       </c>
       <c r="B220">
-        <v>1.17</v>
+        <v>2.03</v>
       </c>
       <c r="C220" t="s">
         <v>458</v>
@@ -6129,24 +6143,24 @@
         <v>7</v>
       </c>
       <c r="E220" t="s">
-        <v>17</v>
+        <v>459</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B221">
-        <v>2.03</v>
+        <v>1.06</v>
       </c>
       <c r="C221" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D221" t="s">
         <v>7</v>
       </c>
       <c r="E221" t="s">
-        <v>461</v>
+        <v>17</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6154,7 +6168,7 @@
         <v>462</v>
       </c>
       <c r="B222">
-        <v>1.06</v>
+        <v>2</v>
       </c>
       <c r="C222" t="s">
         <v>463</v>
@@ -6163,24 +6177,24 @@
         <v>7</v>
       </c>
       <c r="E222" t="s">
-        <v>17</v>
+        <v>464</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="C223" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D223" t="s">
         <v>7</v>
       </c>
       <c r="E223" t="s">
-        <v>466</v>
+        <v>17</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6188,7 +6202,7 @@
         <v>467</v>
       </c>
       <c r="B224">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="C224" t="s">
         <v>468</v>
@@ -6197,7 +6211,7 @@
         <v>7</v>
       </c>
       <c r="E224" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6205,7 +6219,7 @@
         <v>469</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="C225" t="s">
         <v>470</v>
@@ -6214,7 +6228,7 @@
         <v>7</v>
       </c>
       <c r="E225" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6222,7 +6236,7 @@
         <v>471</v>
       </c>
       <c r="B226">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="C226" t="s">
         <v>472</v>
@@ -6239,7 +6253,7 @@
         <v>473</v>
       </c>
       <c r="B227">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="C227" t="s">
         <v>474</v>
@@ -6256,7 +6270,7 @@
         <v>475</v>
       </c>
       <c r="B228">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="C228" t="s">
         <v>476</v>
@@ -6273,7 +6287,7 @@
         <v>477</v>
       </c>
       <c r="B229">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="C229" t="s">
         <v>478</v>
@@ -6290,7 +6304,7 @@
         <v>479</v>
       </c>
       <c r="B230">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="C230" t="s">
         <v>480</v>
@@ -6307,7 +6321,7 @@
         <v>481</v>
       </c>
       <c r="B231">
-        <v>1.09</v>
+        <v>0.88</v>
       </c>
       <c r="C231" t="s">
         <v>482</v>
@@ -6316,7 +6330,7 @@
         <v>7</v>
       </c>
       <c r="E231" t="s">
-        <v>17</v>
+        <v>413</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6324,7 +6338,7 @@
         <v>483</v>
       </c>
       <c r="B232">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="C232" t="s">
         <v>484</v>
@@ -6333,7 +6347,7 @@
         <v>7</v>
       </c>
       <c r="E232" t="s">
-        <v>218</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6341,7 +6355,7 @@
         <v>485</v>
       </c>
       <c r="B233">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="C233" t="s">
         <v>486</v>
@@ -6358,7 +6372,7 @@
         <v>487</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>1.28</v>
       </c>
       <c r="C234" t="s">
         <v>488</v>
@@ -6367,7 +6381,7 @@
         <v>7</v>
       </c>
       <c r="E234" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6375,7 +6389,7 @@
         <v>489</v>
       </c>
       <c r="B235">
-        <v>1.28</v>
+        <v>1</v>
       </c>
       <c r="C235" t="s">
         <v>490</v>
@@ -6384,7 +6398,7 @@
         <v>7</v>
       </c>
       <c r="E235" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6392,7 +6406,7 @@
         <v>491</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C236" t="s">
         <v>492</v>
@@ -6401,7 +6415,7 @@
         <v>7</v>
       </c>
       <c r="E236" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6409,7 +6423,7 @@
         <v>493</v>
       </c>
       <c r="B237">
-        <v>0.99</v>
+        <v>0.77</v>
       </c>
       <c r="C237" t="s">
         <v>494</v>
@@ -6418,7 +6432,7 @@
         <v>7</v>
       </c>
       <c r="E237" t="s">
-        <v>17</v>
+        <v>320</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6426,7 +6440,7 @@
         <v>495</v>
       </c>
       <c r="B238">
-        <v>0.77</v>
+        <v>1.06</v>
       </c>
       <c r="C238" t="s">
         <v>496</v>
@@ -6435,7 +6449,7 @@
         <v>7</v>
       </c>
       <c r="E238" t="s">
-        <v>323</v>
+        <v>8</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6443,7 +6457,7 @@
         <v>497</v>
       </c>
       <c r="B239">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="C239" t="s">
         <v>498</v>
@@ -6452,7 +6466,7 @@
         <v>7</v>
       </c>
       <c r="E239" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6460,7 +6474,7 @@
         <v>499</v>
       </c>
       <c r="B240">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="C240" t="s">
         <v>500</v>
@@ -6477,7 +6491,7 @@
         <v>501</v>
       </c>
       <c r="B241">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="C241" t="s">
         <v>502</v>
@@ -6494,7 +6508,7 @@
         <v>503</v>
       </c>
       <c r="B242">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="C242" t="s">
         <v>504</v>
@@ -6503,7 +6517,7 @@
         <v>7</v>
       </c>
       <c r="E242" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6511,7 +6525,7 @@
         <v>505</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="C243" t="s">
         <v>506</v>
@@ -6520,7 +6534,7 @@
         <v>7</v>
       </c>
       <c r="E243" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6528,7 +6542,7 @@
         <v>507</v>
       </c>
       <c r="B244">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="C244" t="s">
         <v>508</v>
@@ -6537,7 +6551,7 @@
         <v>7</v>
       </c>
       <c r="E244" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6545,7 +6559,7 @@
         <v>509</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="C245" t="s">
         <v>510</v>
@@ -6554,7 +6568,7 @@
         <v>7</v>
       </c>
       <c r="E245" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6562,7 +6576,7 @@
         <v>511</v>
       </c>
       <c r="B246">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="C246" t="s">
         <v>512</v>
@@ -6571,7 +6585,7 @@
         <v>7</v>
       </c>
       <c r="E246" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6579,7 +6593,7 @@
         <v>513</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="C247" t="s">
         <v>514</v>
@@ -6588,7 +6602,7 @@
         <v>7</v>
       </c>
       <c r="E247" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6596,7 +6610,7 @@
         <v>515</v>
       </c>
       <c r="B248">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="C248" t="s">
         <v>516</v>
@@ -6605,7 +6619,7 @@
         <v>7</v>
       </c>
       <c r="E248" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6613,7 +6627,7 @@
         <v>517</v>
       </c>
       <c r="B249">
-        <v>1.04</v>
+        <v>1.55</v>
       </c>
       <c r="C249" t="s">
         <v>518</v>
@@ -6622,7 +6636,7 @@
         <v>7</v>
       </c>
       <c r="E249" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6630,7 +6644,7 @@
         <v>519</v>
       </c>
       <c r="B250">
-        <v>1.55</v>
+        <v>1.05</v>
       </c>
       <c r="C250" t="s">
         <v>520</v>
@@ -6639,7 +6653,7 @@
         <v>7</v>
       </c>
       <c r="E250" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6647,7 +6661,7 @@
         <v>521</v>
       </c>
       <c r="B251">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="C251" t="s">
         <v>522</v>
@@ -6656,7 +6670,7 @@
         <v>7</v>
       </c>
       <c r="E251" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6664,7 +6678,7 @@
         <v>523</v>
       </c>
       <c r="B252">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="C252" t="s">
         <v>524</v>
@@ -6673,7 +6687,7 @@
         <v>7</v>
       </c>
       <c r="E252" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6681,7 +6695,7 @@
         <v>525</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="C253" t="s">
         <v>526</v>
@@ -6690,7 +6704,7 @@
         <v>7</v>
       </c>
       <c r="E253" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6698,7 +6712,7 @@
         <v>527</v>
       </c>
       <c r="B254">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="C254" t="s">
         <v>528</v>
@@ -6715,7 +6729,7 @@
         <v>529</v>
       </c>
       <c r="B255">
-        <v>1.08</v>
+        <v>1.31</v>
       </c>
       <c r="C255" t="s">
         <v>530</v>
@@ -6732,7 +6746,7 @@
         <v>531</v>
       </c>
       <c r="B256">
-        <v>1.31</v>
+        <v>1.07</v>
       </c>
       <c r="C256" t="s">
         <v>532</v>
@@ -6749,7 +6763,7 @@
         <v>533</v>
       </c>
       <c r="B257">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="C257" t="s">
         <v>534</v>
@@ -6758,7 +6772,7 @@
         <v>7</v>
       </c>
       <c r="E257" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6783,7 +6797,7 @@
         <v>537</v>
       </c>
       <c r="B259">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="C259" t="s">
         <v>538</v>
@@ -6792,7 +6806,7 @@
         <v>7</v>
       </c>
       <c r="E259" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6800,7 +6814,7 @@
         <v>539</v>
       </c>
       <c r="B260">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="C260" t="s">
         <v>540</v>
@@ -6817,7 +6831,7 @@
         <v>541</v>
       </c>
       <c r="B261">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="C261" t="s">
         <v>542</v>
@@ -6826,7 +6840,7 @@
         <v>7</v>
       </c>
       <c r="E261" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6834,7 +6848,7 @@
         <v>543</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="C262" t="s">
         <v>544</v>
@@ -6851,7 +6865,7 @@
         <v>545</v>
       </c>
       <c r="B263">
-        <v>1.02</v>
+        <v>2.3</v>
       </c>
       <c r="C263" t="s">
         <v>546</v>
@@ -6860,24 +6874,24 @@
         <v>7</v>
       </c>
       <c r="E263" t="s">
-        <v>8</v>
+        <v>547</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B264">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D264" t="s">
         <v>7</v>
       </c>
       <c r="E264" t="s">
-        <v>549</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6894,23 +6908,6 @@
         <v>7</v>
       </c>
       <c r="E265" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266" t="s">
-        <v>552</v>
-      </c>
-      <c r="B266">
-        <v>1</v>
-      </c>
-      <c r="C266" t="s">
-        <v>553</v>
-      </c>
-      <c r="D266" t="s">
-        <v>7</v>
-      </c>
-      <c r="E266" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6921,7 +6918,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6951,268 +6948,268 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B2">
         <v>2.72</v>
       </c>
       <c r="C2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B3">
         <v>2.02</v>
       </c>
       <c r="C3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B5">
         <v>2.7</v>
       </c>
       <c r="C5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B6">
         <v>2.09</v>
       </c>
       <c r="C6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B7">
         <v>2.59</v>
       </c>
       <c r="C7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B8">
         <v>3.18</v>
       </c>
       <c r="C8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B9">
         <v>1.9</v>
       </c>
       <c r="C9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B10">
         <v>2.2</v>
       </c>
       <c r="C10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B11">
         <v>2.79</v>
       </c>
       <c r="C11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B12">
         <v>2.98</v>
       </c>
       <c r="C12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B13">
         <v>1.95</v>
       </c>
       <c r="C13" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B14">
         <v>1.79</v>
       </c>
       <c r="C14" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B15">
         <v>2.11</v>
       </c>
       <c r="C15" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B16">
         <v>2.7</v>
       </c>
       <c r="C16" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B17">
         <v>1.6</v>
       </c>
       <c r="C17" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -7223,444 +7220,427 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B18">
         <v>2.4</v>
       </c>
       <c r="C18" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B19">
         <v>2.9</v>
       </c>
       <c r="C19" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B20">
         <v>2.58</v>
       </c>
       <c r="C20" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B21">
         <v>1.9</v>
       </c>
       <c r="C21" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B22">
         <v>1.79</v>
       </c>
       <c r="C22" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B23">
         <v>1.88</v>
       </c>
       <c r="C23" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B24">
         <v>1.6</v>
       </c>
       <c r="C24" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B25">
         <v>2.9</v>
       </c>
       <c r="C25" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B26">
         <v>1.95</v>
       </c>
       <c r="C26" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B27">
         <v>2.9</v>
       </c>
       <c r="C27" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B28">
         <v>2.48</v>
       </c>
       <c r="C28" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B29">
         <v>3.2</v>
       </c>
       <c r="C29" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B30">
         <v>1.93</v>
       </c>
       <c r="C30" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B31">
         <v>2.72</v>
       </c>
       <c r="C31" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B32">
         <v>1.97</v>
       </c>
       <c r="C32" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B33">
         <v>2.3</v>
       </c>
       <c r="C33" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B34">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="C34" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>568</v>
+        <v>609</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>643</v>
+      </c>
+      <c r="B35">
+        <v>2.04</v>
+      </c>
+      <c r="C35" t="s">
+        <v>644</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
         <v>645</v>
-      </c>
-      <c r="B35">
-        <v>1.95</v>
-      </c>
-      <c r="C35" t="s">
-        <v>646</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
+        <v>646</v>
+      </c>
+      <c r="B36">
+        <v>1.66</v>
+      </c>
+      <c r="C36" t="s">
         <v>647</v>
       </c>
-      <c r="B36">
-        <v>2.04</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
         <v>648</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>649</v>
+      </c>
+      <c r="B37">
+        <v>2.48</v>
+      </c>
+      <c r="C37" t="s">
         <v>650</v>
       </c>
-      <c r="B37">
-        <v>1.66</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
         <v>651</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
+        <v>652</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
         <v>653</v>
       </c>
-      <c r="B38">
-        <v>2.48</v>
-      </c>
-      <c r="C38" t="s">
-        <v>654</v>
-      </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>655</v>
+        <v>609</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="C39" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>611</v>
+        <v>578</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
+        <v>656</v>
+      </c>
+      <c r="B40">
+        <v>2.5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>657</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
         <v>658</v>
-      </c>
-      <c r="B40">
-        <v>2.8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>659</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
+        <v>659</v>
+      </c>
+      <c r="B41">
+        <v>2.02</v>
+      </c>
+      <c r="C41" t="s">
         <v>660</v>
       </c>
-      <c r="B41">
-        <v>2.5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>661</v>
-      </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>662</v>
+        <v>560</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B42">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="C42" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>665</v>
-      </c>
-      <c r="B43">
-        <v>2.05</v>
-      </c>
-      <c r="C43" t="s">
-        <v>666</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -7670,7 +7650,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7700,36 +7680,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>668</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>2.45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -7769,19 +7732,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B2">
-        <v>2.45</v>
+        <v>0.93</v>
       </c>
       <c r="C2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>671</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -7821,19 +7784,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B2">
         <v>2.17</v>
       </c>
       <c r="C2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -7873,19 +7836,1697 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>675</v>
+        <v>671</v>
+      </c>
+      <c r="B2">
+        <v>2.3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="110.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>673</v>
       </c>
       <c r="B2">
         <v>3.21</v>
       </c>
       <c r="C2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B322"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>676</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>616</v>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>677</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2">
+      <c r="B285" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2">
+      <c r="B287" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2">
+      <c r="B291" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2">
+      <c r="B294" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2">
+      <c r="B296" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2">
+      <c r="B297" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2">
+      <c r="B298" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2">
+      <c r="B301" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2">
+      <c r="B302" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2">
+      <c r="B304" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="B305" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="B306" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="B307" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="B308" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="B309" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="B310" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="B311" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="B312" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>678</v>
+      </c>
+      <c r="B314" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>679</v>
+      </c>
+      <c r="B316" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="B317" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>680</v>
+      </c>
+      <c r="B319" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="B320" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>

--- a/pdb/nsp3/SARS-CoV-2/domains_and_infos_of_nsp3.xlsx
+++ b/pdb/nsp3/SARS-CoV-2/domains_and_infos_of_nsp3.xlsx
@@ -10,9 +10,9 @@
     <sheet name="nsp3_Macro1" sheetId="1" r:id="rId1"/>
     <sheet name="nsp3_PL2pro" sheetId="2" r:id="rId2"/>
     <sheet name="nsp3_NAB" sheetId="3" r:id="rId3"/>
-    <sheet name="CoV1_nsp3_LINKER-PLpro-NAB" sheetId="4" r:id="rId4"/>
-    <sheet name="nsp3_Y3" sheetId="5" r:id="rId5"/>
-    <sheet name="nsp3_frgmnt_btwn_PL2pro_NAB" sheetId="6" r:id="rId6"/>
+    <sheet name="nsp3_Ubl2" sheetId="4" r:id="rId4"/>
+    <sheet name="nsp3_LINKER-PLpro-NAB" sheetId="5" r:id="rId5"/>
+    <sheet name="nsp3_Y3" sheetId="6" r:id="rId6"/>
     <sheet name="nsp3_Ubl1" sheetId="7" r:id="rId7"/>
     <sheet name="Organisms" sheetId="8" r:id="rId8"/>
   </sheets>
@@ -1733,6 +1733,285 @@
     <t>2020-07-27</t>
   </si>
   <si>
+    <t>7d7k</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF SARS-COV-2 PAPAIN-LIKE PROTEASE IN APO FORM</t>
+  </si>
+  <si>
+    <t>2020-10-04</t>
+  </si>
+  <si>
+    <t>7lbr</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) BOUND TO INHIBITOR XR8-89</t>
+  </si>
+  <si>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>6wuu</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF THE SARS COV-2 PAPAIN-LIKE PROTEASE IN COMPLEX WITH PEPTIDE INHIBITOR VIR250</t>
+  </si>
+  <si>
+    <t>2020-05-05</t>
+  </si>
+  <si>
+    <t>7rbs</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH HUMAN ISG15</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>7oft</t>
+  </si>
+  <si>
+    <t>STRUCTURE OF SARS-COV-2 PAPAIN-LIKE PROTEASE PLPRO IN COMPLEX WITH P- HYDROXYBENZALDEHYDE</t>
+  </si>
+  <si>
+    <t>2021-05-05</t>
+  </si>
+  <si>
+    <t>6wzu</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , P3221 SPACE GROUP</t>
+  </si>
+  <si>
+    <t>2020-05-14</t>
+  </si>
+  <si>
+    <t>7d7l</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF SARS-COV-2 PAPAIN-LIKE PROTEASE IN COMPLEX WITH YM155</t>
+  </si>
+  <si>
+    <t>6xaa</t>
+  </si>
+  <si>
+    <t>SARS COV-2 PLPRO IN COMPLEX WITH UBIQUITIN PROPARGYLAMIDE</t>
+  </si>
+  <si>
+    <t>2020-06-04</t>
+  </si>
+  <si>
+    <t>6wrh</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , C111S MUTANT</t>
+  </si>
+  <si>
+    <t>7e35</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF THE SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) C112S MUTANT BOUND TO COMPOUND S43</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>6xa9</t>
+  </si>
+  <si>
+    <t>SARS COV-2 PLPRO IN COMPLEX WITH ISG15 C-TERMINAL DOMAIN PROPARGYLAMIDE</t>
+  </si>
+  <si>
+    <t>7kol</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH PLP_SNYDER496 INHIBITOR</t>
+  </si>
+  <si>
+    <t>7ofs</t>
+  </si>
+  <si>
+    <t>STRUCTURE OF SARS-COV-2 PAPAIN-LIKE PROTEASE PLPRO IN COMPLEX WITH 4- (2-HYDROXYETHYL)PHENOL</t>
+  </si>
+  <si>
+    <t>7sgu</t>
+  </si>
+  <si>
+    <t>PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH PLP_SNYDER608 INHIBITOR</t>
+  </si>
+  <si>
+    <t>2021-10-07</t>
+  </si>
+  <si>
+    <t>7rbr</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH A LYS48-LINKED DI-UBIQUITIN</t>
+  </si>
+  <si>
+    <t>7d6h</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF THE SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) C112S MUTANT</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>7llz</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) BOUND TO INHIBITOR XR8-69</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>7jit</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , C111S MUTANT, IN COMPLEX WITH PLP_SNYDER495 INHIBITOR</t>
+  </si>
+  <si>
+    <t>7los</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) BOUND TO INHIBITOR XR8-65</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>7jrn</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF THE WILD TYPE SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) WITH INHIBITOR GRL0617</t>
+  </si>
+  <si>
+    <t>2020-08-12</t>
+  </si>
+  <si>
+    <t>7cjm</t>
+  </si>
+  <si>
+    <t>SARS COV-2 PLPRO IN COMPLEX WITH GRL0617</t>
+  </si>
+  <si>
+    <t>2020-07-11</t>
+  </si>
+  <si>
+    <t>7jn2</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH PLP_SNYDER441 INHIBITOR</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>7krx</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH PLP_SNYDER441 INHIBITOR</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>7d47</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF SARS-COV-2 PAPAIN-LIKE PROTEASE C111S</t>
+  </si>
+  <si>
+    <t>2020-09-22</t>
+  </si>
+  <si>
+    <t>7llf</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) BOUND TO INHIBITOR XR8-83</t>
+  </si>
+  <si>
+    <t>2021-02-03</t>
+  </si>
+  <si>
+    <t>7sgw</t>
+  </si>
+  <si>
+    <t>PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH PLP_SNYDER630 INHIBITOR</t>
+  </si>
+  <si>
+    <t>7rzc</t>
+  </si>
+  <si>
+    <t>PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH JUN9-84-3 INHIBITOR</t>
+  </si>
+  <si>
+    <t>2021-08-27</t>
+  </si>
+  <si>
+    <t>6wx4</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF THE SARS COV-2 PAPAIN-LIKE PROTEASE IN COMPLEX WITH PEPTIDE INHIBITOR VIR251</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>6xg3</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , C111S MUTANT, AT ROOM TEMPERATURE</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>7sgv</t>
+  </si>
+  <si>
+    <t>PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH PLP_SNYDER630 INHIBITOR</t>
+  </si>
+  <si>
+    <t>7lbs</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) BOUND TO INHIBITOR XR8-24</t>
+  </si>
+  <si>
+    <t>7cjd</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF THE SARS-COV-2 PLPRO C111S MUTANT</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>7koj</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH PLP_SNYDER494 INHIBITOR</t>
+  </si>
+  <si>
+    <t>7jiv</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , C111S MUTANT, IN COMPLEX WITH PLP_SNYDER530 INHIBITOR</t>
+  </si>
+  <si>
+    <t>7lgo</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF THE NUCLEIC ACID BINDING DOMAIN (NAB) OF NSP3 FROM SARS-COV-2</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
     <t>6yva</t>
   </si>
   <si>
@@ -1742,291 +2021,18 @@
     <t>2020-04-28</t>
   </si>
   <si>
-    <t>7d7k</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF SARS-COV-2 PAPAIN-LIKE PROTEASE IN APO FORM</t>
-  </si>
-  <si>
-    <t>2020-10-04</t>
-  </si>
-  <si>
-    <t>7lbr</t>
-  </si>
-  <si>
-    <t>SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) BOUND TO INHIBITOR XR8-89</t>
-  </si>
-  <si>
-    <t>2021-01-08</t>
-  </si>
-  <si>
-    <t>6wuu</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF THE SARS COV-2 PAPAIN-LIKE PROTEASE IN COMPLEX WITH PEPTIDE INHIBITOR VIR250</t>
-  </si>
-  <si>
-    <t>2020-05-05</t>
-  </si>
-  <si>
-    <t>7rbs</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH HUMAN ISG15</t>
-  </si>
-  <si>
-    <t>2021-07-06</t>
-  </si>
-  <si>
-    <t>7oft</t>
-  </si>
-  <si>
-    <t>STRUCTURE OF SARS-COV-2 PAPAIN-LIKE PROTEASE PLPRO IN COMPLEX WITH P- HYDROXYBENZALDEHYDE</t>
-  </si>
-  <si>
-    <t>2021-05-05</t>
-  </si>
-  <si>
-    <t>6wzu</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , P3221 SPACE GROUP</t>
-  </si>
-  <si>
-    <t>2020-05-14</t>
-  </si>
-  <si>
-    <t>7d7l</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF SARS-COV-2 PAPAIN-LIKE PROTEASE IN COMPLEX WITH YM155</t>
-  </si>
-  <si>
-    <t>6xaa</t>
-  </si>
-  <si>
-    <t>SARS COV-2 PLPRO IN COMPLEX WITH UBIQUITIN PROPARGYLAMIDE</t>
-  </si>
-  <si>
-    <t>2020-06-04</t>
-  </si>
-  <si>
-    <t>6wrh</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , C111S MUTANT</t>
-  </si>
-  <si>
-    <t>7e35</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF THE SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) C112S MUTANT BOUND TO COMPOUND S43</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>6xa9</t>
-  </si>
-  <si>
-    <t>SARS COV-2 PLPRO IN COMPLEX WITH ISG15 C-TERMINAL DOMAIN PROPARGYLAMIDE</t>
-  </si>
-  <si>
-    <t>7kol</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH PLP_SNYDER496 INHIBITOR</t>
-  </si>
-  <si>
-    <t>7ofs</t>
-  </si>
-  <si>
-    <t>STRUCTURE OF SARS-COV-2 PAPAIN-LIKE PROTEASE PLPRO IN COMPLEX WITH 4- (2-HYDROXYETHYL)PHENOL</t>
-  </si>
-  <si>
-    <t>7sgu</t>
-  </si>
-  <si>
-    <t>PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH PLP_SNYDER608 INHIBITOR</t>
-  </si>
-  <si>
-    <t>2021-10-07</t>
-  </si>
-  <si>
-    <t>7rbr</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH A LYS48-LINKED DI-UBIQUITIN</t>
-  </si>
-  <si>
-    <t>7d6h</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF THE SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) C112S MUTANT</t>
-  </si>
-  <si>
-    <t>2020-09-30</t>
-  </si>
-  <si>
-    <t>7llz</t>
-  </si>
-  <si>
-    <t>SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) BOUND TO INHIBITOR XR8-69</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>7jit</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , C111S MUTANT, IN COMPLEX WITH PLP_SNYDER495 INHIBITOR</t>
-  </si>
-  <si>
-    <t>7los</t>
-  </si>
-  <si>
-    <t>SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) BOUND TO INHIBITOR XR8-65</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>7jrn</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF THE WILD TYPE SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) WITH INHIBITOR GRL0617</t>
-  </si>
-  <si>
-    <t>2020-08-12</t>
-  </si>
-  <si>
-    <t>7cjm</t>
-  </si>
-  <si>
-    <t>SARS COV-2 PLPRO IN COMPLEX WITH GRL0617</t>
-  </si>
-  <si>
-    <t>2020-07-11</t>
-  </si>
-  <si>
-    <t>7jn2</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH PLP_SNYDER441 INHIBITOR</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>7krx</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH PLP_SNYDER441 INHIBITOR</t>
-  </si>
-  <si>
-    <t>2020-11-20</t>
-  </si>
-  <si>
-    <t>7d47</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF SARS-COV-2 PAPAIN-LIKE PROTEASE C111S</t>
-  </si>
-  <si>
-    <t>2020-09-22</t>
-  </si>
-  <si>
-    <t>7llf</t>
-  </si>
-  <si>
-    <t>SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) BOUND TO INHIBITOR XR8-83</t>
-  </si>
-  <si>
-    <t>2021-02-03</t>
-  </si>
-  <si>
-    <t>7sgw</t>
-  </si>
-  <si>
-    <t>PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH PLP_SNYDER630 INHIBITOR</t>
-  </si>
-  <si>
-    <t>7rzc</t>
-  </si>
-  <si>
-    <t>PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH JUN9-84-3 INHIBITOR</t>
-  </si>
-  <si>
-    <t>2021-08-27</t>
-  </si>
-  <si>
-    <t>6wx4</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF THE SARS COV-2 PAPAIN-LIKE PROTEASE IN COMPLEX WITH PEPTIDE INHIBITOR VIR251</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>6xg3</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , C111S MUTANT, AT ROOM TEMPERATURE</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>7sgv</t>
-  </si>
-  <si>
-    <t>PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH PLP_SNYDER630 INHIBITOR</t>
-  </si>
-  <si>
-    <t>7lbs</t>
-  </si>
-  <si>
-    <t>SARS-COV-2 PAPAIN-LIKE PROTEASE (PLPRO) BOUND TO INHIBITOR XR8-24</t>
-  </si>
-  <si>
-    <t>7cjd</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF THE SARS-COV-2 PLPRO C111S MUTANT</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>7koj</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH PLP_SNYDER494 INHIBITOR</t>
-  </si>
-  <si>
-    <t>7jiv</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , C111S MUTANT, IN COMPLEX WITH PLP_SNYDER530 INHIBITOR</t>
-  </si>
-  <si>
-    <t>7lgo</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF THE NUCLEIC ACID BINDING DOMAIN (NAB) OF NSP3 FROM SARS-COV-2</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
     <t>7kqw</t>
   </si>
   <si>
     <t>CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN (C2 CRYSTAL FORM, METHYLATED)</t>
   </si>
   <si>
+    <t>7jiw</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH PLP_SNYDER530 INHIBITOR</t>
+  </si>
+  <si>
     <t>7rqg</t>
   </si>
   <si>
@@ -2034,12 +2040,6 @@
   </si>
   <si>
     <t>2021-08-06</t>
-  </si>
-  <si>
-    <t>7jiw</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH PLP_SNYDER530 INHIBITOR</t>
   </si>
   <si>
     <t>7kag</t>
@@ -6918,7 +6918,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7053,7 +7053,7 @@
         <v>570</v>
       </c>
       <c r="B8">
-        <v>3.18</v>
+        <v>1.9</v>
       </c>
       <c r="C8" t="s">
         <v>571</v>
@@ -7070,7 +7070,7 @@
         <v>573</v>
       </c>
       <c r="B9">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="C9" t="s">
         <v>574</v>
@@ -7087,7 +7087,7 @@
         <v>576</v>
       </c>
       <c r="B10">
-        <v>2.2</v>
+        <v>2.79</v>
       </c>
       <c r="C10" t="s">
         <v>577</v>
@@ -7104,7 +7104,7 @@
         <v>579</v>
       </c>
       <c r="B11">
-        <v>2.79</v>
+        <v>2.98</v>
       </c>
       <c r="C11" t="s">
         <v>580</v>
@@ -7121,7 +7121,7 @@
         <v>582</v>
       </c>
       <c r="B12">
-        <v>2.98</v>
+        <v>1.95</v>
       </c>
       <c r="C12" t="s">
         <v>583</v>
@@ -7138,7 +7138,7 @@
         <v>585</v>
       </c>
       <c r="B13">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="C13" t="s">
         <v>586</v>
@@ -7155,7 +7155,7 @@
         <v>588</v>
       </c>
       <c r="B14">
-        <v>1.79</v>
+        <v>2.11</v>
       </c>
       <c r="C14" t="s">
         <v>589</v>
@@ -7164,24 +7164,24 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>590</v>
+      </c>
+      <c r="B15">
+        <v>2.7</v>
+      </c>
+      <c r="C15" t="s">
         <v>591</v>
       </c>
-      <c r="B15">
-        <v>2.11</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
         <v>592</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7189,7 +7189,7 @@
         <v>593</v>
       </c>
       <c r="B16">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="C16" t="s">
         <v>594</v>
@@ -7198,24 +7198,24 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>595</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>595</v>
+      </c>
+      <c r="B17">
+        <v>2.4</v>
+      </c>
+      <c r="C17" t="s">
         <v>596</v>
       </c>
-      <c r="B17">
-        <v>1.6</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
         <v>597</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7223,7 +7223,7 @@
         <v>598</v>
       </c>
       <c r="B18">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="C18" t="s">
         <v>599</v>
@@ -7232,58 +7232,58 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>600</v>
+      </c>
+      <c r="B19">
+        <v>2.58</v>
+      </c>
+      <c r="C19" t="s">
         <v>601</v>
       </c>
-      <c r="B19">
-        <v>2.9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>602</v>
-      </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>602</v>
+      </c>
+      <c r="B20">
+        <v>1.9</v>
+      </c>
+      <c r="C20" t="s">
         <v>603</v>
       </c>
-      <c r="B20">
-        <v>2.58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>604</v>
-      </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>604</v>
+      </c>
+      <c r="B21">
+        <v>1.79</v>
+      </c>
+      <c r="C21" t="s">
         <v>605</v>
       </c>
-      <c r="B21">
-        <v>1.9</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
         <v>606</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7291,7 +7291,7 @@
         <v>607</v>
       </c>
       <c r="B22">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="C22" t="s">
         <v>608</v>
@@ -7300,24 +7300,24 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>609</v>
+      </c>
+      <c r="B23">
+        <v>1.6</v>
+      </c>
+      <c r="C23" t="s">
         <v>610</v>
       </c>
-      <c r="B23">
-        <v>1.88</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
         <v>611</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7325,7 +7325,7 @@
         <v>612</v>
       </c>
       <c r="B24">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="C24" t="s">
         <v>613</v>
@@ -7342,7 +7342,7 @@
         <v>615</v>
       </c>
       <c r="B25">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="C25" t="s">
         <v>616</v>
@@ -7351,24 +7351,24 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>617</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
+        <v>617</v>
+      </c>
+      <c r="B26">
+        <v>2.9</v>
+      </c>
+      <c r="C26" t="s">
         <v>618</v>
       </c>
-      <c r="B26">
-        <v>1.95</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
         <v>619</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7376,7 +7376,7 @@
         <v>620</v>
       </c>
       <c r="B27">
-        <v>2.9</v>
+        <v>2.48</v>
       </c>
       <c r="C27" t="s">
         <v>621</v>
@@ -7393,7 +7393,7 @@
         <v>623</v>
       </c>
       <c r="B28">
-        <v>2.48</v>
+        <v>3.2</v>
       </c>
       <c r="C28" t="s">
         <v>624</v>
@@ -7410,7 +7410,7 @@
         <v>626</v>
       </c>
       <c r="B29">
-        <v>3.2</v>
+        <v>1.93</v>
       </c>
       <c r="C29" t="s">
         <v>627</v>
@@ -7427,7 +7427,7 @@
         <v>629</v>
       </c>
       <c r="B30">
-        <v>1.93</v>
+        <v>2.72</v>
       </c>
       <c r="C30" t="s">
         <v>630</v>
@@ -7444,7 +7444,7 @@
         <v>632</v>
       </c>
       <c r="B31">
-        <v>2.72</v>
+        <v>1.97</v>
       </c>
       <c r="C31" t="s">
         <v>633</v>
@@ -7461,7 +7461,7 @@
         <v>635</v>
       </c>
       <c r="B32">
-        <v>1.97</v>
+        <v>2.3</v>
       </c>
       <c r="C32" t="s">
         <v>636</v>
@@ -7478,7 +7478,7 @@
         <v>638</v>
       </c>
       <c r="B33">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="C33" t="s">
         <v>639</v>
@@ -7487,24 +7487,24 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>640</v>
+        <v>606</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>640</v>
+      </c>
+      <c r="B34">
+        <v>2.04</v>
+      </c>
+      <c r="C34" t="s">
         <v>641</v>
       </c>
-      <c r="B34">
-        <v>1.95</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
         <v>642</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -7512,7 +7512,7 @@
         <v>643</v>
       </c>
       <c r="B35">
-        <v>2.04</v>
+        <v>1.66</v>
       </c>
       <c r="C35" t="s">
         <v>644</v>
@@ -7529,7 +7529,7 @@
         <v>646</v>
       </c>
       <c r="B36">
-        <v>1.66</v>
+        <v>2.48</v>
       </c>
       <c r="C36" t="s">
         <v>647</v>
@@ -7546,7 +7546,7 @@
         <v>649</v>
       </c>
       <c r="B37">
-        <v>2.48</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
         <v>650</v>
@@ -7555,41 +7555,41 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
+        <v>651</v>
+      </c>
+      <c r="B38">
+        <v>2.8</v>
+      </c>
+      <c r="C38" t="s">
         <v>652</v>
       </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>653</v>
-      </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>609</v>
+        <v>575</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
+        <v>653</v>
+      </c>
+      <c r="B39">
+        <v>2.5</v>
+      </c>
+      <c r="C39" t="s">
         <v>654</v>
       </c>
-      <c r="B39">
-        <v>2.8</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
         <v>655</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -7597,7 +7597,7 @@
         <v>656</v>
       </c>
       <c r="B40">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="C40" t="s">
         <v>657</v>
@@ -7606,40 +7606,23 @@
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>658</v>
+        <v>560</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
+        <v>658</v>
+      </c>
+      <c r="B41">
+        <v>2.05</v>
+      </c>
+      <c r="C41" t="s">
         <v>659</v>
       </c>
-      <c r="B41">
-        <v>2.02</v>
-      </c>
-      <c r="C41" t="s">
-        <v>660</v>
-      </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>661</v>
-      </c>
-      <c r="B42">
-        <v>2.05</v>
-      </c>
-      <c r="C42" t="s">
-        <v>662</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" t="s">
         <v>566</v>
       </c>
     </row>
@@ -7680,19 +7663,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B2">
         <v>2.45</v>
       </c>
       <c r="C2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -7732,19 +7715,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B2">
-        <v>0.93</v>
+        <v>3.18</v>
       </c>
       <c r="C2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>413</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -7754,7 +7737,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7784,19 +7767,36 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2">
+        <v>0.93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>668</v>
       </c>
-      <c r="B2">
-        <v>2.17</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3">
+        <v>2.3</v>
+      </c>
+      <c r="C3" t="s">
         <v>669</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>670</v>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -7836,19 +7836,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B2">
+        <v>2.17</v>
+      </c>
+      <c r="C2" t="s">
         <v>671</v>
       </c>
-      <c r="B2">
-        <v>2.3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>672</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -7900,7 +7900,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -8132,7 +8132,7 @@
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="43" spans="2:2">
@@ -8167,7 +8167,7 @@
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>570</v>
+        <v>663</v>
       </c>
     </row>
     <row r="50" spans="2:2">
@@ -8182,7 +8182,7 @@
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="53" spans="2:2">
@@ -8252,7 +8252,7 @@
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="67" spans="2:2">
@@ -8272,7 +8272,7 @@
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="71" spans="2:2">
@@ -8292,7 +8292,7 @@
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="75" spans="2:2">
@@ -8337,7 +8337,7 @@
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="84" spans="2:2">
@@ -8372,7 +8372,7 @@
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="91" spans="2:2">
@@ -8392,7 +8392,7 @@
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="95" spans="2:2">
@@ -8512,7 +8512,7 @@
     </row>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="119" spans="2:2">
@@ -8562,7 +8562,7 @@
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="129" spans="2:2">
@@ -8572,7 +8572,7 @@
     </row>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="131" spans="2:2">
@@ -8597,7 +8597,7 @@
     </row>
     <row r="135" spans="2:2">
       <c r="B135" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="136" spans="2:2">
@@ -8612,7 +8612,7 @@
     </row>
     <row r="138" spans="2:2">
       <c r="B138" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="139" spans="2:2">
@@ -8652,7 +8652,7 @@
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="147" spans="2:2">
@@ -8707,7 +8707,7 @@
     </row>
     <row r="157" spans="2:2">
       <c r="B157" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="158" spans="2:2">
@@ -8727,7 +8727,7 @@
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="162" spans="2:2">
@@ -8757,7 +8757,7 @@
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="168" spans="2:2">
@@ -8772,7 +8772,7 @@
     </row>
     <row r="170" spans="2:2">
       <c r="B170" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="171" spans="2:2">
@@ -8787,7 +8787,7 @@
     </row>
     <row r="173" spans="2:2">
       <c r="B173" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="174" spans="2:2">
@@ -8797,7 +8797,7 @@
     </row>
     <row r="175" spans="2:2">
       <c r="B175" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="176" spans="2:2">
@@ -8857,7 +8857,7 @@
     </row>
     <row r="187" spans="2:2">
       <c r="B187" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="188" spans="2:2">
@@ -8897,12 +8897,12 @@
     </row>
     <row r="195" spans="2:2">
       <c r="B195" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="197" spans="2:2">
@@ -8922,7 +8922,7 @@
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="201" spans="2:2">
@@ -8932,7 +8932,7 @@
     </row>
     <row r="202" spans="2:2">
       <c r="B202" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="203" spans="2:2">
@@ -8982,12 +8982,12 @@
     </row>
     <row r="212" spans="2:2">
       <c r="B212" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="214" spans="2:2">
@@ -9037,7 +9037,7 @@
     </row>
     <row r="223" spans="2:2">
       <c r="B223" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="224" spans="2:2">
@@ -9067,7 +9067,7 @@
     </row>
     <row r="229" spans="2:2">
       <c r="B229" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="230" spans="2:2">
@@ -9122,7 +9122,7 @@
     </row>
     <row r="240" spans="2:2">
       <c r="B240" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="241" spans="2:2">
@@ -9147,7 +9147,7 @@
     </row>
     <row r="245" spans="2:2">
       <c r="B245" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="246" spans="2:2">
@@ -9252,7 +9252,7 @@
     </row>
     <row r="266" spans="2:2">
       <c r="B266" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="267" spans="2:2">
@@ -9277,7 +9277,7 @@
     </row>
     <row r="271" spans="2:2">
       <c r="B271" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="272" spans="2:2">
@@ -9387,17 +9387,17 @@
     </row>
     <row r="293" spans="2:2">
       <c r="B293" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="294" spans="2:2">
       <c r="B294" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="295" spans="2:2">
       <c r="B295" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="296" spans="2:2">
@@ -9437,7 +9437,7 @@
     </row>
     <row r="303" spans="2:2">
       <c r="B303" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="304" spans="2:2">
@@ -9490,7 +9490,7 @@
         <v>678</v>
       </c>
       <c r="B314" t="s">
-        <v>570</v>
+        <v>663</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -9498,12 +9498,12 @@
         <v>679</v>
       </c>
       <c r="B316" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="B317" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -9511,22 +9511,22 @@
         <v>680</v>
       </c>
       <c r="B319" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="B320" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="321" spans="2:2">
       <c r="B321" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="322" spans="2:2">
       <c r="B322" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/pdb/nsp3/SARS-CoV-2/domains_and_infos_of_nsp3.xlsx
+++ b/pdb/nsp3/SARS-CoV-2/domains_and_infos_of_nsp3.xlsx
@@ -11,7 +11,7 @@
     <sheet name="nsp3_PL2pro" sheetId="2" r:id="rId2"/>
     <sheet name="nsp3_NAB" sheetId="3" r:id="rId3"/>
     <sheet name="nsp3_Ubl2" sheetId="4" r:id="rId4"/>
-    <sheet name="nsp3_LINKER-PLpro-NAB" sheetId="5" r:id="rId5"/>
+    <sheet name="nsp3_pred_linker-Ecto-TM2" sheetId="5" r:id="rId5"/>
     <sheet name="nsp3_Y3" sheetId="6" r:id="rId6"/>
     <sheet name="nsp3_Ubl1" sheetId="7" r:id="rId7"/>
     <sheet name="Organisms" sheetId="8" r:id="rId8"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="684">
   <si>
     <t>PDB</t>
   </si>
@@ -1833,6 +1833,15 @@
   </si>
   <si>
     <t>STRUCTURE OF SARS-COV-2 PAPAIN-LIKE PROTEASE PLPRO IN COMPLEX WITH 4- (2-HYDROXYETHYL)PHENOL</t>
+  </si>
+  <si>
+    <t>7sqe</t>
+  </si>
+  <si>
+    <t>PAPAIN-LIKE PROTEASE OF SARS COV-2, C111S MUTANT, IN COMPLEX WITH JUN9-84-3 INHIBITOR</t>
+  </si>
+  <si>
+    <t>2021-11-05</t>
   </si>
   <si>
     <t>7sgu</t>
@@ -6918,7 +6927,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7274,7 +7283,7 @@
         <v>604</v>
       </c>
       <c r="B21">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
         <v>605</v>
@@ -7291,7 +7300,7 @@
         <v>607</v>
       </c>
       <c r="B22">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="C22" t="s">
         <v>608</v>
@@ -7300,24 +7309,24 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B23">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="C23" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7325,7 +7334,7 @@
         <v>612</v>
       </c>
       <c r="B24">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="C24" t="s">
         <v>613</v>
@@ -7342,7 +7351,7 @@
         <v>615</v>
       </c>
       <c r="B25">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="C25" t="s">
         <v>616</v>
@@ -7351,24 +7360,24 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>566</v>
+        <v>617</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B26">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="C26" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>619</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7376,7 +7385,7 @@
         <v>620</v>
       </c>
       <c r="B27">
-        <v>2.48</v>
+        <v>2.9</v>
       </c>
       <c r="C27" t="s">
         <v>621</v>
@@ -7393,7 +7402,7 @@
         <v>623</v>
       </c>
       <c r="B28">
-        <v>3.2</v>
+        <v>2.48</v>
       </c>
       <c r="C28" t="s">
         <v>624</v>
@@ -7410,7 +7419,7 @@
         <v>626</v>
       </c>
       <c r="B29">
-        <v>1.93</v>
+        <v>3.2</v>
       </c>
       <c r="C29" t="s">
         <v>627</v>
@@ -7427,7 +7436,7 @@
         <v>629</v>
       </c>
       <c r="B30">
-        <v>2.72</v>
+        <v>1.93</v>
       </c>
       <c r="C30" t="s">
         <v>630</v>
@@ -7444,7 +7453,7 @@
         <v>632</v>
       </c>
       <c r="B31">
-        <v>1.97</v>
+        <v>2.72</v>
       </c>
       <c r="C31" t="s">
         <v>633</v>
@@ -7461,7 +7470,7 @@
         <v>635</v>
       </c>
       <c r="B32">
-        <v>2.3</v>
+        <v>1.97</v>
       </c>
       <c r="C32" t="s">
         <v>636</v>
@@ -7478,7 +7487,7 @@
         <v>638</v>
       </c>
       <c r="B33">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="C33" t="s">
         <v>639</v>
@@ -7487,24 +7496,24 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>606</v>
+        <v>640</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B34">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="C34" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>642</v>
+        <v>609</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -7512,7 +7521,7 @@
         <v>643</v>
       </c>
       <c r="B35">
-        <v>1.66</v>
+        <v>2.04</v>
       </c>
       <c r="C35" t="s">
         <v>644</v>
@@ -7529,7 +7538,7 @@
         <v>646</v>
       </c>
       <c r="B36">
-        <v>2.48</v>
+        <v>1.66</v>
       </c>
       <c r="C36" t="s">
         <v>647</v>
@@ -7546,7 +7555,7 @@
         <v>649</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>2.48</v>
       </c>
       <c r="C37" t="s">
         <v>650</v>
@@ -7555,41 +7564,41 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>606</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B38">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>575</v>
+        <v>609</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B39">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="C39" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>655</v>
+        <v>575</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -7597,7 +7606,7 @@
         <v>656</v>
       </c>
       <c r="B40">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="C40" t="s">
         <v>657</v>
@@ -7606,23 +7615,40 @@
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>560</v>
+        <v>658</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B41">
+        <v>2.02</v>
+      </c>
+      <c r="C41" t="s">
+        <v>660</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>661</v>
+      </c>
+      <c r="B42">
         <v>2.05</v>
       </c>
-      <c r="C41" t="s">
-        <v>659</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="C42" t="s">
+        <v>662</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
         <v>566</v>
       </c>
     </row>
@@ -7663,19 +7689,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B2">
         <v>2.45</v>
       </c>
       <c r="C2" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -7715,19 +7741,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B2">
         <v>3.18</v>
       </c>
       <c r="C2" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -7767,13 +7793,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B2">
         <v>0.93</v>
       </c>
       <c r="C2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -7784,13 +7810,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B3">
         <v>2.3</v>
       </c>
       <c r="C3" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -7836,19 +7862,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B2">
         <v>2.17</v>
       </c>
       <c r="C2" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -7888,19 +7914,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B2">
         <v>3.21</v>
       </c>
       <c r="C2" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -7910,7 +7936,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B322"/>
+  <dimension ref="A1:B323"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7921,12 +7947,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -7934,7 +7960,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -8132,7 +8158,7 @@
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="43" spans="2:2">
@@ -8167,7 +8193,7 @@
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="50" spans="2:2">
@@ -8507,7 +8533,7 @@
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="118" spans="2:2">
@@ -8672,232 +8698,232 @@
     </row>
     <row r="150" spans="2:2">
       <c r="B150" t="s">
-        <v>272</v>
+        <v>604</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" t="s">
-        <v>604</v>
+        <v>284</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" t="s">
-        <v>286</v>
+        <v>607</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>670</v>
+        <v>290</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" t="s">
-        <v>292</v>
+        <v>673</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>607</v>
+        <v>300</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" t="s">
-        <v>302</v>
+        <v>610</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" t="s">
-        <v>609</v>
+        <v>304</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>305</v>
+        <v>612</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" t="s">
-        <v>612</v>
+        <v>307</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" t="s">
-        <v>309</v>
+        <v>615</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" t="s">
-        <v>615</v>
+        <v>309</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" t="s">
-        <v>310</v>
+        <v>618</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" t="s">
-        <v>617</v>
+        <v>331</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" t="s">
-        <v>333</v>
+        <v>620</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" t="s">
-        <v>620</v>
+        <v>344</v>
       </c>
     </row>
     <row r="196" spans="2:2">
@@ -8907,82 +8933,82 @@
     </row>
     <row r="197" spans="2:2">
       <c r="B197" t="s">
-        <v>347</v>
+        <v>626</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>626</v>
+        <v>350</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>352</v>
+        <v>629</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" t="s">
-        <v>629</v>
+        <v>352</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" t="s">
-        <v>354</v>
+        <v>632</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" t="s">
-        <v>632</v>
+        <v>370</v>
       </c>
     </row>
     <row r="213" spans="2:2">
@@ -8992,407 +9018,407 @@
     </row>
     <row r="214" spans="2:2">
       <c r="B214" t="s">
-        <v>372</v>
+        <v>638</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223" t="s">
-        <v>668</v>
+        <v>390</v>
       </c>
     </row>
     <row r="224" spans="2:2">
       <c r="B224" t="s">
-        <v>391</v>
+        <v>671</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="227" spans="2:2">
       <c r="B227" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" t="s">
-        <v>638</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" t="s">
-        <v>401</v>
+        <v>641</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="232" spans="2:2">
       <c r="B232" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="234" spans="2:2">
       <c r="B234" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" t="s">
-        <v>640</v>
+        <v>420</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" t="s">
-        <v>422</v>
+        <v>643</v>
       </c>
     </row>
     <row r="242" spans="2:2">
       <c r="B242" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="243" spans="2:2">
       <c r="B243" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="244" spans="2:2">
       <c r="B244" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="245" spans="2:2">
       <c r="B245" t="s">
-        <v>643</v>
+        <v>428</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246" t="s">
-        <v>430</v>
+        <v>646</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="249" spans="2:2">
       <c r="B249" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="257" spans="2:2">
       <c r="B257" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="258" spans="2:2">
       <c r="B258" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="259" spans="2:2">
       <c r="B259" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="260" spans="2:2">
       <c r="B260" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="263" spans="2:2">
       <c r="B263" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" t="s">
-        <v>673</v>
+        <v>465</v>
       </c>
     </row>
     <row r="265" spans="2:2">
       <c r="B265" t="s">
-        <v>467</v>
+        <v>676</v>
       </c>
     </row>
     <row r="266" spans="2:2">
       <c r="B266" t="s">
-        <v>646</v>
+        <v>467</v>
       </c>
     </row>
     <row r="267" spans="2:2">
       <c r="B267" t="s">
-        <v>469</v>
+        <v>649</v>
       </c>
     </row>
     <row r="268" spans="2:2">
       <c r="B268" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="269" spans="2:2">
       <c r="B269" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="270" spans="2:2">
       <c r="B270" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" t="s">
-        <v>649</v>
+        <v>475</v>
       </c>
     </row>
     <row r="272" spans="2:2">
       <c r="B272" t="s">
-        <v>477</v>
+        <v>652</v>
       </c>
     </row>
     <row r="273" spans="2:2">
       <c r="B273" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="274" spans="2:2">
       <c r="B274" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="276" spans="2:2">
       <c r="B276" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="277" spans="2:2">
       <c r="B277" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="278" spans="2:2">
       <c r="B278" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="279" spans="2:2">
       <c r="B279" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="280" spans="2:2">
       <c r="B280" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="281" spans="2:2">
       <c r="B281" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="282" spans="2:2">
       <c r="B282" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="284" spans="2:2">
       <c r="B284" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="285" spans="2:2">
       <c r="B285" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="286" spans="2:2">
       <c r="B286" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="287" spans="2:2">
       <c r="B287" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="288" spans="2:2">
       <c r="B288" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="289" spans="2:2">
       <c r="B289" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="290" spans="2:2">
       <c r="B290" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="291" spans="2:2">
       <c r="B291" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="292" spans="2:2">
       <c r="B292" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="293" spans="2:2">
       <c r="B293" t="s">
-        <v>651</v>
+        <v>517</v>
       </c>
     </row>
     <row r="294" spans="2:2">
       <c r="B294" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="295" spans="2:2">
@@ -9402,131 +9428,136 @@
     </row>
     <row r="296" spans="2:2">
       <c r="B296" t="s">
-        <v>519</v>
+        <v>659</v>
       </c>
     </row>
     <row r="297" spans="2:2">
       <c r="B297" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="298" spans="2:2">
       <c r="B298" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="299" spans="2:2">
       <c r="B299" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="300" spans="2:2">
       <c r="B300" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="301" spans="2:2">
       <c r="B301" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="302" spans="2:2">
       <c r="B302" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="303" spans="2:2">
       <c r="B303" t="s">
-        <v>658</v>
+        <v>531</v>
       </c>
     </row>
     <row r="304" spans="2:2">
       <c r="B304" t="s">
-        <v>533</v>
+        <v>661</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="B305" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="B306" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="B307" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="B308" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="B309" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="B310" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="B311" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="B312" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="B313" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
-      <c r="A314" t="s">
-        <v>678</v>
-      </c>
-      <c r="B314" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" t="s">
-        <v>679</v>
-      </c>
-      <c r="B316" t="s">
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>681</v>
+      </c>
+      <c r="B315" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>682</v>
+      </c>
+      <c r="B317" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
-      <c r="B317" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" t="s">
-        <v>680</v>
-      </c>
-      <c r="B319" t="s">
+    <row r="318" spans="1:2">
+      <c r="B318" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>683</v>
+      </c>
+      <c r="B320" t="s">
         <v>579</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="B320" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="321" spans="2:2">
       <c r="B321" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="322" spans="2:2">
       <c r="B322" t="s">
-        <v>607</v>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>

--- a/pdb/nsp3/SARS-CoV-2/domains_and_infos_of_nsp3.xlsx
+++ b/pdb/nsp3/SARS-CoV-2/domains_and_infos_of_nsp3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="687">
   <si>
     <t>PDB</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>2020-10-02</t>
+  </si>
+  <si>
+    <t>7qg7</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 MACRODOMAIN NSP3B BOUND TO THE REMDESIVIR NUCLEOSIDE GS- 441524</t>
+  </si>
+  <si>
+    <t>2021-12-07</t>
   </si>
   <si>
     <t>7bf3</t>
@@ -2404,7 +2413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E265"/>
+  <dimension ref="A1:E266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2471,7 +2480,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -2488,7 +2497,7 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1.08</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -2505,7 +2514,7 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -2514,18 +2523,18 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -2536,13 +2545,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -2553,19 +2562,19 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2573,7 +2582,7 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>1.19</v>
+        <v>2.2</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -2582,35 +2591,35 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -2621,13 +2630,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -2638,13 +2647,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -2655,13 +2664,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -2672,81 +2681,81 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -2757,19 +2766,19 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21">
-        <v>2.64</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2777,7 +2786,7 @@
         <v>52</v>
       </c>
       <c r="B22">
-        <v>1.04</v>
+        <v>2.64</v>
       </c>
       <c r="C22" t="s">
         <v>53</v>
@@ -2786,24 +2795,24 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2811,7 +2820,7 @@
         <v>57</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="C24" t="s">
         <v>58</v>
@@ -2820,52 +2829,52 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -2876,121 +2885,121 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B31">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B34">
-        <v>1.35</v>
+        <v>1.09</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2998,7 +3007,7 @@
         <v>80</v>
       </c>
       <c r="B35">
-        <v>1.11</v>
+        <v>1.35</v>
       </c>
       <c r="C35" t="s">
         <v>81</v>
@@ -3007,52 +3016,52 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36">
-        <v>1.46</v>
+        <v>1.11</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>1.46</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B38">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -3063,47 +3072,47 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39">
-        <v>1.08</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B40">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -3114,13 +3123,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -3131,47 +3140,47 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B43">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -3182,13 +3191,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -3199,274 +3208,274 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B47">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B48">
         <v>1.13</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B49">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B51">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B52">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="C53" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B54">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B55">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B56">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="C57" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B58">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B59">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B60">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="C60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B61">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="C61" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B62">
-        <v>2.2</v>
+        <v>1.19</v>
       </c>
       <c r="C62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3474,7 +3483,7 @@
         <v>137</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="C63" t="s">
         <v>138</v>
@@ -3483,69 +3492,69 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B64">
-        <v>1.26</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B65">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B66">
-        <v>1.52</v>
+        <v>1.08</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B67">
-        <v>1.03</v>
+        <v>1.52</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -3556,13 +3565,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B68">
-        <v>1.26</v>
+        <v>1.03</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -3573,64 +3582,64 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B69">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="C69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B70">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B71">
-        <v>0.98</v>
+        <v>1.14</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="C72" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -3641,172 +3650,172 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B73">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="C74" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B75">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B76">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="C76" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B77">
         <v>1.09</v>
       </c>
       <c r="C77" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B78">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="C78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B80">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B81">
-        <v>2.16</v>
+        <v>1.16</v>
       </c>
       <c r="C81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B82">
-        <v>1.55</v>
+        <v>2.16</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3814,7 +3823,7 @@
         <v>178</v>
       </c>
       <c r="B83">
-        <v>1.19</v>
+        <v>1.55</v>
       </c>
       <c r="C83" t="s">
         <v>179</v>
@@ -3823,35 +3832,35 @@
         <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="C84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -3862,19 +3871,19 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B86">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3882,7 +3891,7 @@
         <v>187</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C87" t="s">
         <v>188</v>
@@ -3891,18 +3900,18 @@
         <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B88">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -3913,13 +3922,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="C89" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -3930,87 +3939,87 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B90">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="C91" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B92">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B93">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="C93" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B94">
-        <v>3.83</v>
+        <v>1.09</v>
       </c>
       <c r="C94" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
       </c>
       <c r="E94" t="s">
-        <v>203</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4018,7 +4027,7 @@
         <v>204</v>
       </c>
       <c r="B95">
-        <v>1.11</v>
+        <v>3.83</v>
       </c>
       <c r="C95" t="s">
         <v>205</v>
@@ -4027,120 +4036,120 @@
         <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>17</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B96">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="C96" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B97">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="C97" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B98">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="C98" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B99">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="C99" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B100">
         <v>1.09</v>
       </c>
       <c r="C100" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
       </c>
       <c r="E100" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="C101" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -4151,13 +4160,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B103">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -4168,19 +4177,19 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B104">
-        <v>1.45</v>
+        <v>1.04</v>
       </c>
       <c r="C104" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
       </c>
       <c r="E104" t="s">
-        <v>224</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4188,7 +4197,7 @@
         <v>225</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="C105" t="s">
         <v>226</v>
@@ -4197,18 +4206,18 @@
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -4219,64 +4228,64 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B107">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B108">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="C108" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="C109" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
@@ -4287,19 +4296,19 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B111">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>239</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4307,7 +4316,7 @@
         <v>240</v>
       </c>
       <c r="B112">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="C112" t="s">
         <v>241</v>
@@ -4324,7 +4333,7 @@
         <v>243</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="C113" t="s">
         <v>244</v>
@@ -4333,143 +4342,143 @@
         <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B114">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B115">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="C115" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
       </c>
       <c r="E115" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B116">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="C116" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B117">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="C117" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B118">
-        <v>2.5</v>
+        <v>1.01</v>
       </c>
       <c r="C118" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B119">
-        <v>1.18</v>
+        <v>2.5</v>
       </c>
       <c r="C119" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D119" t="s">
         <v>7</v>
       </c>
       <c r="E119" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B120">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="C120" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
       </c>
       <c r="E120" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B121">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="C121" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D121" t="s">
         <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4477,7 +4486,7 @@
         <v>262</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C122" t="s">
         <v>263</v>
@@ -4486,18 +4495,18 @@
         <v>7</v>
       </c>
       <c r="E122" t="s">
-        <v>8</v>
+        <v>264</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D123" t="s">
         <v>7</v>
@@ -4508,64 +4517,64 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B124">
-        <v>1.26</v>
+        <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B125">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="C125" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D125" t="s">
         <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="C126" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D126" t="s">
         <v>7</v>
       </c>
       <c r="E126" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D127" t="s">
         <v>7</v>
@@ -4576,13 +4585,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B128">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D128" t="s">
         <v>7</v>
@@ -4593,47 +4602,47 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B129">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="C129" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D129" t="s">
         <v>7</v>
       </c>
       <c r="E129" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="C130" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D130" t="s">
         <v>7</v>
       </c>
       <c r="E130" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D131" t="s">
         <v>7</v>
@@ -4644,13 +4653,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D132" t="s">
         <v>7</v>
@@ -4661,13 +4670,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D133" t="s">
         <v>7</v>
@@ -4678,81 +4687,81 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B134">
-        <v>1.52</v>
+        <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D134" t="s">
         <v>7</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B135">
-        <v>1.08</v>
+        <v>1.52</v>
       </c>
       <c r="C135" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D135" t="s">
         <v>7</v>
       </c>
       <c r="E135" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B136">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="C136" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
       </c>
       <c r="E136" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="C137" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D137" t="s">
         <v>7</v>
       </c>
       <c r="E137" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
@@ -4763,81 +4772,81 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B139">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D139" t="s">
         <v>7</v>
       </c>
       <c r="E139" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="C140" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D140" t="s">
         <v>7</v>
       </c>
       <c r="E140" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B141">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D141" t="s">
         <v>7</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B142">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="C142" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D142" t="s">
         <v>7</v>
       </c>
       <c r="E142" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="C143" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
@@ -4848,13 +4857,13 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D144" t="s">
         <v>7</v>
@@ -4865,13 +4874,13 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D145" t="s">
         <v>7</v>
@@ -4882,13 +4891,13 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>146</v>
+        <v>311</v>
       </c>
       <c r="D146" t="s">
         <v>7</v>
@@ -4899,13 +4908,13 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B147">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>311</v>
+        <v>149</v>
       </c>
       <c r="D147" t="s">
         <v>7</v>
@@ -4916,70 +4925,70 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B148">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="C148" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D148" t="s">
         <v>7</v>
       </c>
       <c r="E148" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B149">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="C149" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D149" t="s">
         <v>7</v>
       </c>
       <c r="E149" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B150">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="C150" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D150" t="s">
         <v>7</v>
       </c>
       <c r="E150" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B151">
-        <v>1.55</v>
+        <v>1.12</v>
       </c>
       <c r="C151" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D151" t="s">
         <v>7</v>
       </c>
       <c r="E151" t="s">
-        <v>320</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4987,7 +4996,7 @@
         <v>321</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="C152" t="s">
         <v>322</v>
@@ -4996,18 +5005,18 @@
         <v>7</v>
       </c>
       <c r="E152" t="s">
-        <v>8</v>
+        <v>323</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D153" t="s">
         <v>7</v>
@@ -5018,115 +5027,115 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B154">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D154" t="s">
         <v>7</v>
       </c>
       <c r="E154" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B155">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="C155" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D155" t="s">
         <v>7</v>
       </c>
       <c r="E155" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B156">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="C156" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D156" t="s">
         <v>7</v>
       </c>
       <c r="E156" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="C157" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D157" t="s">
         <v>7</v>
       </c>
       <c r="E157" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B158">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D158" t="s">
         <v>7</v>
       </c>
       <c r="E158" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="C159" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D159" t="s">
         <v>7</v>
       </c>
       <c r="E159" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D160" t="s">
         <v>7</v>
@@ -5137,47 +5146,47 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B161">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D161" t="s">
         <v>7</v>
       </c>
       <c r="E161" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B162">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="C162" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D162" t="s">
         <v>7</v>
       </c>
       <c r="E162" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="C163" t="s">
-        <v>53</v>
+        <v>345</v>
       </c>
       <c r="D163" t="s">
         <v>7</v>
@@ -5188,19 +5197,19 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B164">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>345</v>
+        <v>56</v>
       </c>
       <c r="D164" t="s">
         <v>7</v>
       </c>
       <c r="E164" t="s">
-        <v>346</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5208,7 +5217,7 @@
         <v>347</v>
       </c>
       <c r="B165">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="C165" t="s">
         <v>348</v>
@@ -5217,35 +5226,35 @@
         <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>17</v>
+        <v>349</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="C166" t="s">
-        <v>144</v>
+        <v>351</v>
       </c>
       <c r="D166" t="s">
         <v>7</v>
       </c>
       <c r="E166" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>351</v>
+        <v>147</v>
       </c>
       <c r="D167" t="s">
         <v>7</v>
@@ -5256,13 +5265,13 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D168" t="s">
         <v>7</v>
@@ -5273,47 +5282,47 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B169">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D169" t="s">
         <v>7</v>
       </c>
       <c r="E169" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="C170" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D170" t="s">
         <v>7</v>
       </c>
       <c r="E170" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D171" t="s">
         <v>7</v>
@@ -5324,47 +5333,47 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B172">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D172" t="s">
         <v>7</v>
       </c>
       <c r="E172" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="C173" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D173" t="s">
         <v>7</v>
       </c>
       <c r="E173" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
@@ -5375,87 +5384,87 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B175">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
       </c>
       <c r="E175" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="C176" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D176" t="s">
         <v>7</v>
       </c>
       <c r="E176" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B177">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D177" t="s">
         <v>7</v>
       </c>
       <c r="E177" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B178">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="C178" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D178" t="s">
         <v>7</v>
       </c>
       <c r="E178" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B179">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="C179" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D179" t="s">
         <v>7</v>
       </c>
       <c r="E179" t="s">
-        <v>376</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5463,7 +5472,7 @@
         <v>377</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="C180" t="s">
         <v>378</v>
@@ -5472,18 +5481,18 @@
         <v>7</v>
       </c>
       <c r="E180" t="s">
-        <v>8</v>
+        <v>379</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D181" t="s">
         <v>7</v>
@@ -5494,47 +5503,47 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B182">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D182" t="s">
         <v>7</v>
       </c>
       <c r="E182" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="C183" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D183" t="s">
         <v>7</v>
       </c>
       <c r="E183" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D184" t="s">
         <v>7</v>
@@ -5545,19 +5554,19 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B185">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D185" t="s">
         <v>7</v>
       </c>
       <c r="E185" t="s">
-        <v>389</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5565,180 +5574,180 @@
         <v>390</v>
       </c>
       <c r="B186">
-        <v>1.06</v>
+        <v>0.96</v>
       </c>
       <c r="C186" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D186" t="s">
         <v>7</v>
       </c>
       <c r="E186" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
+        <v>393</v>
+      </c>
+      <c r="B187">
+        <v>1.06</v>
+      </c>
+      <c r="C187" t="s">
         <v>391</v>
       </c>
-      <c r="B187">
-        <v>1.18</v>
-      </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" t="s">
         <v>392</v>
-      </c>
-      <c r="D187" t="s">
-        <v>7</v>
-      </c>
-      <c r="E187" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B188">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="C188" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D188" t="s">
         <v>7</v>
       </c>
       <c r="E188" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B189">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="C189" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D189" t="s">
         <v>7</v>
       </c>
       <c r="E189" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B190">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="C190" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D190" t="s">
         <v>7</v>
       </c>
       <c r="E190" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B191">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="C191" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D191" t="s">
         <v>7</v>
       </c>
       <c r="E191" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B192">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="C192" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D192" t="s">
         <v>7</v>
       </c>
       <c r="E192" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="C193" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D193" t="s">
         <v>7</v>
       </c>
       <c r="E193" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B194">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D194" t="s">
         <v>7</v>
       </c>
       <c r="E194" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="C195" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D195" t="s">
         <v>7</v>
       </c>
       <c r="E195" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D196" t="s">
         <v>7</v>
@@ -5749,19 +5758,19 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B197">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D197" t="s">
         <v>7</v>
       </c>
       <c r="E197" t="s">
-        <v>413</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5769,7 +5778,7 @@
         <v>414</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="C198" t="s">
         <v>415</v>
@@ -5778,52 +5787,52 @@
         <v>7</v>
       </c>
       <c r="E198" t="s">
-        <v>8</v>
+        <v>416</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B199">
-        <v>2.15</v>
+        <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D199" t="s">
         <v>7</v>
       </c>
       <c r="E199" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>2.15</v>
       </c>
       <c r="C200" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D200" t="s">
         <v>7</v>
       </c>
       <c r="E200" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B201">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D201" t="s">
         <v>7</v>
@@ -5834,13 +5843,13 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="C202" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D202" t="s">
         <v>7</v>
@@ -5851,13 +5860,13 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B203">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D203" t="s">
         <v>7</v>
@@ -5868,13 +5877,13 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B204">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="C204" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D204" t="s">
         <v>7</v>
@@ -5885,149 +5894,149 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B205">
-        <v>2.05</v>
+        <v>1.05</v>
       </c>
       <c r="C205" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D205" t="s">
         <v>7</v>
       </c>
       <c r="E205" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>2.05</v>
       </c>
       <c r="C206" t="s">
-        <v>148</v>
+        <v>432</v>
       </c>
       <c r="D206" t="s">
         <v>7</v>
       </c>
       <c r="E206" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B207">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>432</v>
+        <v>151</v>
       </c>
       <c r="D207" t="s">
         <v>7</v>
       </c>
       <c r="E207" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B208">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="C208" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D208" t="s">
         <v>7</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="C209" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D209" t="s">
         <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B210">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D210" t="s">
         <v>7</v>
       </c>
       <c r="E210" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B211">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="C211" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D211" t="s">
         <v>7</v>
       </c>
       <c r="E211" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="C212" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D212" t="s">
         <v>7</v>
       </c>
       <c r="E212" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B213">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D213" t="s">
         <v>7</v>
@@ -6038,121 +6047,121 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B214">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="C214" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D214" t="s">
         <v>7</v>
       </c>
       <c r="E214" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="C215" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D215" t="s">
         <v>7</v>
       </c>
       <c r="E215" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B216">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D216" t="s">
         <v>7</v>
       </c>
       <c r="E216" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="C217" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D217" t="s">
         <v>7</v>
       </c>
       <c r="E217" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B218">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D218" t="s">
         <v>7</v>
       </c>
       <c r="E218" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B219">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="C219" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D219" t="s">
         <v>7</v>
       </c>
       <c r="E219" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B220">
-        <v>2.03</v>
+        <v>1.17</v>
       </c>
       <c r="C220" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D220" t="s">
         <v>7</v>
       </c>
       <c r="E220" t="s">
-        <v>459</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6160,7 +6169,7 @@
         <v>460</v>
       </c>
       <c r="B221">
-        <v>1.06</v>
+        <v>2.03</v>
       </c>
       <c r="C221" t="s">
         <v>461</v>
@@ -6169,24 +6178,24 @@
         <v>7</v>
       </c>
       <c r="E221" t="s">
-        <v>17</v>
+        <v>462</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>1.06</v>
       </c>
       <c r="C222" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D222" t="s">
         <v>7</v>
       </c>
       <c r="E222" t="s">
-        <v>464</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6194,7 +6203,7 @@
         <v>465</v>
       </c>
       <c r="B223">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="C223" t="s">
         <v>466</v>
@@ -6203,171 +6212,171 @@
         <v>7</v>
       </c>
       <c r="E223" t="s">
-        <v>17</v>
+        <v>467</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="C224" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D224" t="s">
         <v>7</v>
       </c>
       <c r="E224" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B225">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D225" t="s">
         <v>7</v>
       </c>
       <c r="E225" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B226">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="C226" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D226" t="s">
         <v>7</v>
       </c>
       <c r="E226" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B227">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="C227" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D227" t="s">
         <v>7</v>
       </c>
       <c r="E227" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B228">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="C228" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D228" t="s">
         <v>7</v>
       </c>
       <c r="E228" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B229">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="C229" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D229" t="s">
         <v>7</v>
       </c>
       <c r="E229" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B230">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="C230" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D230" t="s">
         <v>7</v>
       </c>
       <c r="E230" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B231">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="C231" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D231" t="s">
         <v>7</v>
       </c>
       <c r="E231" t="s">
-        <v>413</v>
+        <v>20</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B232">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="C232" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D232" t="s">
         <v>7</v>
       </c>
       <c r="E232" t="s">
-        <v>8</v>
+        <v>416</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="C233" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D233" t="s">
         <v>7</v>
@@ -6378,421 +6387,421 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B234">
-        <v>1.28</v>
+        <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D234" t="s">
         <v>7</v>
       </c>
       <c r="E234" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B235">
-        <v>1</v>
+        <v>1.28</v>
       </c>
       <c r="C235" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D235" t="s">
         <v>7</v>
       </c>
       <c r="E235" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B236">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D236" t="s">
         <v>7</v>
       </c>
       <c r="E236" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B237">
-        <v>0.77</v>
+        <v>0.99</v>
       </c>
       <c r="C237" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D237" t="s">
         <v>7</v>
       </c>
       <c r="E237" t="s">
-        <v>320</v>
+        <v>20</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B238">
-        <v>1.06</v>
+        <v>0.77</v>
       </c>
       <c r="C238" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D238" t="s">
         <v>7</v>
       </c>
       <c r="E238" t="s">
-        <v>8</v>
+        <v>323</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B239">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="C239" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D239" t="s">
         <v>7</v>
       </c>
       <c r="E239" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B240">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="C240" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D240" t="s">
         <v>7</v>
       </c>
       <c r="E240" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B241">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="C241" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D241" t="s">
         <v>7</v>
       </c>
       <c r="E241" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="C242" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D242" t="s">
         <v>7</v>
       </c>
       <c r="E242" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B243">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D243" t="s">
         <v>7</v>
       </c>
       <c r="E243" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="C244" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D244" t="s">
         <v>7</v>
       </c>
       <c r="E244" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B245">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D245" t="s">
         <v>7</v>
       </c>
       <c r="E245" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="C246" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D246" t="s">
         <v>7</v>
       </c>
       <c r="E246" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B247">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D247" t="s">
         <v>7</v>
       </c>
       <c r="E247" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B248">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="C248" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D248" t="s">
         <v>7</v>
       </c>
       <c r="E248" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B249">
-        <v>1.55</v>
+        <v>1.04</v>
       </c>
       <c r="C249" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D249" t="s">
         <v>7</v>
       </c>
       <c r="E249" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B250">
-        <v>1.05</v>
+        <v>1.55</v>
       </c>
       <c r="C250" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D250" t="s">
         <v>7</v>
       </c>
       <c r="E250" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B251">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="C251" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D251" t="s">
         <v>7</v>
       </c>
       <c r="E251" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="C252" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D252" t="s">
         <v>7</v>
       </c>
       <c r="E252" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B253">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D253" t="s">
         <v>7</v>
       </c>
       <c r="E253" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B254">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="C254" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D254" t="s">
         <v>7</v>
       </c>
       <c r="E254" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B255">
-        <v>1.31</v>
+        <v>1.08</v>
       </c>
       <c r="C255" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D255" t="s">
         <v>7</v>
       </c>
       <c r="E255" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B256">
-        <v>1.07</v>
+        <v>1.31</v>
       </c>
       <c r="C256" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D256" t="s">
         <v>7</v>
       </c>
       <c r="E256" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="C257" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D257" t="s">
         <v>7</v>
       </c>
       <c r="E257" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B258">
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D258" t="s">
         <v>7</v>
@@ -6803,64 +6812,64 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B259">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D259" t="s">
         <v>7</v>
       </c>
       <c r="E259" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B260">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="C260" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D260" t="s">
         <v>7</v>
       </c>
       <c r="E260" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B261">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="C261" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D261" t="s">
         <v>7</v>
       </c>
       <c r="E261" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B262">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D262" t="s">
         <v>7</v>
@@ -6871,19 +6880,19 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B263">
-        <v>2.3</v>
+        <v>1.02</v>
       </c>
       <c r="C263" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D263" t="s">
         <v>7</v>
       </c>
       <c r="E263" t="s">
-        <v>547</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6891,7 +6900,7 @@
         <v>548</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="C264" t="s">
         <v>549</v>
@@ -6900,23 +6909,40 @@
         <v>7</v>
       </c>
       <c r="E264" t="s">
-        <v>8</v>
+        <v>550</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B265">
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D265" t="s">
         <v>7</v>
       </c>
       <c r="E265" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>553</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266" t="s">
+        <v>554</v>
+      </c>
+      <c r="D266" t="s">
+        <v>7</v>
+      </c>
+      <c r="E266" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6957,699 +6983,699 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B2">
         <v>2.72</v>
       </c>
       <c r="C2" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B3">
         <v>2.02</v>
       </c>
       <c r="C3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B5">
         <v>2.7</v>
       </c>
       <c r="C5" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B6">
         <v>2.09</v>
       </c>
       <c r="C6" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B7">
         <v>2.59</v>
       </c>
       <c r="C7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B8">
         <v>1.9</v>
       </c>
       <c r="C8" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B9">
         <v>2.2</v>
       </c>
       <c r="C9" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B10">
         <v>2.79</v>
       </c>
       <c r="C10" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B11">
         <v>2.98</v>
       </c>
       <c r="C11" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B12">
         <v>1.95</v>
       </c>
       <c r="C12" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B13">
         <v>1.79</v>
       </c>
       <c r="C13" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B14">
         <v>2.11</v>
       </c>
       <c r="C14" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B15">
         <v>2.7</v>
       </c>
       <c r="C15" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B16">
         <v>1.6</v>
       </c>
       <c r="C16" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B17">
         <v>2.4</v>
       </c>
       <c r="C17" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B18">
         <v>2.9</v>
       </c>
       <c r="C18" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B19">
         <v>2.58</v>
       </c>
       <c r="C19" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B20">
         <v>1.9</v>
       </c>
       <c r="C20" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B22">
         <v>1.79</v>
       </c>
       <c r="C22" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B23">
         <v>1.88</v>
       </c>
       <c r="C23" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B24">
         <v>1.6</v>
       </c>
       <c r="C24" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B25">
         <v>2.9</v>
       </c>
       <c r="C25" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B26">
         <v>1.95</v>
       </c>
       <c r="C26" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B27">
         <v>2.9</v>
       </c>
       <c r="C27" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B28">
         <v>2.48</v>
       </c>
       <c r="C28" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B29">
         <v>3.2</v>
       </c>
       <c r="C29" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B30">
         <v>1.93</v>
       </c>
       <c r="C30" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B31">
         <v>2.72</v>
       </c>
       <c r="C31" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B32">
         <v>1.97</v>
       </c>
       <c r="C32" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B33">
         <v>2.3</v>
       </c>
       <c r="C33" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B34">
         <v>1.95</v>
       </c>
       <c r="C34" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B35">
         <v>2.04</v>
       </c>
       <c r="C35" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B36">
         <v>1.66</v>
       </c>
       <c r="C36" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B37">
         <v>2.48</v>
       </c>
       <c r="C37" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B39">
         <v>2.8</v>
       </c>
       <c r="C39" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B40">
         <v>2.5</v>
       </c>
       <c r="C40" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B41">
         <v>2.02</v>
       </c>
       <c r="C41" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B42">
         <v>2.05</v>
       </c>
       <c r="C42" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -7689,19 +7715,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B2">
         <v>2.45</v>
       </c>
       <c r="C2" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -7741,19 +7767,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B2">
         <v>3.18</v>
       </c>
       <c r="C2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -7793,36 +7819,36 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B2">
         <v>0.93</v>
       </c>
       <c r="C2" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B3">
         <v>2.3</v>
       </c>
       <c r="C3" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -7862,19 +7888,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B2">
         <v>2.17</v>
       </c>
       <c r="C2" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -7914,19 +7940,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B2">
         <v>3.21</v>
       </c>
       <c r="C2" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -7936,7 +7962,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B323"/>
+  <dimension ref="A1:B324"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7947,12 +7973,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -7960,7 +7986,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -7988,102 +8014,102 @@
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>552</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>555</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>27</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>558</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>561</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>37</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>564</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>41</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:2">
@@ -8093,7 +8119,7 @@
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="2:2">
@@ -8103,227 +8129,227 @@
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>567</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>77</v>
+        <v>570</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>663</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>80</v>
+        <v>666</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>666</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>92</v>
+        <v>669</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>570</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>96</v>
+        <v>573</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>573</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>122</v>
+        <v>576</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>576</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>128</v>
+        <v>579</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>579</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>134</v>
+        <v>582</v>
       </c>
     </row>
     <row r="76" spans="2:2">
@@ -8333,112 +8359,112 @@
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>582</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>151</v>
+        <v>585</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>585</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>163</v>
+        <v>588</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>588</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>169</v>
+        <v>591</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99" spans="2:2">
@@ -8448,17 +8474,17 @@
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" spans="2:2">
@@ -8468,37 +8494,37 @@
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="2:2">
@@ -8508,57 +8534,57 @@
     </row>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>669</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>590</v>
+        <v>672</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>216</v>
+        <v>593</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="123" spans="2:2">
@@ -8568,42 +8594,42 @@
     </row>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>593</v>
+        <v>236</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" t="s">
-        <v>235</v>
+        <v>596</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>595</v>
+        <v>238</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>237</v>
+        <v>598</v>
       </c>
     </row>
     <row r="132" spans="2:2">
@@ -8618,52 +8644,52 @@
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" t="s">
-        <v>598</v>
+        <v>248</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>247</v>
+        <v>601</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" t="s">
-        <v>600</v>
+        <v>252</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>251</v>
+        <v>603</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="144" spans="2:2">
@@ -8673,187 +8699,187 @@
     </row>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>602</v>
+        <v>267</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" t="s">
-        <v>266</v>
+        <v>605</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" t="s">
-        <v>604</v>
+        <v>273</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>272</v>
+        <v>607</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" t="s">
-        <v>607</v>
+        <v>287</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" t="s">
-        <v>286</v>
+        <v>610</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" t="s">
-        <v>673</v>
+        <v>293</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
-        <v>292</v>
+        <v>676</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" t="s">
-        <v>610</v>
+        <v>303</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" t="s">
-        <v>302</v>
+        <v>613</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>612</v>
+        <v>307</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" t="s">
-        <v>305</v>
+        <v>615</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" t="s">
-        <v>615</v>
+        <v>310</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" t="s">
-        <v>309</v>
+        <v>618</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" t="s">
-        <v>618</v>
+        <v>312</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>310</v>
+        <v>621</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="182" spans="2:2">
@@ -8863,72 +8889,72 @@
     </row>
     <row r="183" spans="2:2">
       <c r="B183" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" t="s">
-        <v>620</v>
+        <v>334</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" t="s">
-        <v>333</v>
+        <v>623</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" t="s">
-        <v>623</v>
+        <v>347</v>
       </c>
     </row>
     <row r="197" spans="2:2">
@@ -8938,82 +8964,82 @@
     </row>
     <row r="198" spans="2:2">
       <c r="B198" t="s">
-        <v>347</v>
+        <v>629</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>629</v>
+        <v>353</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" t="s">
-        <v>352</v>
+        <v>632</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" t="s">
-        <v>632</v>
+        <v>355</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" t="s">
-        <v>354</v>
+        <v>635</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" t="s">
-        <v>635</v>
+        <v>373</v>
       </c>
     </row>
     <row r="214" spans="2:2">
@@ -9023,12 +9049,12 @@
     </row>
     <row r="215" spans="2:2">
       <c r="B215" t="s">
-        <v>372</v>
+        <v>641</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="217" spans="2:2">
@@ -9038,27 +9064,27 @@
     </row>
     <row r="218" spans="2:2">
       <c r="B218" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="223" spans="2:2">
@@ -9068,67 +9094,67 @@
     </row>
     <row r="224" spans="2:2">
       <c r="B224" t="s">
-        <v>671</v>
+        <v>393</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225" t="s">
-        <v>391</v>
+        <v>674</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="227" spans="2:2">
       <c r="B227" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" t="s">
-        <v>641</v>
+        <v>402</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" t="s">
-        <v>401</v>
+        <v>644</v>
       </c>
     </row>
     <row r="232" spans="2:2">
       <c r="B232" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="234" spans="2:2">
       <c r="B234" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="237" spans="2:2">
@@ -9138,122 +9164,122 @@
     </row>
     <row r="238" spans="2:2">
       <c r="B238" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" t="s">
-        <v>643</v>
+        <v>423</v>
       </c>
     </row>
     <row r="242" spans="2:2">
       <c r="B242" t="s">
-        <v>422</v>
+        <v>646</v>
       </c>
     </row>
     <row r="243" spans="2:2">
       <c r="B243" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="244" spans="2:2">
       <c r="B244" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="245" spans="2:2">
       <c r="B245" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246" t="s">
-        <v>646</v>
+        <v>431</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" t="s">
-        <v>430</v>
+        <v>649</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="249" spans="2:2">
       <c r="B249" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="257" spans="2:2">
       <c r="B257" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="258" spans="2:2">
       <c r="B258" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="259" spans="2:2">
       <c r="B259" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="260" spans="2:2">
       <c r="B260" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="262" spans="2:2">
@@ -9263,7 +9289,7 @@
     </row>
     <row r="263" spans="2:2">
       <c r="B263" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="264" spans="2:2">
@@ -9273,157 +9299,157 @@
     </row>
     <row r="265" spans="2:2">
       <c r="B265" t="s">
-        <v>676</v>
+        <v>468</v>
       </c>
     </row>
     <row r="266" spans="2:2">
       <c r="B266" t="s">
-        <v>467</v>
+        <v>679</v>
       </c>
     </row>
     <row r="267" spans="2:2">
       <c r="B267" t="s">
-        <v>649</v>
+        <v>470</v>
       </c>
     </row>
     <row r="268" spans="2:2">
       <c r="B268" t="s">
-        <v>469</v>
+        <v>652</v>
       </c>
     </row>
     <row r="269" spans="2:2">
       <c r="B269" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="270" spans="2:2">
       <c r="B270" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="272" spans="2:2">
       <c r="B272" t="s">
-        <v>652</v>
+        <v>478</v>
       </c>
     </row>
     <row r="273" spans="2:2">
       <c r="B273" t="s">
-        <v>477</v>
+        <v>655</v>
       </c>
     </row>
     <row r="274" spans="2:2">
       <c r="B274" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="276" spans="2:2">
       <c r="B276" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="277" spans="2:2">
       <c r="B277" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="278" spans="2:2">
       <c r="B278" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="279" spans="2:2">
       <c r="B279" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="280" spans="2:2">
       <c r="B280" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="281" spans="2:2">
       <c r="B281" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="282" spans="2:2">
       <c r="B282" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="284" spans="2:2">
       <c r="B284" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="285" spans="2:2">
       <c r="B285" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="286" spans="2:2">
       <c r="B286" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="287" spans="2:2">
       <c r="B287" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="288" spans="2:2">
       <c r="B288" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="289" spans="2:2">
       <c r="B289" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="290" spans="2:2">
       <c r="B290" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="291" spans="2:2">
       <c r="B291" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="292" spans="2:2">
       <c r="B292" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="293" spans="2:2">
       <c r="B293" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="294" spans="2:2">
       <c r="B294" t="s">
-        <v>654</v>
+        <v>520</v>
       </c>
     </row>
     <row r="295" spans="2:2">
       <c r="B295" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="296" spans="2:2">
@@ -9433,77 +9459,77 @@
     </row>
     <row r="297" spans="2:2">
       <c r="B297" t="s">
-        <v>519</v>
+        <v>662</v>
       </c>
     </row>
     <row r="298" spans="2:2">
       <c r="B298" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="299" spans="2:2">
       <c r="B299" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="300" spans="2:2">
       <c r="B300" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="301" spans="2:2">
       <c r="B301" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="302" spans="2:2">
       <c r="B302" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="303" spans="2:2">
       <c r="B303" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="304" spans="2:2">
       <c r="B304" t="s">
-        <v>661</v>
+        <v>534</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="B305" t="s">
-        <v>533</v>
+        <v>664</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="B306" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="B307" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="B308" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="B309" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="B310" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="B311" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -9513,51 +9539,56 @@
     </row>
     <row r="313" spans="1:2">
       <c r="B313" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" t="s">
-        <v>681</v>
-      </c>
-      <c r="B315" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" t="s">
-        <v>682</v>
-      </c>
-      <c r="B317" t="s">
-        <v>576</v>
+        <v>551</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="B314" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>684</v>
+      </c>
+      <c r="B316" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>685</v>
+      </c>
       <c r="B318" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" t="s">
-        <v>683</v>
-      </c>
-      <c r="B320" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="321" spans="2:2">
+    <row r="319" spans="1:2">
+      <c r="B319" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>686</v>
+      </c>
       <c r="B321" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="322" spans="2:2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
       <c r="B322" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="323" spans="2:2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
       <c r="B323" t="s">
-        <v>610</v>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="B324" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>

--- a/pdb/nsp3/SARS-CoV-2/domains_and_infos_of_nsp3.xlsx
+++ b/pdb/nsp3/SARS-CoV-2/domains_and_infos_of_nsp3.xlsx
@@ -9,19 +9,20 @@
   <sheets>
     <sheet name="nsp3_Macro1" sheetId="1" r:id="rId1"/>
     <sheet name="nsp3_PL2pro" sheetId="2" r:id="rId2"/>
-    <sheet name="nsp3_NAB" sheetId="3" r:id="rId3"/>
-    <sheet name="nsp3_Ubl2" sheetId="4" r:id="rId4"/>
-    <sheet name="nsp3_pred_linker-Ecto-TM2" sheetId="5" r:id="rId5"/>
-    <sheet name="nsp3_Y3" sheetId="6" r:id="rId6"/>
-    <sheet name="nsp3_Ubl1" sheetId="7" r:id="rId7"/>
-    <sheet name="Organisms" sheetId="8" r:id="rId8"/>
+    <sheet name="nsp3_pred_betaSM" sheetId="3" r:id="rId3"/>
+    <sheet name="nsp3_NAB" sheetId="4" r:id="rId4"/>
+    <sheet name="nsp3_Ubl2" sheetId="5" r:id="rId5"/>
+    <sheet name="nsp3_pred_linker-Ecto-TM2" sheetId="6" r:id="rId6"/>
+    <sheet name="nsp3_Y3" sheetId="7" r:id="rId7"/>
+    <sheet name="nsp3_Ubl1" sheetId="8" r:id="rId8"/>
+    <sheet name="Organisms" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="690">
   <si>
     <t>PDB</t>
   </si>
@@ -2019,6 +2020,15 @@
   </si>
   <si>
     <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 , C111S MUTANT, IN COMPLEX WITH PLP_SNYDER530 INHIBITOR</t>
+  </si>
+  <si>
+    <t>7t9w</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF THE NSP3 BSM (BETACORONAVIRUS-SPECIFIC MARKER) DOMAIN FROM SARS-COV-2</t>
+  </si>
+  <si>
+    <t>2021-12-20</t>
   </si>
   <si>
     <t>7lgo</t>
@@ -7718,7 +7728,7 @@
         <v>666</v>
       </c>
       <c r="B2">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="C2" t="s">
         <v>667</v>
@@ -7770,7 +7780,7 @@
         <v>669</v>
       </c>
       <c r="B2">
-        <v>3.18</v>
+        <v>2.45</v>
       </c>
       <c r="C2" t="s">
         <v>670</v>
@@ -7788,6 +7798,58 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="110.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B2">
+        <v>3.18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -7819,13 +7881,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B2">
         <v>0.93</v>
       </c>
       <c r="C2" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -7836,71 +7898,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B3">
         <v>2.3</v>
       </c>
       <c r="C3" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>569</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="110.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>676</v>
-      </c>
-      <c r="B2">
-        <v>2.17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>677</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -7943,7 +7953,7 @@
         <v>679</v>
       </c>
       <c r="B2">
-        <v>3.21</v>
+        <v>2.17</v>
       </c>
       <c r="C2" t="s">
         <v>680</v>
@@ -7952,7 +7962,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>617</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -7962,7 +7972,59 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B324"/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="110.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B2">
+        <v>3.21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B325"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7973,12 +8035,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -7986,7 +8048,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -8149,1445 +8211,1450 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>68</v>
+        <v>666</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>570</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>80</v>
+        <v>570</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>666</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>83</v>
+        <v>669</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>669</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>95</v>
+        <v>672</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>573</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>99</v>
+        <v>573</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>576</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>125</v>
+        <v>576</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>579</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>131</v>
+        <v>579</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>582</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>137</v>
+        <v>582</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>585</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>154</v>
+        <v>585</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>588</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>166</v>
+        <v>588</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>591</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>172</v>
+        <v>591</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>672</v>
+        <v>217</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>593</v>
+        <v>675</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>219</v>
+        <v>593</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" t="s">
-        <v>596</v>
+        <v>236</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>238</v>
+        <v>596</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>598</v>
+        <v>238</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" t="s">
-        <v>240</v>
+        <v>598</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>601</v>
+        <v>248</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>250</v>
+        <v>601</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>603</v>
+        <v>252</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>254</v>
+        <v>603</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" t="s">
-        <v>605</v>
+        <v>267</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" t="s">
-        <v>269</v>
+        <v>605</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>607</v>
+        <v>273</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" t="s">
-        <v>275</v>
+        <v>607</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" t="s">
-        <v>610</v>
+        <v>287</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" t="s">
-        <v>289</v>
+        <v>610</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
-        <v>676</v>
+        <v>293</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" t="s">
-        <v>295</v>
+        <v>679</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" t="s">
-        <v>613</v>
+        <v>303</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" t="s">
-        <v>305</v>
+        <v>613</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" t="s">
-        <v>615</v>
+        <v>307</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" t="s">
-        <v>308</v>
+        <v>615</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" t="s">
-        <v>618</v>
+        <v>310</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" t="s">
-        <v>312</v>
+        <v>618</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>621</v>
+        <v>312</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" t="s">
-        <v>313</v>
+        <v>621</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" t="s">
-        <v>623</v>
+        <v>334</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" t="s">
-        <v>336</v>
+        <v>623</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" t="s">
-        <v>626</v>
+        <v>347</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" t="s">
-        <v>350</v>
+        <v>629</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" t="s">
-        <v>632</v>
+        <v>353</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" t="s">
-        <v>355</v>
+        <v>632</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" t="s">
-        <v>635</v>
+        <v>355</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" t="s">
-        <v>357</v>
+        <v>635</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" t="s">
-        <v>638</v>
+        <v>373</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" t="s">
-        <v>375</v>
+        <v>641</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="224" spans="2:2">
       <c r="B224" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225" t="s">
-        <v>674</v>
+        <v>393</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" t="s">
-        <v>394</v>
+        <v>677</v>
       </c>
     </row>
     <row r="227" spans="2:2">
       <c r="B227" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" t="s">
-        <v>644</v>
+        <v>402</v>
       </c>
     </row>
     <row r="232" spans="2:2">
       <c r="B232" t="s">
-        <v>404</v>
+        <v>644</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="234" spans="2:2">
       <c r="B234" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="242" spans="2:2">
       <c r="B242" t="s">
-        <v>646</v>
+        <v>423</v>
       </c>
     </row>
     <row r="243" spans="2:2">
       <c r="B243" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
     </row>
     <row r="244" spans="2:2">
       <c r="B244" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="245" spans="2:2">
       <c r="B245" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" t="s">
-        <v>649</v>
+        <v>431</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" t="s">
-        <v>433</v>
+        <v>649</v>
       </c>
     </row>
     <row r="249" spans="2:2">
       <c r="B249" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="257" spans="2:2">
       <c r="B257" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="258" spans="2:2">
       <c r="B258" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="259" spans="2:2">
       <c r="B259" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="260" spans="2:2">
       <c r="B260" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="263" spans="2:2">
       <c r="B263" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="265" spans="2:2">
       <c r="B265" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="266" spans="2:2">
       <c r="B266" t="s">
-        <v>679</v>
+        <v>468</v>
       </c>
     </row>
     <row r="267" spans="2:2">
       <c r="B267" t="s">
-        <v>470</v>
+        <v>682</v>
       </c>
     </row>
     <row r="268" spans="2:2">
       <c r="B268" t="s">
-        <v>652</v>
+        <v>470</v>
       </c>
     </row>
     <row r="269" spans="2:2">
       <c r="B269" t="s">
-        <v>472</v>
+        <v>652</v>
       </c>
     </row>
     <row r="270" spans="2:2">
       <c r="B270" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="272" spans="2:2">
       <c r="B272" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="273" spans="2:2">
       <c r="B273" t="s">
-        <v>655</v>
+        <v>478</v>
       </c>
     </row>
     <row r="274" spans="2:2">
       <c r="B274" t="s">
-        <v>480</v>
+        <v>655</v>
       </c>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="276" spans="2:2">
       <c r="B276" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="277" spans="2:2">
       <c r="B277" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="278" spans="2:2">
       <c r="B278" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="279" spans="2:2">
       <c r="B279" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="280" spans="2:2">
       <c r="B280" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="281" spans="2:2">
       <c r="B281" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="282" spans="2:2">
       <c r="B282" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="284" spans="2:2">
       <c r="B284" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="285" spans="2:2">
       <c r="B285" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="286" spans="2:2">
       <c r="B286" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="287" spans="2:2">
       <c r="B287" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="288" spans="2:2">
       <c r="B288" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="289" spans="2:2">
       <c r="B289" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="290" spans="2:2">
       <c r="B290" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="291" spans="2:2">
       <c r="B291" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="292" spans="2:2">
       <c r="B292" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="293" spans="2:2">
       <c r="B293" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="294" spans="2:2">
       <c r="B294" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="295" spans="2:2">
       <c r="B295" t="s">
-        <v>657</v>
+        <v>520</v>
       </c>
     </row>
     <row r="296" spans="2:2">
       <c r="B296" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="297" spans="2:2">
       <c r="B297" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="298" spans="2:2">
       <c r="B298" t="s">
-        <v>522</v>
+        <v>662</v>
       </c>
     </row>
     <row r="299" spans="2:2">
       <c r="B299" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="300" spans="2:2">
       <c r="B300" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="301" spans="2:2">
       <c r="B301" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="302" spans="2:2">
       <c r="B302" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="303" spans="2:2">
       <c r="B303" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="304" spans="2:2">
       <c r="B304" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="B305" t="s">
-        <v>664</v>
+        <v>534</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="B306" t="s">
-        <v>536</v>
+        <v>664</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="B307" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="B308" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="B309" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="B310" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="B311" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="B312" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="B313" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="B314" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="B315" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
-      <c r="A316" t="s">
-        <v>684</v>
-      </c>
-      <c r="B316" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" t="s">
-        <v>685</v>
-      </c>
-      <c r="B318" t="s">
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>687</v>
+      </c>
+      <c r="B317" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>688</v>
+      </c>
+      <c r="B319" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
-      <c r="B319" t="s">
+    <row r="320" spans="1:2">
+      <c r="B320" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
-      <c r="A321" t="s">
-        <v>686</v>
-      </c>
-      <c r="B321" t="s">
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>689</v>
+      </c>
+      <c r="B322" t="s">
         <v>582</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="B322" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="B323" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="B324" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="B325" t="s">
         <v>613</v>
       </c>
     </row>

--- a/pdb/nsp3/SARS-CoV-2/domains_and_infos_of_nsp3.xlsx
+++ b/pdb/nsp3/SARS-CoV-2/domains_and_infos_of_nsp3.xlsx
@@ -8,21 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="nsp3_Macro1" sheetId="1" r:id="rId1"/>
-    <sheet name="nsp3_PL2pro" sheetId="2" r:id="rId2"/>
-    <sheet name="nsp3_pred_betaSM" sheetId="3" r:id="rId3"/>
+    <sheet name="nsp3_Ubl2+PL2pro" sheetId="2" r:id="rId2"/>
+    <sheet name="nsp3_betaSM-M" sheetId="3" r:id="rId3"/>
     <sheet name="nsp3_NAB" sheetId="4" r:id="rId4"/>
-    <sheet name="nsp3_Ubl2" sheetId="5" r:id="rId5"/>
-    <sheet name="nsp3_pred_linker-Ecto-TM2" sheetId="6" r:id="rId6"/>
-    <sheet name="nsp3_Y3" sheetId="7" r:id="rId7"/>
-    <sheet name="nsp3_Ubl1" sheetId="8" r:id="rId8"/>
-    <sheet name="Organisms" sheetId="9" r:id="rId9"/>
+    <sheet name="nsp3_Y3" sheetId="5" r:id="rId5"/>
+    <sheet name="nsp3_Ubl1" sheetId="6" r:id="rId6"/>
+    <sheet name="Organisms" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="690">
   <si>
     <t>PDB</t>
   </si>
@@ -681,6 +679,15 @@
     <t>PANDDA ANALYSIS GROUP DEPOSITION -- CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN IN COMPLEX WITH Z409974522</t>
   </si>
   <si>
+    <t>7kqw</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN (C2 CRYSTAL FORM, METHYLATED)</t>
+  </si>
+  <si>
+    <t>2020-11-17</t>
+  </si>
+  <si>
     <t>5ru0</t>
   </si>
   <si>
@@ -1272,9 +1279,6 @@
     <t>CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN (P43 CRYSTAL FORM)</t>
   </si>
   <si>
-    <t>2020-11-17</t>
-  </si>
-  <si>
     <t>5rsr</t>
   </si>
   <si>
@@ -1743,6 +1747,15 @@
     <t>2020-07-27</t>
   </si>
   <si>
+    <t>6yva</t>
+  </si>
+  <si>
+    <t>PLPRO-C111S WITH MISG15</t>
+  </si>
+  <si>
+    <t>2020-04-28</t>
+  </si>
+  <si>
     <t>7d7k</t>
   </si>
   <si>
@@ -1956,6 +1969,12 @@
     <t>2021-02-03</t>
   </si>
   <si>
+    <t>7jiw</t>
+  </si>
+  <si>
+    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH PLP_SNYDER530 INHIBITOR</t>
+  </si>
+  <si>
     <t>7sgw</t>
   </si>
   <si>
@@ -2038,27 +2057,6 @@
   </si>
   <si>
     <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>6yva</t>
-  </si>
-  <si>
-    <t>PLPRO-C111S WITH MISG15</t>
-  </si>
-  <si>
-    <t>2020-04-28</t>
-  </si>
-  <si>
-    <t>7kqw</t>
-  </si>
-  <si>
-    <t>CRYSTAL STRUCTURE OF SARS-COV-2 NSP3 MACRODOMAIN (C2 CRYSTAL FORM, METHYLATED)</t>
-  </si>
-  <si>
-    <t>7jiw</t>
-  </si>
-  <si>
-    <t>THE CRYSTAL STRUCTURE OF PAPAIN-LIKE PROTEASE OF SARS COV-2 IN COMPLEX WITH PLP_SNYDER530 INHIBITOR</t>
   </si>
   <si>
     <t>7rqg</t>
@@ -2423,7 +2421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E266"/>
+  <dimension ref="A1:E267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4156,7 +4154,7 @@
         <v>219</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="C102" t="s">
         <v>220</v>
@@ -4165,18 +4163,18 @@
         <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -4187,13 +4185,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B104">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -4204,19 +4202,19 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B105">
-        <v>1.45</v>
+        <v>1.04</v>
       </c>
       <c r="C105" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>227</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4224,7 +4222,7 @@
         <v>228</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="C106" t="s">
         <v>229</v>
@@ -4233,18 +4231,18 @@
         <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>8</v>
+        <v>230</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -4255,30 +4253,30 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B108">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B109">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="C109" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -4289,30 +4287,30 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="C110" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
@@ -4323,19 +4321,19 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B112">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
       </c>
       <c r="E112" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4343,7 +4341,7 @@
         <v>243</v>
       </c>
       <c r="B113">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="C113" t="s">
         <v>244</v>
@@ -4360,7 +4358,7 @@
         <v>246</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="C114" t="s">
         <v>247</v>
@@ -4369,35 +4367,35 @@
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B115">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
       </c>
       <c r="E115" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B116">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="C116" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -4408,13 +4406,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B117">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="C117" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
@@ -4425,64 +4423,64 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B118">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="C118" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B119">
-        <v>2.5</v>
+        <v>1.01</v>
       </c>
       <c r="C119" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D119" t="s">
         <v>7</v>
       </c>
       <c r="E119" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B120">
-        <v>1.18</v>
+        <v>2.5</v>
       </c>
       <c r="C120" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
       </c>
       <c r="E120" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B121">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="C121" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D121" t="s">
         <v>7</v>
@@ -4493,19 +4491,19 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B122">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="C122" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D122" t="s">
         <v>7</v>
       </c>
       <c r="E122" t="s">
-        <v>264</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4513,7 +4511,7 @@
         <v>265</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C123" t="s">
         <v>266</v>
@@ -4522,18 +4520,18 @@
         <v>7</v>
       </c>
       <c r="E123" t="s">
-        <v>8</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
@@ -4544,64 +4542,64 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B125">
-        <v>1.26</v>
+        <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D125" t="s">
         <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B126">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="C126" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D126" t="s">
         <v>7</v>
       </c>
       <c r="E126" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="C127" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D127" t="s">
         <v>7</v>
       </c>
       <c r="E127" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D128" t="s">
         <v>7</v>
@@ -4612,13 +4610,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B129">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D129" t="s">
         <v>7</v>
@@ -4629,47 +4627,47 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B130">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="C130" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D130" t="s">
         <v>7</v>
       </c>
       <c r="E130" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="C131" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D131" t="s">
         <v>7</v>
       </c>
       <c r="E131" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D132" t="s">
         <v>7</v>
@@ -4680,13 +4678,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D133" t="s">
         <v>7</v>
@@ -4697,13 +4695,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D134" t="s">
         <v>7</v>
@@ -4714,47 +4712,47 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B135">
-        <v>1.52</v>
+        <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D135" t="s">
         <v>7</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B136">
-        <v>1.08</v>
+        <v>1.52</v>
       </c>
       <c r="C136" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
       </c>
       <c r="E136" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B137">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="C137" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D137" t="s">
         <v>7</v>
@@ -4765,30 +4763,30 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="C138" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
       </c>
       <c r="E138" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D139" t="s">
         <v>7</v>
@@ -4799,81 +4797,81 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B140">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D140" t="s">
         <v>7</v>
       </c>
       <c r="E140" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="C141" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D141" t="s">
         <v>7</v>
       </c>
       <c r="E141" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B142">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D142" t="s">
         <v>7</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B143">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="C143" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
       </c>
       <c r="E143" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="C144" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="D144" t="s">
         <v>7</v>
@@ -4884,13 +4882,13 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="D145" t="s">
         <v>7</v>
@@ -4901,13 +4899,13 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D146" t="s">
         <v>7</v>
@@ -4918,13 +4916,13 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D147" t="s">
         <v>7</v>
@@ -4935,13 +4933,13 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B148">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>314</v>
+        <v>149</v>
       </c>
       <c r="D148" t="s">
         <v>7</v>
@@ -4952,30 +4950,30 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B149">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="C149" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D149" t="s">
         <v>7</v>
       </c>
       <c r="E149" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B150">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="C150" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D150" t="s">
         <v>7</v>
@@ -4986,13 +4984,13 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B151">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="C151" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D151" t="s">
         <v>7</v>
@@ -5003,19 +5001,19 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B152">
-        <v>1.55</v>
+        <v>1.12</v>
       </c>
       <c r="C152" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D152" t="s">
         <v>7</v>
       </c>
       <c r="E152" t="s">
-        <v>323</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5023,7 +5021,7 @@
         <v>324</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="C153" t="s">
         <v>325</v>
@@ -5032,18 +5030,18 @@
         <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>8</v>
+        <v>326</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D154" t="s">
         <v>7</v>
@@ -5054,30 +5052,30 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B155">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D155" t="s">
         <v>7</v>
       </c>
       <c r="E155" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B156">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="C156" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D156" t="s">
         <v>7</v>
@@ -5088,13 +5086,13 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B157">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="C157" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D157" t="s">
         <v>7</v>
@@ -5105,64 +5103,64 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="C158" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D158" t="s">
         <v>7</v>
       </c>
       <c r="E158" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B159">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D159" t="s">
         <v>7</v>
       </c>
       <c r="E159" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="C160" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D160" t="s">
         <v>7</v>
       </c>
       <c r="E160" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B161">
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D161" t="s">
         <v>7</v>
@@ -5173,47 +5171,47 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B162">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D162" t="s">
         <v>7</v>
       </c>
       <c r="E162" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B163">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="C163" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D163" t="s">
         <v>7</v>
       </c>
       <c r="E163" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="C164" t="s">
-        <v>56</v>
+        <v>348</v>
       </c>
       <c r="D164" t="s">
         <v>7</v>
@@ -5224,19 +5222,19 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B165">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>348</v>
+        <v>56</v>
       </c>
       <c r="D165" t="s">
         <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>349</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5244,7 +5242,7 @@
         <v>350</v>
       </c>
       <c r="B166">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="C166" t="s">
         <v>351</v>
@@ -5253,35 +5251,35 @@
         <v>7</v>
       </c>
       <c r="E166" t="s">
-        <v>20</v>
+        <v>352</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="C167" t="s">
-        <v>147</v>
+        <v>354</v>
       </c>
       <c r="D167" t="s">
         <v>7</v>
       </c>
       <c r="E167" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>354</v>
+        <v>147</v>
       </c>
       <c r="D168" t="s">
         <v>7</v>
@@ -5292,13 +5290,13 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D169" t="s">
         <v>7</v>
@@ -5309,47 +5307,47 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B170">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D170" t="s">
         <v>7</v>
       </c>
       <c r="E170" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="C171" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D171" t="s">
         <v>7</v>
       </c>
       <c r="E171" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D172" t="s">
         <v>7</v>
@@ -5360,47 +5358,47 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B173">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D173" t="s">
         <v>7</v>
       </c>
       <c r="E173" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="C174" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
       </c>
       <c r="E174" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B175">
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
@@ -5411,64 +5409,64 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B176">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D176" t="s">
         <v>7</v>
       </c>
       <c r="E176" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="C177" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D177" t="s">
         <v>7</v>
       </c>
       <c r="E177" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B178">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D178" t="s">
         <v>7</v>
       </c>
       <c r="E178" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B179">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="C179" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D179" t="s">
         <v>7</v>
@@ -5479,19 +5477,19 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B180">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="C180" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D180" t="s">
         <v>7</v>
       </c>
       <c r="E180" t="s">
-        <v>379</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5499,7 +5497,7 @@
         <v>380</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="C181" t="s">
         <v>381</v>
@@ -5508,18 +5506,18 @@
         <v>7</v>
       </c>
       <c r="E181" t="s">
-        <v>8</v>
+        <v>382</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D182" t="s">
         <v>7</v>
@@ -5530,47 +5528,47 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B183">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D183" t="s">
         <v>7</v>
       </c>
       <c r="E183" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="C184" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D184" t="s">
         <v>7</v>
       </c>
       <c r="E184" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D185" t="s">
         <v>7</v>
@@ -5581,19 +5579,19 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B186">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D186" t="s">
         <v>7</v>
       </c>
       <c r="E186" t="s">
-        <v>392</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5601,112 +5599,112 @@
         <v>393</v>
       </c>
       <c r="B187">
-        <v>1.06</v>
+        <v>0.96</v>
       </c>
       <c r="C187" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D187" t="s">
         <v>7</v>
       </c>
       <c r="E187" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
+        <v>396</v>
+      </c>
+      <c r="B188">
+        <v>1.06</v>
+      </c>
+      <c r="C188" t="s">
         <v>394</v>
       </c>
-      <c r="B188">
-        <v>1.18</v>
-      </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" t="s">
         <v>395</v>
-      </c>
-      <c r="D188" t="s">
-        <v>7</v>
-      </c>
-      <c r="E188" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B189">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="C189" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D189" t="s">
         <v>7</v>
       </c>
       <c r="E189" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B190">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="C190" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D190" t="s">
         <v>7</v>
       </c>
       <c r="E190" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B191">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="C191" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D191" t="s">
         <v>7</v>
       </c>
       <c r="E191" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B192">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="C192" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D192" t="s">
         <v>7</v>
       </c>
       <c r="E192" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B193">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="C193" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D193" t="s">
         <v>7</v>
@@ -5717,64 +5715,64 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="C194" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D194" t="s">
         <v>7</v>
       </c>
       <c r="E194" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B195">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D195" t="s">
         <v>7</v>
       </c>
       <c r="E195" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="C196" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D196" t="s">
         <v>7</v>
       </c>
       <c r="E196" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D197" t="s">
         <v>7</v>
@@ -5785,19 +5783,19 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B198">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D198" t="s">
         <v>7</v>
       </c>
       <c r="E198" t="s">
-        <v>416</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5805,7 +5803,7 @@
         <v>417</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="C199" t="s">
         <v>418</v>
@@ -5814,7 +5812,7 @@
         <v>7</v>
       </c>
       <c r="E199" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5822,7 +5820,7 @@
         <v>419</v>
       </c>
       <c r="B200">
-        <v>2.15</v>
+        <v>1</v>
       </c>
       <c r="C200" t="s">
         <v>420</v>
@@ -5831,7 +5829,7 @@
         <v>7</v>
       </c>
       <c r="E200" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5839,7 +5837,7 @@
         <v>421</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>2.15</v>
       </c>
       <c r="C201" t="s">
         <v>422</v>
@@ -5848,7 +5846,7 @@
         <v>7</v>
       </c>
       <c r="E201" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5856,7 +5854,7 @@
         <v>423</v>
       </c>
       <c r="B202">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C202" t="s">
         <v>424</v>
@@ -5873,7 +5871,7 @@
         <v>425</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="C203" t="s">
         <v>426</v>
@@ -5890,7 +5888,7 @@
         <v>427</v>
       </c>
       <c r="B204">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="C204" t="s">
         <v>428</v>
@@ -5907,7 +5905,7 @@
         <v>429</v>
       </c>
       <c r="B205">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="C205" t="s">
         <v>430</v>
@@ -5924,7 +5922,7 @@
         <v>431</v>
       </c>
       <c r="B206">
-        <v>2.05</v>
+        <v>1.05</v>
       </c>
       <c r="C206" t="s">
         <v>432</v>
@@ -5933,7 +5931,7 @@
         <v>7</v>
       </c>
       <c r="E206" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5941,33 +5939,33 @@
         <v>433</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>2.05</v>
       </c>
       <c r="C207" t="s">
-        <v>151</v>
+        <v>434</v>
       </c>
       <c r="D207" t="s">
         <v>7</v>
       </c>
       <c r="E207" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B208">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>435</v>
+        <v>151</v>
       </c>
       <c r="D208" t="s">
         <v>7</v>
       </c>
       <c r="E208" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5975,7 +5973,7 @@
         <v>436</v>
       </c>
       <c r="B209">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="C209" t="s">
         <v>437</v>
@@ -5984,7 +5982,7 @@
         <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5992,7 +5990,7 @@
         <v>438</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="C210" t="s">
         <v>439</v>
@@ -6001,7 +5999,7 @@
         <v>7</v>
       </c>
       <c r="E210" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6009,7 +6007,7 @@
         <v>440</v>
       </c>
       <c r="B211">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="C211" t="s">
         <v>441</v>
@@ -6018,7 +6016,7 @@
         <v>7</v>
       </c>
       <c r="E211" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6026,7 +6024,7 @@
         <v>442</v>
       </c>
       <c r="B212">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="C212" t="s">
         <v>443</v>
@@ -6035,7 +6033,7 @@
         <v>7</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6043,7 +6041,7 @@
         <v>444</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="C213" t="s">
         <v>445</v>
@@ -6052,7 +6050,7 @@
         <v>7</v>
       </c>
       <c r="E213" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6060,7 +6058,7 @@
         <v>446</v>
       </c>
       <c r="B214">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C214" t="s">
         <v>447</v>
@@ -6077,7 +6075,7 @@
         <v>448</v>
       </c>
       <c r="B215">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="C215" t="s">
         <v>449</v>
@@ -6086,7 +6084,7 @@
         <v>7</v>
       </c>
       <c r="E215" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6094,7 +6092,7 @@
         <v>450</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="C216" t="s">
         <v>451</v>
@@ -6103,7 +6101,7 @@
         <v>7</v>
       </c>
       <c r="E216" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6111,7 +6109,7 @@
         <v>452</v>
       </c>
       <c r="B217">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="C217" t="s">
         <v>453</v>
@@ -6120,7 +6118,7 @@
         <v>7</v>
       </c>
       <c r="E217" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6128,7 +6126,7 @@
         <v>454</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="C218" t="s">
         <v>455</v>
@@ -6137,7 +6135,7 @@
         <v>7</v>
       </c>
       <c r="E218" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6145,7 +6143,7 @@
         <v>456</v>
       </c>
       <c r="B219">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="C219" t="s">
         <v>457</v>
@@ -6154,7 +6152,7 @@
         <v>7</v>
       </c>
       <c r="E219" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6162,7 +6160,7 @@
         <v>458</v>
       </c>
       <c r="B220">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="C220" t="s">
         <v>459</v>
@@ -6179,7 +6177,7 @@
         <v>460</v>
       </c>
       <c r="B221">
-        <v>2.03</v>
+        <v>1.17</v>
       </c>
       <c r="C221" t="s">
         <v>461</v>
@@ -6188,24 +6186,24 @@
         <v>7</v>
       </c>
       <c r="E221" t="s">
-        <v>462</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
+        <v>462</v>
+      </c>
+      <c r="B222">
+        <v>2.03</v>
+      </c>
+      <c r="C222" t="s">
         <v>463</v>
       </c>
-      <c r="B222">
-        <v>1.06</v>
-      </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" t="s">
         <v>464</v>
-      </c>
-      <c r="D222" t="s">
-        <v>7</v>
-      </c>
-      <c r="E222" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6213,7 +6211,7 @@
         <v>465</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>1.06</v>
       </c>
       <c r="C223" t="s">
         <v>466</v>
@@ -6222,24 +6220,24 @@
         <v>7</v>
       </c>
       <c r="E223" t="s">
-        <v>467</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
+        <v>467</v>
+      </c>
+      <c r="B224">
+        <v>2</v>
+      </c>
+      <c r="C224" t="s">
         <v>468</v>
       </c>
-      <c r="B224">
-        <v>1.1</v>
-      </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" t="s">
         <v>469</v>
-      </c>
-      <c r="D224" t="s">
-        <v>7</v>
-      </c>
-      <c r="E224" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6247,7 +6245,7 @@
         <v>470</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="C225" t="s">
         <v>471</v>
@@ -6256,7 +6254,7 @@
         <v>7</v>
       </c>
       <c r="E225" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6264,7 +6262,7 @@
         <v>472</v>
       </c>
       <c r="B226">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="C226" t="s">
         <v>473</v>
@@ -6273,7 +6271,7 @@
         <v>7</v>
       </c>
       <c r="E226" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6281,7 +6279,7 @@
         <v>474</v>
       </c>
       <c r="B227">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="C227" t="s">
         <v>475</v>
@@ -6298,7 +6296,7 @@
         <v>476</v>
       </c>
       <c r="B228">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="C228" t="s">
         <v>477</v>
@@ -6315,7 +6313,7 @@
         <v>478</v>
       </c>
       <c r="B229">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="C229" t="s">
         <v>479</v>
@@ -6332,7 +6330,7 @@
         <v>480</v>
       </c>
       <c r="B230">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="C230" t="s">
         <v>481</v>
@@ -6349,7 +6347,7 @@
         <v>482</v>
       </c>
       <c r="B231">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="C231" t="s">
         <v>483</v>
@@ -6366,7 +6364,7 @@
         <v>484</v>
       </c>
       <c r="B232">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="C232" t="s">
         <v>485</v>
@@ -6375,7 +6373,7 @@
         <v>7</v>
       </c>
       <c r="E232" t="s">
-        <v>416</v>
+        <v>20</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6383,7 +6381,7 @@
         <v>486</v>
       </c>
       <c r="B233">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="C233" t="s">
         <v>487</v>
@@ -6392,7 +6390,7 @@
         <v>7</v>
       </c>
       <c r="E233" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6400,7 +6398,7 @@
         <v>488</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="C234" t="s">
         <v>489</v>
@@ -6417,7 +6415,7 @@
         <v>490</v>
       </c>
       <c r="B235">
-        <v>1.28</v>
+        <v>1</v>
       </c>
       <c r="C235" t="s">
         <v>491</v>
@@ -6426,7 +6424,7 @@
         <v>7</v>
       </c>
       <c r="E235" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6434,7 +6432,7 @@
         <v>492</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>1.28</v>
       </c>
       <c r="C236" t="s">
         <v>493</v>
@@ -6443,7 +6441,7 @@
         <v>7</v>
       </c>
       <c r="E236" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6451,7 +6449,7 @@
         <v>494</v>
       </c>
       <c r="B237">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C237" t="s">
         <v>495</v>
@@ -6460,7 +6458,7 @@
         <v>7</v>
       </c>
       <c r="E237" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6468,7 +6466,7 @@
         <v>496</v>
       </c>
       <c r="B238">
-        <v>0.77</v>
+        <v>0.99</v>
       </c>
       <c r="C238" t="s">
         <v>497</v>
@@ -6477,7 +6475,7 @@
         <v>7</v>
       </c>
       <c r="E238" t="s">
-        <v>323</v>
+        <v>20</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6485,7 +6483,7 @@
         <v>498</v>
       </c>
       <c r="B239">
-        <v>1.06</v>
+        <v>0.77</v>
       </c>
       <c r="C239" t="s">
         <v>499</v>
@@ -6494,7 +6492,7 @@
         <v>7</v>
       </c>
       <c r="E239" t="s">
-        <v>8</v>
+        <v>326</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6502,7 +6500,7 @@
         <v>500</v>
       </c>
       <c r="B240">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="C240" t="s">
         <v>501</v>
@@ -6511,7 +6509,7 @@
         <v>7</v>
       </c>
       <c r="E240" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6519,7 +6517,7 @@
         <v>502</v>
       </c>
       <c r="B241">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="C241" t="s">
         <v>503</v>
@@ -6536,7 +6534,7 @@
         <v>504</v>
       </c>
       <c r="B242">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="C242" t="s">
         <v>505</v>
@@ -6553,7 +6551,7 @@
         <v>506</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="C243" t="s">
         <v>507</v>
@@ -6562,7 +6560,7 @@
         <v>7</v>
       </c>
       <c r="E243" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6570,7 +6568,7 @@
         <v>508</v>
       </c>
       <c r="B244">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="C244" t="s">
         <v>509</v>
@@ -6579,7 +6577,7 @@
         <v>7</v>
       </c>
       <c r="E244" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6587,7 +6585,7 @@
         <v>510</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="C245" t="s">
         <v>511</v>
@@ -6596,7 +6594,7 @@
         <v>7</v>
       </c>
       <c r="E245" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6604,7 +6602,7 @@
         <v>512</v>
       </c>
       <c r="B246">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="C246" t="s">
         <v>513</v>
@@ -6613,7 +6611,7 @@
         <v>7</v>
       </c>
       <c r="E246" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6621,7 +6619,7 @@
         <v>514</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="C247" t="s">
         <v>515</v>
@@ -6630,7 +6628,7 @@
         <v>7</v>
       </c>
       <c r="E247" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6638,7 +6636,7 @@
         <v>516</v>
       </c>
       <c r="B248">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="C248" t="s">
         <v>517</v>
@@ -6647,7 +6645,7 @@
         <v>7</v>
       </c>
       <c r="E248" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6655,7 +6653,7 @@
         <v>518</v>
       </c>
       <c r="B249">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="C249" t="s">
         <v>519</v>
@@ -6664,7 +6662,7 @@
         <v>7</v>
       </c>
       <c r="E249" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6672,7 +6670,7 @@
         <v>520</v>
       </c>
       <c r="B250">
-        <v>1.55</v>
+        <v>1.04</v>
       </c>
       <c r="C250" t="s">
         <v>521</v>
@@ -6681,7 +6679,7 @@
         <v>7</v>
       </c>
       <c r="E250" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6689,7 +6687,7 @@
         <v>522</v>
       </c>
       <c r="B251">
-        <v>1.05</v>
+        <v>1.55</v>
       </c>
       <c r="C251" t="s">
         <v>523</v>
@@ -6698,7 +6696,7 @@
         <v>7</v>
       </c>
       <c r="E251" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6706,7 +6704,7 @@
         <v>524</v>
       </c>
       <c r="B252">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="C252" t="s">
         <v>525</v>
@@ -6715,7 +6713,7 @@
         <v>7</v>
       </c>
       <c r="E252" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6723,7 +6721,7 @@
         <v>526</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="C253" t="s">
         <v>527</v>
@@ -6732,7 +6730,7 @@
         <v>7</v>
       </c>
       <c r="E253" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6740,7 +6738,7 @@
         <v>528</v>
       </c>
       <c r="B254">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="C254" t="s">
         <v>529</v>
@@ -6749,7 +6747,7 @@
         <v>7</v>
       </c>
       <c r="E254" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6757,7 +6755,7 @@
         <v>530</v>
       </c>
       <c r="B255">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="C255" t="s">
         <v>531</v>
@@ -6774,7 +6772,7 @@
         <v>532</v>
       </c>
       <c r="B256">
-        <v>1.31</v>
+        <v>1.08</v>
       </c>
       <c r="C256" t="s">
         <v>533</v>
@@ -6791,7 +6789,7 @@
         <v>534</v>
       </c>
       <c r="B257">
-        <v>1.07</v>
+        <v>1.31</v>
       </c>
       <c r="C257" t="s">
         <v>535</v>
@@ -6808,7 +6806,7 @@
         <v>536</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="C258" t="s">
         <v>537</v>
@@ -6817,7 +6815,7 @@
         <v>7</v>
       </c>
       <c r="E258" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6842,7 +6840,7 @@
         <v>540</v>
       </c>
       <c r="B260">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="C260" t="s">
         <v>541</v>
@@ -6851,7 +6849,7 @@
         <v>7</v>
       </c>
       <c r="E260" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6859,7 +6857,7 @@
         <v>542</v>
       </c>
       <c r="B261">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="C261" t="s">
         <v>543</v>
@@ -6876,7 +6874,7 @@
         <v>544</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="C262" t="s">
         <v>545</v>
@@ -6885,7 +6883,7 @@
         <v>7</v>
       </c>
       <c r="E262" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6893,7 +6891,7 @@
         <v>546</v>
       </c>
       <c r="B263">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C263" t="s">
         <v>547</v>
@@ -6910,7 +6908,7 @@
         <v>548</v>
       </c>
       <c r="B264">
-        <v>2.3</v>
+        <v>1.02</v>
       </c>
       <c r="C264" t="s">
         <v>549</v>
@@ -6919,24 +6917,24 @@
         <v>7</v>
       </c>
       <c r="E264" t="s">
-        <v>550</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
+        <v>550</v>
+      </c>
+      <c r="B265">
+        <v>2.3</v>
+      </c>
+      <c r="C265" t="s">
         <v>551</v>
       </c>
-      <c r="B265">
-        <v>1</v>
-      </c>
-      <c r="C265" t="s">
+      <c r="D265" t="s">
+        <v>7</v>
+      </c>
+      <c r="E265" t="s">
         <v>552</v>
-      </c>
-      <c r="D265" t="s">
-        <v>7</v>
-      </c>
-      <c r="E265" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6953,6 +6951,23 @@
         <v>7</v>
       </c>
       <c r="E266" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>555</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267" t="s">
+        <v>556</v>
+      </c>
+      <c r="D267" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6963,7 +6978,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6993,699 +7008,733 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B2">
         <v>2.72</v>
       </c>
       <c r="C2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B3">
         <v>2.02</v>
       </c>
       <c r="C3" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B5">
         <v>2.7</v>
       </c>
       <c r="C5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B6">
         <v>2.09</v>
       </c>
       <c r="C6" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B7">
         <v>2.59</v>
       </c>
       <c r="C7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B8">
-        <v>1.9</v>
+        <v>3.18</v>
       </c>
       <c r="C8" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B9">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="C9" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B10">
-        <v>2.79</v>
+        <v>2.2</v>
       </c>
       <c r="C10" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B11">
-        <v>2.98</v>
+        <v>2.79</v>
       </c>
       <c r="C11" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B12">
-        <v>1.95</v>
+        <v>2.98</v>
       </c>
       <c r="C12" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B13">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="C13" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B14">
-        <v>2.11</v>
+        <v>1.79</v>
       </c>
       <c r="C14" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B15">
-        <v>2.7</v>
+        <v>2.11</v>
       </c>
       <c r="C15" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B16">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="C16" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B17">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="C17" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>600</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B18">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="C18" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B19">
-        <v>2.58</v>
+        <v>2.9</v>
       </c>
       <c r="C19" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>563</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B20">
-        <v>1.9</v>
+        <v>2.58</v>
       </c>
       <c r="C20" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="C21" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B22">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B23">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="C23" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>584</v>
+        <v>617</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B24">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="C24" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>617</v>
+        <v>589</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B25">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="C25" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B26">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="C26" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>569</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B27">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="C27" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>625</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B28">
-        <v>2.48</v>
+        <v>2.9</v>
       </c>
       <c r="C28" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B29">
-        <v>3.2</v>
+        <v>2.48</v>
       </c>
       <c r="C29" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B30">
-        <v>1.93</v>
+        <v>3.2</v>
       </c>
       <c r="C30" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B31">
-        <v>2.72</v>
+        <v>1.93</v>
       </c>
       <c r="C31" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B32">
-        <v>1.97</v>
+        <v>2.72</v>
       </c>
       <c r="C32" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B33">
-        <v>2.3</v>
+        <v>1.97</v>
       </c>
       <c r="C33" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B34">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="C34" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>612</v>
+        <v>648</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B35">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="C35" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>648</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B36">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="C36" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>651</v>
+        <v>617</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B37">
-        <v>2.48</v>
+        <v>2.04</v>
       </c>
       <c r="C37" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1.66</v>
       </c>
       <c r="C38" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>612</v>
+        <v>658</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B39">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="C39" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>578</v>
+        <v>661</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B40">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>661</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B41">
-        <v>2.02</v>
+        <v>2.8</v>
       </c>
       <c r="C41" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B42">
+        <v>2.5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>667</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>669</v>
+      </c>
+      <c r="B43">
+        <v>2.02</v>
+      </c>
+      <c r="C43" t="s">
+        <v>670</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>671</v>
+      </c>
+      <c r="B44">
         <v>2.05</v>
       </c>
-      <c r="C42" t="s">
-        <v>665</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" t="s">
-        <v>569</v>
+      <c r="C44" t="s">
+        <v>672</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -7725,19 +7774,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="B2">
         <v>2.2</v>
       </c>
       <c r="C2" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -7777,19 +7826,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="B2">
         <v>2.45</v>
       </c>
       <c r="C2" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -7829,19 +7878,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="B2">
-        <v>3.18</v>
+        <v>2.17</v>
       </c>
       <c r="C2" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -7850,75 +7899,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="110.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>675</v>
-      </c>
-      <c r="B2">
-        <v>0.93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>676</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>677</v>
-      </c>
-      <c r="B3">
-        <v>2.3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>678</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -7950,19 +7930,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B2">
-        <v>2.17</v>
+        <v>3.21</v>
       </c>
       <c r="C2" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>681</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -7970,59 +7950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="110.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>682</v>
-      </c>
-      <c r="B2">
-        <v>3.21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>683</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B325"/>
   <sheetViews>
@@ -8091,7 +8019,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8101,7 +8029,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8116,7 +8044,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -8136,7 +8064,7 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="2:2">
@@ -8151,7 +8079,7 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="2:2">
@@ -8211,7 +8139,7 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -8246,7 +8174,7 @@
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="43" spans="2:2">
@@ -8256,7 +8184,7 @@
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
     </row>
     <row r="45" spans="2:2">
@@ -8291,7 +8219,7 @@
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>672</v>
+        <v>575</v>
       </c>
     </row>
     <row r="52" spans="2:2">
@@ -8306,7 +8234,7 @@
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="55" spans="2:2">
@@ -8376,7 +8304,7 @@
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69" spans="2:2">
@@ -8396,7 +8324,7 @@
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="73" spans="2:2">
@@ -8416,7 +8344,7 @@
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="77" spans="2:2">
@@ -8461,7 +8389,7 @@
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="86" spans="2:2">
@@ -8496,7 +8424,7 @@
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="93" spans="2:2">
@@ -8516,7 +8444,7 @@
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="97" spans="2:2">
@@ -8631,227 +8559,227 @@
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>675</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="164" spans="2:2">
@@ -8861,512 +8789,512 @@
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="224" spans="2:2">
       <c r="B224" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" t="s">
-        <v>677</v>
+        <v>649</v>
       </c>
     </row>
     <row r="227" spans="2:2">
       <c r="B227" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="232" spans="2:2">
       <c r="B232" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="234" spans="2:2">
       <c r="B234" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="242" spans="2:2">
       <c r="B242" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="243" spans="2:2">
       <c r="B243" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
     </row>
     <row r="244" spans="2:2">
       <c r="B244" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="245" spans="2:2">
       <c r="B245" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
     </row>
     <row r="249" spans="2:2">
       <c r="B249" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="257" spans="2:2">
       <c r="B257" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="258" spans="2:2">
       <c r="B258" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="259" spans="2:2">
       <c r="B259" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="260" spans="2:2">
       <c r="B260" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="263" spans="2:2">
       <c r="B263" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="265" spans="2:2">
       <c r="B265" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="266" spans="2:2">
       <c r="B266" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="267" spans="2:2">
@@ -9376,242 +9304,242 @@
     </row>
     <row r="268" spans="2:2">
       <c r="B268" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="269" spans="2:2">
       <c r="B269" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="270" spans="2:2">
       <c r="B270" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="272" spans="2:2">
       <c r="B272" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="273" spans="2:2">
       <c r="B273" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="274" spans="2:2">
       <c r="B274" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="276" spans="2:2">
       <c r="B276" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="277" spans="2:2">
       <c r="B277" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="278" spans="2:2">
       <c r="B278" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="279" spans="2:2">
       <c r="B279" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="280" spans="2:2">
       <c r="B280" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="281" spans="2:2">
       <c r="B281" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="282" spans="2:2">
       <c r="B282" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="284" spans="2:2">
       <c r="B284" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="285" spans="2:2">
       <c r="B285" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="286" spans="2:2">
       <c r="B286" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="287" spans="2:2">
       <c r="B287" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="288" spans="2:2">
       <c r="B288" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="289" spans="2:2">
       <c r="B289" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="290" spans="2:2">
       <c r="B290" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="291" spans="2:2">
       <c r="B291" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="292" spans="2:2">
       <c r="B292" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="293" spans="2:2">
       <c r="B293" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="294" spans="2:2">
       <c r="B294" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="295" spans="2:2">
       <c r="B295" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="296" spans="2:2">
       <c r="B296" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
     </row>
     <row r="297" spans="2:2">
       <c r="B297" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
     </row>
     <row r="298" spans="2:2">
       <c r="B298" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="299" spans="2:2">
       <c r="B299" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="300" spans="2:2">
       <c r="B300" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="301" spans="2:2">
       <c r="B301" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="302" spans="2:2">
       <c r="B302" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="303" spans="2:2">
       <c r="B303" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="304" spans="2:2">
       <c r="B304" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="B305" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="B306" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="B307" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="B308" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="B309" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="B310" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="B311" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="B312" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="B313" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="B314" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="B315" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -9619,7 +9547,7 @@
         <v>687</v>
       </c>
       <c r="B317" t="s">
-        <v>672</v>
+        <v>575</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -9627,12 +9555,12 @@
         <v>688</v>
       </c>
       <c r="B319" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="B320" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -9640,22 +9568,22 @@
         <v>689</v>
       </c>
       <c r="B322" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="B323" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="B324" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="B325" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>

--- a/pdb/nsp3/SARS-CoV-2/domains_and_infos_of_nsp3.xlsx
+++ b/pdb/nsp3/SARS-CoV-2/domains_and_infos_of_nsp3.xlsx
@@ -7,24 +7,25 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="domain1" sheetId="1" r:id="rId1"/>
-    <sheet name="domain2" sheetId="2" r:id="rId2"/>
-    <sheet name="domain3" sheetId="3" r:id="rId3"/>
-    <sheet name="domain4" sheetId="4" r:id="rId4"/>
-    <sheet name="domain5" sheetId="5" r:id="rId5"/>
-    <sheet name="domain6" sheetId="6" r:id="rId6"/>
-    <sheet name="domain7" sheetId="7" r:id="rId7"/>
-    <sheet name="domain8" sheetId="8" r:id="rId8"/>
-    <sheet name="domain9" sheetId="9" r:id="rId9"/>
-    <sheet name="domain10" sheetId="10" r:id="rId10"/>
-    <sheet name="Organisms" sheetId="11" r:id="rId11"/>
+    <sheet name="nsp3_Macro1_" sheetId="1" r:id="rId1"/>
+    <sheet name="nsp3_Ubl2_nsp3_PL2pro_" sheetId="2" r:id="rId2"/>
+    <sheet name="nsp3_Ubl2_" sheetId="3" r:id="rId3"/>
+    <sheet name="nsp3_betaSM-M_" sheetId="4" r:id="rId4"/>
+    <sheet name="nsp3_DPUP_nsp3_Ubl2_" sheetId="5" r:id="rId5"/>
+    <sheet name="nsp3_NAB_" sheetId="6" r:id="rId6"/>
+    <sheet name="nsp3_PL2pro_" sheetId="7" r:id="rId7"/>
+    <sheet name="nsp3_Macro1_nsp3_PL2pro_" sheetId="8" r:id="rId8"/>
+    <sheet name="nsp3_Y3_" sheetId="9" r:id="rId9"/>
+    <sheet name="None" sheetId="10" r:id="rId10"/>
+    <sheet name="nsp3_Ubl1_" sheetId="11" r:id="rId11"/>
+    <sheet name="Organisms" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="704">
   <si>
     <t>nsp3_Macro1_</t>
   </si>
@@ -2007,6 +2008,18 @@
   </si>
   <si>
     <t>2021-12-20</t>
+  </si>
+  <si>
+    <t>nsp3_DPUP_nsp3_Ubl2_</t>
+  </si>
+  <si>
+    <t>7thh</t>
+  </si>
+  <si>
+    <t>SUD-C AND UBL2 DOMAINS OF SARS COV-2 NSP3 PROTEIN</t>
+  </si>
+  <si>
+    <t>2022-01-11</t>
   </si>
   <si>
     <t>nsp3_NAB_</t>
@@ -7038,7 +7051,7 @@
         <v>692</v>
       </c>
       <c r="B3">
-        <v>3.21</v>
+        <v>2.72</v>
       </c>
       <c r="C3" t="s">
         <v>693</v>
@@ -7047,7 +7060,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>604</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -7057,7 +7070,64 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B325"/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="110.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B3">
+        <v>3.21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B326"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7068,12 +7138,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -7081,7 +7151,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -7269,1425 +7339,1430 @@
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>77</v>
+        <v>662</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>649</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>81</v>
+        <v>649</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>662</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>84</v>
+        <v>666</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>652</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>96</v>
+        <v>652</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>666</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>100</v>
+        <v>670</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>569</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>126</v>
+        <v>569</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>572</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>132</v>
+        <v>572</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>575</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>138</v>
+        <v>575</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>578</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>155</v>
+        <v>578</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>581</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>167</v>
+        <v>581</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>669</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>173</v>
+        <v>673</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>681</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>220</v>
+        <v>675</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>584</v>
+        <v>237</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>239</v>
+        <v>584</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" t="s">
-        <v>586</v>
+        <v>239</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" t="s">
-        <v>241</v>
+        <v>586</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>589</v>
+        <v>249</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" t="s">
-        <v>251</v>
+        <v>589</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>673</v>
+        <v>253</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" t="s">
-        <v>255</v>
+        <v>677</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" t="s">
-        <v>592</v>
+        <v>268</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>270</v>
+        <v>592</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" t="s">
-        <v>594</v>
+        <v>274</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" t="s">
-        <v>276</v>
+        <v>594</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" t="s">
-        <v>597</v>
+        <v>288</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>290</v>
+        <v>597</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" t="s">
-        <v>684</v>
+        <v>294</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>296</v>
+        <v>688</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" t="s">
-        <v>600</v>
+        <v>304</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>306</v>
+        <v>600</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" t="s">
-        <v>602</v>
+        <v>308</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" t="s">
-        <v>309</v>
+        <v>602</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" t="s">
-        <v>605</v>
+        <v>311</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>313</v>
+        <v>605</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" t="s">
-        <v>608</v>
+        <v>313</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" t="s">
-        <v>314</v>
+        <v>608</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" t="s">
-        <v>610</v>
+        <v>335</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" t="s">
-        <v>337</v>
+        <v>610</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" t="s">
-        <v>613</v>
+        <v>348</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>351</v>
+        <v>616</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" t="s">
-        <v>675</v>
+        <v>354</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" t="s">
-        <v>356</v>
+        <v>679</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" t="s">
-        <v>688</v>
+        <v>356</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" t="s">
-        <v>358</v>
+        <v>692</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" t="s">
-        <v>619</v>
+        <v>374</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" t="s">
-        <v>376</v>
+        <v>622</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="224" spans="2:2">
       <c r="B224" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" t="s">
-        <v>625</v>
+        <v>394</v>
       </c>
     </row>
     <row r="227" spans="2:2">
       <c r="B227" t="s">
-        <v>395</v>
+        <v>625</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="232" spans="2:2">
       <c r="B232" t="s">
-        <v>627</v>
+        <v>403</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" t="s">
-        <v>405</v>
+        <v>627</v>
       </c>
     </row>
     <row r="234" spans="2:2">
       <c r="B234" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="242" spans="2:2">
       <c r="B242" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="243" spans="2:2">
       <c r="B243" t="s">
-        <v>629</v>
+        <v>424</v>
       </c>
     </row>
     <row r="244" spans="2:2">
       <c r="B244" t="s">
-        <v>426</v>
+        <v>629</v>
       </c>
     </row>
     <row r="245" spans="2:2">
       <c r="B245" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" t="s">
-        <v>632</v>
+        <v>432</v>
       </c>
     </row>
     <row r="249" spans="2:2">
       <c r="B249" t="s">
-        <v>434</v>
+        <v>632</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="257" spans="2:2">
       <c r="B257" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="258" spans="2:2">
       <c r="B258" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="259" spans="2:2">
       <c r="B259" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="260" spans="2:2">
       <c r="B260" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="263" spans="2:2">
       <c r="B263" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="265" spans="2:2">
       <c r="B265" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="266" spans="2:2">
       <c r="B266" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="267" spans="2:2">
       <c r="B267" t="s">
-        <v>692</v>
+        <v>469</v>
       </c>
     </row>
     <row r="268" spans="2:2">
       <c r="B268" t="s">
-        <v>471</v>
+        <v>696</v>
       </c>
     </row>
     <row r="269" spans="2:2">
       <c r="B269" t="s">
-        <v>635</v>
+        <v>471</v>
       </c>
     </row>
     <row r="270" spans="2:2">
       <c r="B270" t="s">
-        <v>473</v>
+        <v>635</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="272" spans="2:2">
       <c r="B272" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="273" spans="2:2">
       <c r="B273" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="274" spans="2:2">
       <c r="B274" t="s">
-        <v>655</v>
+        <v>479</v>
       </c>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" t="s">
-        <v>481</v>
+        <v>655</v>
       </c>
     </row>
     <row r="276" spans="2:2">
       <c r="B276" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="277" spans="2:2">
       <c r="B277" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="278" spans="2:2">
       <c r="B278" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="279" spans="2:2">
       <c r="B279" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="280" spans="2:2">
       <c r="B280" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="281" spans="2:2">
       <c r="B281" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="282" spans="2:2">
       <c r="B282" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="284" spans="2:2">
       <c r="B284" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="285" spans="2:2">
       <c r="B285" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="286" spans="2:2">
       <c r="B286" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="287" spans="2:2">
       <c r="B287" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="288" spans="2:2">
       <c r="B288" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="289" spans="2:2">
       <c r="B289" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="290" spans="2:2">
       <c r="B290" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="291" spans="2:2">
       <c r="B291" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="292" spans="2:2">
       <c r="B292" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="293" spans="2:2">
       <c r="B293" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="294" spans="2:2">
       <c r="B294" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="295" spans="2:2">
       <c r="B295" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="296" spans="2:2">
       <c r="B296" t="s">
-        <v>638</v>
+        <v>521</v>
       </c>
     </row>
     <row r="297" spans="2:2">
       <c r="B297" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="298" spans="2:2">
       <c r="B298" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="299" spans="2:2">
       <c r="B299" t="s">
-        <v>523</v>
+        <v>643</v>
       </c>
     </row>
     <row r="300" spans="2:2">
       <c r="B300" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="301" spans="2:2">
       <c r="B301" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="302" spans="2:2">
       <c r="B302" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="303" spans="2:2">
       <c r="B303" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="304" spans="2:2">
       <c r="B304" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="B305" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="B306" t="s">
-        <v>678</v>
+        <v>535</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="B307" t="s">
-        <v>537</v>
+        <v>682</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="B308" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="B309" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="B310" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="B311" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="B312" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="B313" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="B314" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="B315" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="B316" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
-      <c r="A317" t="s">
-        <v>697</v>
-      </c>
-      <c r="B317" t="s">
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>701</v>
+      </c>
+      <c r="B318" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
-      <c r="A319" t="s">
-        <v>698</v>
-      </c>
-      <c r="B319" t="s">
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>702</v>
+      </c>
+      <c r="B320" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
-      <c r="B320" t="s">
+    <row r="321" spans="1:2">
+      <c r="B321" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
-      <c r="A322" t="s">
-        <v>699</v>
-      </c>
-      <c r="B322" t="s">
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>703</v>
+      </c>
+      <c r="B323" t="s">
         <v>575</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="B323" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="B324" t="s">
-        <v>589</v>
+        <v>675</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="B325" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="B326" t="s">
         <v>600</v>
       </c>
     </row>
@@ -9485,7 +9560,7 @@
         <v>662</v>
       </c>
       <c r="B3">
-        <v>2.45</v>
+        <v>1.32</v>
       </c>
       <c r="C3" t="s">
         <v>663</v>
@@ -9503,6 +9578,63 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="110.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>666</v>
+      </c>
+      <c r="B3">
+        <v>2.45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -9517,7 +9649,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9539,47 +9671,47 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B3">
         <v>1.9</v>
       </c>
       <c r="C3" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B4">
         <v>2.11</v>
       </c>
       <c r="C4" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B5">
         <v>2.7</v>
       </c>
       <c r="C5" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -9590,13 +9722,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B6">
         <v>2.58</v>
       </c>
       <c r="C6" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -9607,93 +9739,36 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B7">
         <v>1.93</v>
       </c>
       <c r="C7" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B8">
         <v>2.05</v>
       </c>
       <c r="C8" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
         <v>568</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="110.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>681</v>
-      </c>
-      <c r="B3">
-        <v>0.93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>682</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -9716,7 +9791,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9738,19 +9813,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B3">
-        <v>2.17</v>
+        <v>0.93</v>
       </c>
       <c r="C3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>686</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -9798,7 +9873,7 @@
         <v>688</v>
       </c>
       <c r="B3">
-        <v>2.72</v>
+        <v>2.17</v>
       </c>
       <c r="C3" t="s">
         <v>689</v>

--- a/pdb/nsp3/SARS-CoV-2/domains_and_infos_of_nsp3.xlsx
+++ b/pdb/nsp3/SARS-CoV-2/domains_and_infos_of_nsp3.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="707">
   <si>
     <t>nsp3_Macro1_</t>
   </si>
@@ -2119,6 +2119,15 @@
   </si>
   <si>
     <t>CRYSTAL STRUCTURE OF THE UBIQUITIN-LIKE DOMAIN 1 (UBL1) OF NSP3 FROM SARS-COV-2</t>
+  </si>
+  <si>
+    <t>7ti9</t>
+  </si>
+  <si>
+    <t>CRYSTAL STRUCTURE OF THE UBIQUITIN-LIKE DOMAIN 1 (UBL1) OF NSP3 FROM SARS-COV-2, FORM 2</t>
+  </si>
+  <si>
+    <t>2022-01-13</t>
   </si>
   <si>
     <t>Lists all PDBs which contain sequences of a certain organism.</t>
@@ -7070,7 +7079,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7120,6 +7129,23 @@
         <v>604</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>698</v>
+      </c>
+      <c r="B4">
+        <v>2.73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>699</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7127,7 +7153,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B326"/>
+  <dimension ref="A1:B327"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7138,12 +7164,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -7151,7 +7177,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -8489,280 +8515,285 @@
     </row>
     <row r="270" spans="2:2">
       <c r="B270" t="s">
-        <v>635</v>
+        <v>698</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" t="s">
-        <v>473</v>
+        <v>635</v>
       </c>
     </row>
     <row r="272" spans="2:2">
       <c r="B272" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="273" spans="2:2">
       <c r="B273" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="274" spans="2:2">
       <c r="B274" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" t="s">
-        <v>655</v>
+        <v>479</v>
       </c>
     </row>
     <row r="276" spans="2:2">
       <c r="B276" t="s">
-        <v>481</v>
+        <v>655</v>
       </c>
     </row>
     <row r="277" spans="2:2">
       <c r="B277" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="278" spans="2:2">
       <c r="B278" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="279" spans="2:2">
       <c r="B279" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="280" spans="2:2">
       <c r="B280" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="281" spans="2:2">
       <c r="B281" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="282" spans="2:2">
       <c r="B282" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="284" spans="2:2">
       <c r="B284" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="285" spans="2:2">
       <c r="B285" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="286" spans="2:2">
       <c r="B286" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="287" spans="2:2">
       <c r="B287" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="288" spans="2:2">
       <c r="B288" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="289" spans="2:2">
       <c r="B289" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="290" spans="2:2">
       <c r="B290" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="291" spans="2:2">
       <c r="B291" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="292" spans="2:2">
       <c r="B292" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="293" spans="2:2">
       <c r="B293" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="294" spans="2:2">
       <c r="B294" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="295" spans="2:2">
       <c r="B295" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="296" spans="2:2">
       <c r="B296" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="297" spans="2:2">
       <c r="B297" t="s">
-        <v>638</v>
+        <v>521</v>
       </c>
     </row>
     <row r="298" spans="2:2">
       <c r="B298" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="299" spans="2:2">
       <c r="B299" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="300" spans="2:2">
       <c r="B300" t="s">
-        <v>523</v>
+        <v>643</v>
       </c>
     </row>
     <row r="301" spans="2:2">
       <c r="B301" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="302" spans="2:2">
       <c r="B302" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="303" spans="2:2">
       <c r="B303" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="304" spans="2:2">
       <c r="B304" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="B305" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="B306" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="B307" t="s">
-        <v>682</v>
+        <v>535</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="B308" t="s">
-        <v>537</v>
+        <v>682</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="B309" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="B310" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="B311" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="B312" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="B313" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="B314" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="B315" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="B316" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="B317" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
-      <c r="A318" t="s">
-        <v>701</v>
-      </c>
-      <c r="B318" t="s">
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>704</v>
+      </c>
+      <c r="B319" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
-      <c r="A320" t="s">
-        <v>702</v>
-      </c>
-      <c r="B320" t="s">
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>705</v>
+      </c>
+      <c r="B321" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
-      <c r="B321" t="s">
+    <row r="322" spans="1:2">
+      <c r="B322" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
-      <c r="A323" t="s">
-        <v>703</v>
-      </c>
-      <c r="B323" t="s">
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>706</v>
+      </c>
+      <c r="B324" t="s">
         <v>575</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="B324" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="B325" t="s">
-        <v>589</v>
+        <v>675</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="B326" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="B327" t="s">
         <v>600</v>
       </c>
     </row>

--- a/pdb/nsp3/SARS-CoV-2/domains_and_infos_of_nsp3.xlsx
+++ b/pdb/nsp3/SARS-CoV-2/domains_and_infos_of_nsp3.xlsx
@@ -17,15 +17,16 @@
     <sheet name="nsp3_Macro1_nsp3_PL2pro_" sheetId="8" r:id="rId8"/>
     <sheet name="nsp3_Y3_" sheetId="9" r:id="rId9"/>
     <sheet name="None" sheetId="10" r:id="rId10"/>
-    <sheet name="nsp3_Ubl1_" sheetId="11" r:id="rId11"/>
-    <sheet name="Organisms" sheetId="12" r:id="rId12"/>
+    <sheet name="nsp3_PL2pro_nsp3_Ubl2_" sheetId="11" r:id="rId11"/>
+    <sheet name="nsp3_Ubl1_" sheetId="12" r:id="rId12"/>
+    <sheet name="Organisms" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="711">
   <si>
     <t>nsp3_Macro1_</t>
   </si>
@@ -2110,6 +2111,18 @@
   </si>
   <si>
     <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>nsp3_PL2pro_nsp3_Ubl2_</t>
+  </si>
+  <si>
+    <t>7nt4</t>
+  </si>
+  <si>
+    <t>X-RAY STRUCTURE OF SCOV2-PLPRO IN COMPLEX WITH SMALL MOLECULE INHIBITOR</t>
+  </si>
+  <si>
+    <t>2021-03-09</t>
   </si>
   <si>
     <t>nsp3_Ubl1_</t>
@@ -7079,6 +7092,63 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="110.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B3">
+        <v>2.68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7092,7 +7162,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7114,13 +7184,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B3">
         <v>3.21</v>
       </c>
       <c r="C3" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -7131,19 +7201,19 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="B4">
         <v>2.73</v>
       </c>
       <c r="C4" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -7151,9 +7221,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B327"/>
+  <dimension ref="A1:B328"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7164,12 +7234,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -7177,7 +7247,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -8510,290 +8580,295 @@
     </row>
     <row r="269" spans="2:2">
       <c r="B269" t="s">
-        <v>471</v>
+        <v>700</v>
       </c>
     </row>
     <row r="270" spans="2:2">
       <c r="B270" t="s">
-        <v>698</v>
+        <v>471</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" t="s">
-        <v>635</v>
+        <v>702</v>
       </c>
     </row>
     <row r="272" spans="2:2">
       <c r="B272" t="s">
-        <v>473</v>
+        <v>635</v>
       </c>
     </row>
     <row r="273" spans="2:2">
       <c r="B273" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="274" spans="2:2">
       <c r="B274" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="276" spans="2:2">
       <c r="B276" t="s">
-        <v>655</v>
+        <v>479</v>
       </c>
     </row>
     <row r="277" spans="2:2">
       <c r="B277" t="s">
-        <v>481</v>
+        <v>655</v>
       </c>
     </row>
     <row r="278" spans="2:2">
       <c r="B278" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="279" spans="2:2">
       <c r="B279" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="280" spans="2:2">
       <c r="B280" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="281" spans="2:2">
       <c r="B281" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="282" spans="2:2">
       <c r="B282" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="284" spans="2:2">
       <c r="B284" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="285" spans="2:2">
       <c r="B285" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="286" spans="2:2">
       <c r="B286" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="287" spans="2:2">
       <c r="B287" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="288" spans="2:2">
       <c r="B288" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="289" spans="2:2">
       <c r="B289" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="290" spans="2:2">
       <c r="B290" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="291" spans="2:2">
       <c r="B291" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="292" spans="2:2">
       <c r="B292" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="293" spans="2:2">
       <c r="B293" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="294" spans="2:2">
       <c r="B294" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="295" spans="2:2">
       <c r="B295" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="296" spans="2:2">
       <c r="B296" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="297" spans="2:2">
       <c r="B297" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="298" spans="2:2">
       <c r="B298" t="s">
-        <v>638</v>
+        <v>521</v>
       </c>
     </row>
     <row r="299" spans="2:2">
       <c r="B299" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="300" spans="2:2">
       <c r="B300" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="301" spans="2:2">
       <c r="B301" t="s">
-        <v>523</v>
+        <v>643</v>
       </c>
     </row>
     <row r="302" spans="2:2">
       <c r="B302" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="303" spans="2:2">
       <c r="B303" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="304" spans="2:2">
       <c r="B304" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="B305" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="B306" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="B307" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="B308" t="s">
-        <v>682</v>
+        <v>535</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="B309" t="s">
-        <v>537</v>
+        <v>682</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="B310" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="B311" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="B312" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="B313" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="B314" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="B315" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="B316" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="B317" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="B318" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
-      <c r="A319" t="s">
-        <v>704</v>
-      </c>
-      <c r="B319" t="s">
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>708</v>
+      </c>
+      <c r="B320" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
-      <c r="A321" t="s">
-        <v>705</v>
-      </c>
-      <c r="B321" t="s">
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>709</v>
+      </c>
+      <c r="B322" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
-      <c r="B322" t="s">
+    <row r="323" spans="1:2">
+      <c r="B323" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
-      <c r="A324" t="s">
-        <v>706</v>
-      </c>
-      <c r="B324" t="s">
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>710</v>
+      </c>
+      <c r="B325" t="s">
         <v>575</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="B325" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="B326" t="s">
-        <v>589</v>
+        <v>675</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="B327" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="B328" t="s">
         <v>600</v>
       </c>
     </row>
